--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\test-manager-service\src\main\resources\script\front\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/test-manager-service/src/main/resources/script/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1836" windowWidth="32340" windowHeight="18984" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1840" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="149">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -333,10 +333,6 @@
   </si>
   <si>
     <t>choerodon.code.platform-reports.testreport</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.platform-reports.testreport</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -409,13 +405,142 @@
   </si>
   <si>
     <t>format_shapes</t>
+  </si>
+  <si>
+    <t>choerodon.code.test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test-service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.test.manager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.test.TestPlan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.test.TestExecute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.test.autotest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto Test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Execute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Plan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.test.manager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.test.TestPlan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.test.TestExecute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.test.autotest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.setting</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>agile</t>
+  </si>
+  <si>
+    <t>choerodon.code.setting.test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.setting.test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/testManager/status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/testManager/AutoTest/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置路由</t>
+    <rPh sb="0" eb="1">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lu'you</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.platform-reports.testreport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.test.manager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.test.TestPlan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.setting.test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.getTestCycle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -777,31 +902,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:O14"/>
+  <dimension ref="D7:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.19921875" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" style="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.59765625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" style="1" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
@@ -836,10 +961,10 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
@@ -871,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -899,8 +1024,11 @@
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="4:15">
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -928,8 +1056,11 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="4:15">
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -957,8 +1088,11 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="4:15">
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>28</v>
       </c>
@@ -986,8 +1120,11 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="4:15">
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>31</v>
       </c>
@@ -1015,10 +1152,13 @@
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="4:15">
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -1042,6 +1182,154 @@
         <v>1</v>
       </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="F15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="F16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1058,29 +1346,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:P16"/>
+  <dimension ref="D7:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="66.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="66.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.796875" style="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="48.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="44.21875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" style="1" customWidth="1"/>
-    <col min="13" max="15" width="11.5546875" style="1" customWidth="1"/>
-    <col min="16" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="48.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.59765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="44.19921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.59765625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.59765625" style="1" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:16" ht="12.75" customHeight="1">
+    <row r="7" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1115,13 +1405,13 @@
         <v>38</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="4:16" ht="12.75" customHeight="1">
+    </row>
+    <row r="8" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1149,8 +1439,11 @@
       <c r="O8" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="4:16">
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>45</v>
       </c>
@@ -1185,12 +1478,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:16">
+    <row r="10" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H10" t="s">
         <v>51</v>
@@ -1216,13 +1509,16 @@
       <c r="O10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="4:16">
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H11" t="s">
         <v>54</v>
@@ -1243,18 +1539,21 @@
         <v>48</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="4:16">
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -1275,13 +1574,16 @@
         <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O12">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="4:16">
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>58</v>
       </c>
@@ -1312,8 +1614,11 @@
       <c r="O13">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="4:16">
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>62</v>
       </c>
@@ -1339,13 +1644,16 @@
         <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O14">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="4:16">
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
         <v>65</v>
       </c>
@@ -1373,13 +1681,16 @@
       <c r="O15">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="4:16">
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H16" t="s">
         <v>69</v>
@@ -1403,6 +1714,228 @@
         <v>57</v>
       </c>
       <c r="O16">
+        <v>30</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O17" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O19" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O20" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O21" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" t="s">
+        <v>138</v>
+      </c>
+      <c r="O22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="1">
         <v>30</v>
       </c>
     </row>
@@ -1419,41 +1952,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H25"/>
+  <dimension ref="D7:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="A34" sqref="A34:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.59765625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
-    <col min="8" max="8" width="26.21875" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" customWidth="1"/>
+    <col min="6" max="6" width="26.3984375" customWidth="1"/>
+    <col min="7" max="7" width="41.3984375" customWidth="1"/>
+    <col min="8" max="8" width="26.19921875" customWidth="1"/>
+    <col min="9" max="9" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="13.8">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
         <v>101</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>102</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>103</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>104</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" ht="13.8">
-      <c r="F8" t="s">
-        <v>106</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>39</v>
@@ -1461,10 +1997,13 @@
       <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="4:8" ht="13.8">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>45</v>
@@ -1472,10 +2011,13 @@
       <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="4:8" ht="13.8">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>50</v>
@@ -1483,10 +2025,13 @@
       <c r="H10" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="4:8" ht="13.8">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>53</v>
@@ -1494,10 +2039,13 @@
       <c r="H11" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="4:8" ht="13.8">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>55</v>
@@ -1505,10 +2053,13 @@
       <c r="H12" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="4:8" ht="13.8">
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>58</v>
@@ -1516,10 +2067,13 @@
       <c r="H13" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="4:8" ht="13.8">
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>62</v>
@@ -1527,10 +2081,13 @@
       <c r="H14" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="4:8" ht="13.8">
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>65</v>
@@ -1538,10 +2095,13 @@
       <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="4:8" ht="13.8">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>98</v>
@@ -1549,104 +2109,244 @@
       <c r="H16" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="6:8" ht="13.8">
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F18" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" ht="13.8">
-      <c r="F18" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F19" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="6:8" ht="13.8">
-      <c r="F19" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F20" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="6:8" ht="13.8">
-      <c r="F20" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F21" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="6:8" ht="13.8">
-      <c r="F21" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F22" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="6:8" ht="13.8">
-      <c r="F22" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F23" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="6:8" ht="13.8">
-      <c r="F23" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F24" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="6:8" ht="13.8">
-      <c r="F24" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F25" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="6:8" ht="13.8">
-      <c r="F25" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F27" s="1" t="s">
         <v>107</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1657,23 +2357,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H14"/>
+  <dimension ref="D7:H18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="44" style="1" customWidth="1"/>
-    <col min="7" max="7" width="59.21875" style="1" customWidth="1"/>
-    <col min="8" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="59.19921875" style="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>70</v>
       </c>
@@ -1687,65 +2387,115 @@
         <v>72</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" ht="12.75" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>50</v>
       </c>
       <c r="G9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="4:8">
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>53</v>
       </c>
       <c r="G10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="4:8">
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>55</v>
       </c>
       <c r="G11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="4:8">
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>58</v>
       </c>
       <c r="G12" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="4:8">
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>62</v>
       </c>
       <c r="G13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="4:8">
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1768,26 +2518,26 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="23.77734375" style="5" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23.3984375" style="5" customWidth="1"/>
+    <col min="7" max="8" width="23.796875" style="5" customWidth="1"/>
     <col min="9" max="10" width="24" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" style="5" customWidth="1"/>
     <col min="12" max="12" width="28" style="5" customWidth="1"/>
-    <col min="13" max="13" width="28.5546875" style="5" customWidth="1"/>
-    <col min="14" max="15" width="11.5546875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" style="5" customWidth="1"/>
-    <col min="18" max="18" width="46.44140625" style="5" customWidth="1"/>
-    <col min="19" max="1025" width="11.5546875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="28.59765625" style="5" customWidth="1"/>
+    <col min="14" max="15" width="11.59765625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="19.3984375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="11.59765625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="46.3984375" style="5" customWidth="1"/>
+    <col min="19" max="1025" width="11.59765625" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
         <v>76</v>
       </c>
@@ -1834,7 +2584,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="4:18">
+    <row r="8" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E8" s="5" t="s">
         <v>84</v>
       </c>
@@ -1875,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E9" s="5" t="s">
         <v>86</v>
       </c>
@@ -1916,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E10" s="5" t="s">
         <v>89</v>
       </c>
@@ -1957,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E11" s="5" t="s">
         <v>92</v>
       </c>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1840" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1840" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="150">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -476,9 +476,6 @@
   <si>
     <t>choerodon.route.test.autotest</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.setting</t>
   </si>
   <si>
     <t>设置</t>
@@ -533,6 +530,14 @@
   </si>
   <si>
     <t>test-manager-service.test-cycle.getTestCycle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.test.TestPlan</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1158,7 +1163,7 @@
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -1190,7 +1195,7 @@
     </row>
     <row r="15" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>18</v>
@@ -1219,7 +1224,7 @@
     </row>
     <row r="16" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>21</v>
@@ -1280,7 +1285,7 @@
         <v>134</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>13</v>
@@ -1306,10 +1311,10 @@
     </row>
     <row r="19" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>13</v>
@@ -1318,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>16</v>
@@ -1348,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="F1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1878,14 +1883,14 @@
       </c>
     </row>
     <row r="22" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" t="s">
         <v>135</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>136</v>
-      </c>
-      <c r="H22" t="s">
-        <v>137</v>
       </c>
       <c r="I22"/>
       <c r="J22" s="1" t="s">
@@ -1901,7 +1906,7 @@
         <v>43</v>
       </c>
       <c r="N22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O22">
         <v>60</v>
@@ -1909,7 +1914,7 @@
     </row>
     <row r="23" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F23" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>119</v>
@@ -1918,13 +1923,13 @@
         <v>120</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>121</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>14</v>
@@ -1936,7 +1941,7 @@
         <v>61</v>
       </c>
       <c r="O23" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2332,7 +2337,7 @@
         <v>105</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>14</v>
@@ -2343,7 +2348,7 @@
         <v>107</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>106</v>
@@ -2359,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2395,7 +2400,7 @@
         <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -2469,7 +2474,7 @@
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>73</v>
@@ -2493,7 +2498,7 @@
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>73</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1840" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="1840" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -910,7 +910,7 @@
   <dimension ref="D7:O19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="A20" sqref="A20:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1354,7 +1354,7 @@
   <dimension ref="D7:P23"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="F24" sqref="A24:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1959,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD35"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.59765625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2364,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B19" sqref="A19:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2519,8 +2519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1840" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="1840" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="151">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -538,6 +538,10 @@
   </si>
   <si>
     <t>choerodon.code.test.TestPlan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assignment_turned_in</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1353,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="F24" sqref="A24:XFD51"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1938,7 +1942,7 @@
         <v>48</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="O23" s="1">
         <v>40</v>
@@ -2519,7 +2523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="152">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>choerodon.code.test-manager.autotest</t>
-  </si>
-  <si>
-    <t>自动化测试</t>
   </si>
   <si>
     <t>auto test</t>
@@ -542,6 +539,14 @@
   </si>
   <si>
     <t>assignment_turned_in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -970,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1167,7 +1172,7 @@
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -1199,7 +1204,7 @@
     </row>
     <row r="15" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>18</v>
@@ -1228,7 +1233,7 @@
     </row>
     <row r="16" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>21</v>
@@ -1257,7 +1262,7 @@
     </row>
     <row r="17" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F17" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>24</v>
@@ -1286,10 +1291,10 @@
     </row>
     <row r="18" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F18" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>13</v>
@@ -1315,10 +1320,10 @@
     </row>
     <row r="19" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F19" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>13</v>
@@ -1327,7 +1332,7 @@
         <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>16</v>
@@ -1358,7 +1363,7 @@
   <dimension ref="D7:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="G31" activeCellId="1" sqref="G21 G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1402,22 +1407,22 @@
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1492,7 +1497,7 @@
         <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H10" t="s">
         <v>51</v>
@@ -1527,7 +1532,7 @@
         <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H11" t="s">
         <v>54</v>
@@ -1548,7 +1553,7 @@
         <v>48</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O11">
         <v>30</v>
@@ -1562,7 +1567,7 @@
         <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -1583,7 +1588,7 @@
         <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O12">
         <v>40</v>
@@ -1632,10 +1637,10 @@
         <v>62</v>
       </c>
       <c r="G14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" t="s">
         <v>63</v>
-      </c>
-      <c r="H14" t="s">
-        <v>64</v>
       </c>
       <c r="I14" t="s">
         <v>31</v>
@@ -1653,7 +1658,7 @@
         <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O14">
         <v>60</v>
@@ -1664,13 +1669,13 @@
     </row>
     <row r="15" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
         <v>65</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>66</v>
-      </c>
-      <c r="H15" t="s">
-        <v>67</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
@@ -1685,7 +1690,7 @@
         <v>43</v>
       </c>
       <c r="N15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O15">
         <v>110</v>
@@ -1696,22 +1701,22 @@
     </row>
     <row r="16" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" t="s">
-        <v>99</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
@@ -1731,16 +1736,16 @@
     </row>
     <row r="17" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>42</v>
@@ -1752,7 +1757,7 @@
         <v>43</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O17" s="1">
         <v>30</v>
@@ -1760,22 +1765,22 @@
     </row>
     <row r="18" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>14</v>
@@ -1792,22 +1797,22 @@
     </row>
     <row r="19" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>14</v>
@@ -1816,7 +1821,7 @@
         <v>48</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O19" s="1">
         <v>20</v>
@@ -1824,22 +1829,22 @@
     </row>
     <row r="20" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F20" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>14</v>
@@ -1848,7 +1853,7 @@
         <v>48</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O20" s="1">
         <v>30</v>
@@ -1856,22 +1861,22 @@
     </row>
     <row r="21" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>14</v>
@@ -1880,7 +1885,7 @@
         <v>48</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O21" s="1">
         <v>40</v>
@@ -1888,17 +1893,17 @@
     </row>
     <row r="22" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" t="s">
         <v>135</v>
-      </c>
-      <c r="H22" t="s">
-        <v>136</v>
       </c>
       <c r="I22"/>
       <c r="J22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K22" t="s">
         <v>42</v>
@@ -1910,7 +1915,7 @@
         <v>43</v>
       </c>
       <c r="N22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O22">
         <v>60</v>
@@ -1918,22 +1923,22 @@
     </row>
     <row r="23" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="K23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>14</v>
@@ -1942,7 +1947,7 @@
         <v>48</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O23" s="1">
         <v>40</v>
@@ -1978,27 +1983,27 @@
   <sheetData>
     <row r="7" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
         <v>100</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>101</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>102</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>103</v>
       </c>
-      <c r="H7" t="s">
-        <v>104</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>39</v>
@@ -2012,7 +2017,7 @@
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>45</v>
@@ -2026,7 +2031,7 @@
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>50</v>
@@ -2040,7 +2045,7 @@
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>53</v>
@@ -2054,7 +2059,7 @@
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>55</v>
@@ -2068,7 +2073,7 @@
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>58</v>
@@ -2082,7 +2087,7 @@
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>62</v>
@@ -2096,10 +2101,10 @@
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>14</v>
@@ -2110,10 +2115,10 @@
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>14</v>
@@ -2124,13 +2129,13 @@
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -2138,13 +2143,13 @@
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -2152,13 +2157,13 @@
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
@@ -2166,13 +2171,13 @@
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -2180,13 +2185,13 @@
     </row>
     <row r="21" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -2194,13 +2199,13 @@
     </row>
     <row r="22" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -2208,13 +2213,13 @@
     </row>
     <row r="23" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -2222,13 +2227,13 @@
     </row>
     <row r="24" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
@@ -2236,13 +2241,13 @@
     </row>
     <row r="25" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
@@ -2250,10 +2255,10 @@
     </row>
     <row r="26" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>14</v>
@@ -2261,21 +2266,21 @@
     </row>
     <row r="27" spans="6:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>14</v>
@@ -2283,21 +2288,21 @@
     </row>
     <row r="29" spans="6:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>14</v>
@@ -2305,21 +2310,21 @@
     </row>
     <row r="31" spans="6:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F31" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F32" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>14</v>
@@ -2327,21 +2332,21 @@
     </row>
     <row r="33" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F33" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F34" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>14</v>
@@ -2349,13 +2354,13 @@
     </row>
     <row r="35" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F35" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2384,19 +2389,19 @@
   <sheetData>
     <row r="7" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2404,7 +2409,7 @@
         <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -2415,7 +2420,7 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -2426,7 +2431,7 @@
         <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -2437,7 +2442,7 @@
         <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -2448,7 +2453,7 @@
         <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -2459,7 +2464,7 @@
         <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -2467,10 +2472,10 @@
     </row>
     <row r="14" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -2478,34 +2483,34 @@
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2548,7 +2553,7 @@
   <sheetData>
     <row r="7" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
@@ -2557,7 +2562,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>35</v>
@@ -2566,13 +2571,13 @@
         <v>36</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>6</v>
@@ -2581,24 +2586,24 @@
         <v>38</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>40</v>
@@ -2607,7 +2612,7 @@
         <v>40</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>40</v>
@@ -2622,7 +2627,7 @@
         <v>40</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O8" s="5">
         <v>1</v>
@@ -2636,22 +2641,22 @@
     </row>
     <row r="9" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="I9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>13</v>
@@ -2660,10 +2665,10 @@
         <v>14</v>
       </c>
       <c r="M9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="O9" s="5">
         <v>2</v>
@@ -2677,22 +2682,22 @@
     </row>
     <row r="10" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="I10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>13</v>
@@ -2701,10 +2706,10 @@
         <v>14</v>
       </c>
       <c r="M10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="O10" s="5">
         <v>3</v>
@@ -2718,22 +2723,22 @@
     </row>
     <row r="11" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="I11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>13</v>
@@ -2742,10 +2747,10 @@
         <v>14</v>
       </c>
       <c r="M11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="O11" s="5">
         <v>4</v>
@@ -2757,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1840" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1840" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="FD_CATEGORY_MENU" sheetId="5" r:id="rId3"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId4"/>
-    <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId5"/>
+    <sheet name="FD_REPORT" sheetId="6" r:id="rId5"/>
+    <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="172">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -548,6 +549,91 @@
   <si>
     <t>自动化</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_REPORT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#REPORT_TYPE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ICON</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#TITLE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#DESCRIPTION</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PATH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SORT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求 -&gt; 测试 -&gt; 执行 -&gt; 缺陷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷 -&gt; 执行 -&gt; 测试 -&gt; 要求</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从类型字段搜索要求或缺陷，然后选择合适版本以缩小范围，最后单击“生成” 创建可跟踪性报告。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从类型字段搜索要求或缺陷，然后选择合适版本以缩小范围，最后单击“生成” 创建可跟踪性报告。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计测试用例执行情况，可以筛选得到各个迭代的不同测试循环中的用例执行状态记录。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行进度</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'du</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/testManager/report/story</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+DQo8c3ZnIHdpZHRoPSIxODRweCIgaGVpZ2h0PSIxMDZweCIgdmlld0JveD0iMCAwIDE4NCAxMDYiIHZlcnNpb249IjEuMSIgeG1sbnM9Imh0dHA6Ly93d3cudzMub3JnLzIwMDAvc3ZnIiB4bWxuczp4bGluaz0iaHR0cDovL3d3dy53My5vcmcvMTk5OS94bGluayI+DQogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA0OSAoNTEwMDIpIC0gaHR0cDovL3d3dy5ib2hlbWlhbmNvZGluZy5jb20vc2tldGNoIC0tPg0KICAgIDx0aXRsZT5Hcm91cCA3PC90aXRsZT4NCiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4NCiAgICA8ZGVmcz48L2RlZnM+DQogICAgPGcgaWQ9IlN5bWJvbHMiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPg0KICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgtNDguMDAwMDAwLCAtNDIuMDAwMDAwKSI+DQogICAgICAgICAgICA8ZyBpZD0iR3JvdXAiPg0KICAgICAgICAgICAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDMwLjAwMDAwMCwgMTguMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC03IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDI0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAzNC4wMDAwMDApIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI4MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDE2LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjgwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMzIuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjkwIiB5PSIwIiB3aWR0aD0iNDAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE0MCIgeT0iMCIgd2lkdGg9IjQ0IiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA0OC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI4MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDY0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjgwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTQiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zOS42NjY2NjY3LDEyIEw0NS42NjY2NjY3LDEyIiBpZD0iTGluZS00IiBzdHJva2Utb3BhY2l0eT0iMC4zNiIgc3Ryb2tlPSIjMDAwMDAwIiBzdHJva2Utd2lkdGg9IjIiIHN0cm9rZS1saW5lY2FwPSJyb3VuZCIgc3Ryb2tlLWxpbmVqb2luPSJyb3VuZCI+PC9wYXRoPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik04OSwxMiBMOTUsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzOC4zMzMzMzMsMTIgTDE0NC4zMzMzMzMsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE0OC4wMDAwMDAsIDAuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbC1vcGFjaXR5PSIwLjgiIGZpbGw9IiNGNDQzMzYiIHg9IjAiIHk9IjAiIHdpZHRoPSIzNiIgaGVpZ2h0PSIyNCIgcng9IjIiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImljX2J1Z19yZXBvcnRfYmxhY2tfMjRweCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTAuMDAwMDAwLCA0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBvbHlnb24gaWQ9IlNoYXBlIiBwb2ludHM9IjAgMCAxNiAwIDE2IDE2IDAgMTYiPjwvcG9seWdvbj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMi41NzE0Mjg2LDUuNzc3Nzc3NzggTDEwLjc2NSw1Ljc3Nzc3Nzc4IEMxMC40NzU3MTQzLDUuMjMzMDE1ODcgMTAuMDc3MTQyOSw0Ljc2NTA3OTM3IDkuNTk1LDQuNDA4ODg4ODkgTDEwLjY0Mjg1NzEsMy4yNzA0NzYxOSBMOS43MzY0Mjg1NywyLjI4NTcxNDI5IEw4LjM0MTQyODU3LDMuODAxMjY5ODQgQzguMDQ1NzE0MjksMy43MjQ0NDQ0NCA3Ljc0MzU3MTQzLDMuNjgyNTM5NjggNy40Mjg1NzE0MywzLjY4MjUzOTY4IEM3LjExMzU3MTQzLDMuNjgyNTM5NjggNi44MTE0Mjg1NywzLjcyNDQ0NDQ0IDYuNTIyMTQyODYsMy44MDEyNjk4NCBMNS4xMjA3MTQyOSwyLjI4NTcxNDI5IEw0LjIxNDI4NTcxLDMuMjcwNDc2MTkgTDUuMjU1NzE0MjksNC40MDg4ODg4OSBDNC43OCw0Ljc2NTA3OTM3IDQuMzgxNDI4NTcsNS4yMzMwMTU4NyA0LjA5MjE0Mjg2LDUuNzc3Nzc3NzggTDIuMjg1NzE0MjksNS43Nzc3Nzc3OCBMMi4yODU3MTQyOSw3LjE3NDYwMzE3IEwzLjYyOTI4NTcxLDcuMTc0NjAzMTcgQzMuNTk3MTQyODYsNy40MDUwNzkzNyAzLjU3MTQyODU3LDcuNjM1NTU1NTYgMy41NzE0Mjg1Nyw3Ljg3MzAxNTg3IEwzLjU3MTQyODU3LDguNTcxNDI4NTcgTDIuMjg1NzE0MjksOC41NzE0Mjg1NyBMMi4yODU3MTQyOSw5Ljk2ODI1Mzk3IEwzLjU3MTQyODU3LDkuOTY4MjUzOTcgTDMuNTcxNDI4NTcsMTAuNjY2NjY2NyBDMy41NzE0Mjg1NywxMC45MDQxMjcgMy41OTcxNDI4NiwxMS4xMzQ2MDMyIDMuNjI5Mjg1NzEsMTEuMzY1MDc5NCBMMi4yODU3MTQyOSwxMS4zNjUwNzk0IEwyLjI4NTcxNDI5LDEyLjc2MTkwNDggTDQuMDkyMTQyODYsMTIuNzYxOTA0OCBDNC43NjA3MTQyOSwxNC4wMTIwNjM1IDYuMDAxNDI4NTcsMTQuODU3MTQyOSA3LjQyODU3MTQzLDE0Ljg1NzE0MjkgQzguODU1NzE0MjksMTQuODU3MTQyOSAxMC4wOTY0Mjg2LDE0LjAxMjA2MzUgMTAuNzY1LDEyLjc2MTkwNDggTDEyLjU3MTQyODYsMTIuNzYxOTA0OCBMMTIuNTcxNDI4NiwxMS4zNjUwNzk0IEwxMS4yMjc4NTcxLDExLjM2NTA3OTQgQzExLjI2LDExLjEzNDYwMzIgMTEuMjg1NzE0MywxMC45MDQxMjcgMTEuMjg1NzE0MywxMC42NjY2NjY3IEwxMS4yODU3MTQzLDkuOTY4MjUzOTcgTDEyLjU3MTQyODYsOS45NjgyNTM5NyBMMTIuNTcxNDI4Niw4LjU3MTQyODU3IEwxMS4yODU3MTQzLDguNTcxNDI4NTcgTDExLjI4NTcxNDMsNy44NzMwMTU4NyBDMTEuMjg1NzE0Myw3LjYzNTU1NTU2IDExLjI2LDcuNDA1MDc5MzcgMTEuMjI3ODU3MSw3LjE3NDYwMzE3IEwxMi41NzE0Mjg2LDcuMTc0NjAzMTcgTDEyLjU3MTQyODYsNS43Nzc3Nzc3OCBaIE04LjcxNDI4NTcxLDExLjM2NTA3OTQgTDYuMTQyODU3MTQsMTEuMzY1MDc5NCBMNi4xNDI4NTcxNCw5Ljk2ODI1Mzk3IEw4LjcxNDI4NTcxLDkuOTY4MjUzOTcgTDguNzE0Mjg1NzEsMTEuMzY1MDc5NCBaIE04LjcxNDI4NTcxLDguNTcxNDI4NTcgTDYuMTQyODU3MTQsOC41NzE0Mjg1NyBMNi4xNDI4NTcxNCw3LjE3NDYwMzE3IEw4LjcxNDI4NTcxLDcuMTc0NjAzMTcgTDguNzE0Mjg1NzEsOC41NzE0Mjg1NyBaIiBpZD0iU2hhcGUiIGZpbGw9IiNGRkZGRkYiIGZpbGwtcnVsZT0ibm9uemVybyI+PC9wYXRoPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0zIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg5OC42NjY2NjcsIDAuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbC1vcGFjaXR5PSIwLjgiIGZpbGw9IiM0RDkwRkUiIHg9IjAiIHk9IjAiIHdpZHRoPSIzNiIgaGVpZ2h0PSIyNCIgcng9IjIiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImJhc2VsaW5lLWV4cGxpY2l0LTI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIwIDAgMTYgMCAxNiAxNiAwIDE2Ij48L3BvbHlnb24+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTIuNjY2NjY2NywyIEwzLjMzMzMzMzMzLDIgQzIuNiwyIDIsMi42IDIsMy4zMzMzMzMzMyBMMiwxMi42NjY2NjY3IEMyLDEzLjQgMi42LDE0IDMuMzMzMzMzMzMsMTQgTDEyLjY2NjY2NjcsMTQgQzEzLjQsMTQgMTQsMTMuNCAxNCwxMi42NjY2NjY3IEwxNCwzLjMzMzMzMzMzIEMxNCwyLjYgMTMuNCwyIDEyLjY2NjY2NjcsMiBaIE0xMCw2IEw3LjMzMzMzMzMzLDYgTDcuMzMzMzMzMzMsNy4zMzMzMzMzMyBMMTAsNy4zMzMzMzMzMyBMMTAsOC42NjY2NjY2NyBMNy4zMzMzMzMzMyw4LjY2NjY2NjY3IEw3LjMzMzMzMzMzLDEwIEwxMCwxMCBMMTAsMTEuMzMzMzMzMyBMNiwxMS4zMzMzMzMzIEw2LDQuNjY2NjY2NjcgTDEwLDQuNjY2NjY2NjcgTDEwLDYgWiIgaWQ9IlNoYXBlIiBmaWxsPSIjRkZGRkZGIiBmaWxsLXJ1bGU9Im5vbnplcm8iPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDkuMzMzMzMzLCAwLjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTQiIGZpbGwtb3BhY2l0eT0iMC44IiBmaWxsPSIjMDBCRkE1IiB4PSIwIiB5PSIwIiB3aWR0aD0iMzYiIGhlaWdodD0iMjQiIHJ4PSIyIj48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJpY19idWdfcmVwb3J0X2JsYWNrXzI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIwIDAgMTYgMCAxNiAxNiAwIDE2Ij48L3BvbHlnb24+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iYmFzZWxpbmUtZXhwbG9yZS0yNHB4IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxLjAwMDAwMCwgMS4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNywwIEMxMC44NjU5OTMyLC03LjEwMTcxNDM5ZS0xNiAxNCwzLjEzNDAwNjc1IDE0LDcgQzE0LDEwLjg2NTk5MzIgMTAuODY1OTkzMiwxNCA3LDE0IEMzLjEzNDAwNjc1LDE0IDQuNzM0NDc2MjZlLTE2LDEwLjg2NTk5MzIgMCw3IEMtNC43MzQ0NzYyNmUtMTYsMy4xMzQwMDY3NSAzLjEzNDAwNjc1LDcuMTAxNzE0MzllLTE2IDcsMCBaIE03LDYuMzU4MzMzMzMgQzcuMzU1ODMzMzMsNi4zNTgzMzMzMyA3LjY0MTY2NjY3LDYuNjQ0MTY2NjcgNy42NDE2NjY2Nyw3IEM3LjY0MTY2NjY3LDcuMzU1ODMzMzMgNy4zNTU4MzMzMyw3LjY0MTY2NjY3IDcsNy42NDE2NjY2NyBDNi42NDQxNjY2Nyw3LjY0MTY2NjY3IDYuMzU4MzMzMzMsNy4zNTU4MzMzMyA2LjM1ODMzMzMzLDcgQzYuMzU4MzMzMzMsNi42NDQxNjY2NyA2LjY0NDE2NjY3LDYuMzU4MzMzMzMgNyw2LjM1ODMzMzMzIFogTTguMjc3NSw4LjI3NzUgTDEwLjUsMy41IEw1LjcyMjUsNS43MjI1IEwzLjUsMTAuNSBMOC4yNzc1LDguMjc3NSBaIiBpZD0iQ29tYmluZWQtU2hhcGUiIGZpbGw9IiNGRkZGRkYiPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMi4xIDIuMSAxMS45IDIuMSAxMS45IDExLjkgMi4xIDExLjkiPjwvcG9seWdvbj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbD0iI0ZGQjEwMCIgeD0iMCIgeT0iMCIgd2lkdGg9IjM2IiBoZWlnaHQ9IjI0IiByeD0iMiI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iYmFzZWxpbmUtYm9va21hcmstMjRweC0oMSkiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMS4zMzMzMzMzLDIgTDQuNjY2NjY2NjcsMiBDMy45MzMzMzMzMywyIDMuMzQsMi42IDMuMzQsMy4zMzMzMzMzMyBMMy4zMzMzMzMzMywxNCBMOCwxMiBMMTIuNjY2NjY2NywxNCBMMTIuNjY2NjY2NywzLjMzMzMzMzMzIEMxMi42NjY2NjY3LDIuNiAxMi4wNjY2NjY3LDIgMTEuMzMzMzMzMywyIFoiIGlkPSJTaGFwZSIgZmlsbD0iI0ZGRkZGRiIgZmlsbC1ydWxlPSJub256ZXJvIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMCAwIDE2IDAgMTYgMTYgMCAxNiI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgPC9nPg0KICAgICAgICA8L2c+DQogICAgPC9nPg0KPC9zdmc+</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+DQo8c3ZnIHdpZHRoPSIxODRweCIgaGVpZ2h0PSIxMDZweCIgdmlld0JveD0iMCAwIDE4NCAxMDYiIHZlcnNpb249IjEuMSIgeG1sbnM9Imh0dHA6Ly93d3cudzMub3JnLzIwMDAvc3ZnIiB4bWxuczp4bGluaz0iaHR0cDovL3d3dy53My5vcmcvMTk5OS94bGluayI+DQogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA0OSAoNTEwMDIpIC0gaHR0cDovL3d3dy5ib2hlbWlhbmNvZGluZy5jb20vc2tldGNoIC0tPg0KICAgIDx0aXRsZT5Hcm91cCA3PC90aXRsZT4NCiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4NCiAgICA8ZGVmcz48L2RlZnM+DQogICAgPGcgaWQ9IlBhZ2UtMSIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+DQogICAgICAgIDxnIGlkPSLmiqXooajvvIjmgLvop4jvvIkiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC02MjYuMDAwMDAwLCAtMjc2LjAwMDAwMCkiPg0KICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDI3NC4wMDAwMDAsIDEzMi4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgzMDQuMDAwMDAwLCAxMDIuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMzAuMDAwMDAwLCAxOC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC03IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDI0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC04IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMzQuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDE2LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDMyLjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDQ4LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDY0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNCI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik00MCwxMiBMNDYsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik04OSwxMiBMOTUsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMzgsMTIgTDE0NCwxMiIgaWQ9IkxpbmUtNCIgc3Ryb2tlLW9wYWNpdHk9IjAuMzYiIHN0cm9rZT0iIzAwMDAwMCIgc3Ryb2tlLXdpZHRoPSIyIiBzdHJva2UtbGluZWNhcD0icm91bmQiIHN0cm9rZS1saW5lam9pbj0icm91bmQiPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS00IiBmaWxsLW9wYWNpdHk9IjAuOCIgZmlsbD0iI0Y0NDMzNiIgeD0iMCIgeT0iMCIgd2lkdGg9IjM2IiBoZWlnaHQ9IjI0IiByeD0iMiI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iaWNfYnVnX3JlcG9ydF9ibGFja18yNHB4IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMC4wMDAwMDAsIDQuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMCAwIDE2IDAgMTYgMTYgMCAxNiI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEyLjU3MTQyODYsNS43Nzc3Nzc3OCBMMTAuNzY1LDUuNzc3Nzc3NzggQzEwLjQ3NTcxNDMsNS4yMzMwMTU4NyAxMC4wNzcxNDI5LDQuNzY1MDc5MzcgOS41OTUsNC40MDg4ODg4OSBMMTAuNjQyODU3MSwzLjI3MDQ3NjE5IEw5LjczNjQyODU3LDIuMjg1NzE0MjkgTDguMzQxNDI4NTcsMy44MDEyNjk4NCBDOC4wNDU3MTQyOSwzLjcyNDQ0NDQ0IDcuNzQzNTcxNDMsMy42ODI1Mzk2OCA3LjQyODU3MTQzLDMuNjgyNTM5NjggQzcuMTEzNTcxNDMsMy42ODI1Mzk2OCA2LjgxMTQyODU3LDMuNzI0NDQ0NDQgNi41MjIxNDI4NiwzLjgwMTI2OTg0IEw1LjEyMDcxNDI5LDIuMjg1NzE0MjkgTDQuMjE0Mjg1NzEsMy4yNzA0NzYxOSBMNS4yNTU3MTQyOSw0LjQwODg4ODg5IEM0Ljc4LDQuNzY1MDc5MzcgNC4zODE0Mjg1Nyw1LjIzMzAxNTg3IDQuMDkyMTQyODYsNS43Nzc3Nzc3OCBMMi4yODU3MTQyOSw1Ljc3Nzc3Nzc4IEwyLjI4NTcxNDI5LDcuMTc0NjAzMTcgTDMuNjI5Mjg1NzEsNy4xNzQ2MDMxNyBDMy41OTcxNDI4Niw3LjQwNTA3OTM3IDMuNTcxNDI4NTcsNy42MzU1NTU1NiAzLjU3MTQyODU3LDcuODczMDE1ODcgTDMuNTcxNDI4NTcsOC41NzE0Mjg1NyBMMi4yODU3MTQyOSw4LjU3MTQyODU3IEwyLjI4NTcxNDI5LDkuOTY4MjUzOTcgTDMuNTcxNDI4NTcsOS45NjgyNTM5NyBMMy41NzE0Mjg1NywxMC42NjY2NjY3IEMzLjU3MTQyODU3LDEwLjkwNDEyNyAzLjU5NzE0Mjg2LDExLjEzNDYwMzIgMy42MjkyODU3MSwxMS4zNjUwNzk0IEwyLjI4NTcxNDI5LDExLjM2NTA3OTQgTDIuMjg1NzE0MjksMTIuNzYxOTA0OCBMNC4wOTIxNDI4NiwxMi43NjE5MDQ4IEM0Ljc2MDcxNDI5LDE0LjAxMjA2MzUgNi4wMDE0Mjg1NywxNC44NTcxNDI5IDcuNDI4NTcxNDMsMTQuODU3MTQyOSBDOC44NTU3MTQyOSwxNC44NTcxNDI5IDEwLjA5NjQyODYsMTQuMDEyMDYzNSAxMC43NjUsMTIuNzYxOTA0OCBMMTIuNTcxNDI4NiwxMi43NjE5MDQ4IEwxMi41NzE0Mjg2LDExLjM2NTA3OTQgTDExLjIyNzg1NzEsMTEuMzY1MDc5NCBDMTEuMjYsMTEuMTM0NjAzMiAxMS4yODU3MTQzLDEwLjkwNDEyNyAxMS4yODU3MTQzLDEwLjY2NjY2NjcgTDExLjI4NTcxNDMsOS45NjgyNTM5NyBMMTIuNTcxNDI4Niw5Ljk2ODI1Mzk3IEwxMi41NzE0Mjg2LDguNTcxNDI4NTcgTDExLjI4NTcxNDMsOC41NzE0Mjg1NyBMMTEuMjg1NzE0Myw3Ljg3MzAxNTg3IEMxMS4yODU3MTQzLDcuNjM1NTU1NTYgMTEuMjYsNy40MDUwNzkzNyAxMS4yMjc4NTcxLDcuMTc0NjAzMTcgTDEyLjU3MTQyODYsNy4xNzQ2MDMxNyBMMTIuNTcxNDI4Niw1Ljc3Nzc3Nzc4IFogTTguNzE0Mjg1NzEsMTEuMzY1MDc5NCBMNi4xNDI4NTcxNCwxMS4zNjUwNzk0IEw2LjE0Mjg1NzE0LDkuOTY4MjUzOTcgTDguNzE0Mjg1NzEsOS45NjgyNTM5NyBMOC43MTQyODU3MSwxMS4zNjUwNzk0IFogTTguNzE0Mjg1NzEsOC41NzE0Mjg1NyBMNi4xNDI4NTcxNCw4LjU3MTQyODU3IEw2LjE0Mjg1NzE0LDcuMTc0NjAzMTcgTDguNzE0Mjg1NzEsNy4xNzQ2MDMxNyBMOC43MTQyODU3MSw4LjU3MTQyODU3IFoiIGlkPSJTaGFwZSIgZmlsbD0iI0ZGRkZGRiIgZmlsbC1ydWxlPSJub256ZXJvIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS00IiBmaWxsLW9wYWNpdHk9IjAuOCIgZmlsbD0iIzREOTBGRSIgeD0iNDkiIHk9IjAiIHdpZHRoPSIzNiIgaGVpZ2h0PSIyNCIgcng9IjIiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImJhc2VsaW5lLWV4cGxpY2l0LTI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDU5LjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIwIDAgMTYgMCAxNiAxNiAwIDE2Ij48L3BvbHlnb24+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTIuNjY2NjY2NywyIEwzLjMzMzMzMzMzLDIgQzIuNiwyIDIsMi42IDIsMy4zMzMzMzMzMyBMMiwxMi42NjY2NjY3IEMyLDEzLjQgMi42LDE0IDMuMzMzMzMzMzMsMTQgTDEyLjY2NjY2NjcsMTQgQzEzLjQsMTQgMTQsMTMuNCAxNCwxMi42NjY2NjY3IEwxNCwzLjMzMzMzMzMzIEMxNCwyLjYgMTMuNCwyIDEyLjY2NjY2NjcsMiBaIE0xMCw2IEw3LjMzMzMzMzMzLDYgTDcuMzMzMzMzMzMsNy4zMzMzMzMzMyBMMTAsNy4zMzMzMzMzMyBMMTAsOC42NjY2NjY2NyBMNy4zMzMzMzMzMyw4LjY2NjY2NjY3IEw3LjMzMzMzMzMzLDEwIEwxMCwxMCBMMTAsMTEuMzMzMzMzMyBMNiwxMS4zMzMzMzMzIEw2LDQuNjY2NjY2NjcgTDEwLDQuNjY2NjY2NjcgTDEwLDYgWiIgaWQ9IlNoYXBlIiBmaWxsPSIjRkZGRkZGIiBmaWxsLXJ1bGU9Im5vbnplcm8iPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTQiIGZpbGwtb3BhY2l0eT0iMC44IiBmaWxsPSIjMDBCRkE1IiB4PSI5OSIgeT0iMCIgd2lkdGg9IjM2IiBoZWlnaHQ9IjI0IiByeD0iMiI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iaWNfYnVnX3JlcG9ydF9ibGFja18yNHB4IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMDkuMDAwMDAwLCA0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBvbHlnb24gaWQ9IlNoYXBlIiBwb2ludHM9IjAgMCAxNiAwIDE2IDE2IDAgMTYiPjwvcG9seWdvbj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJiYXNlbGluZS1leHBsb3JlLTI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEuMDAwMDAwLCAxLjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik03LDAgQzEwLjg2NTk5MzIsLTcuMTAxNzE0MzllLTE2IDE0LDMuMTM0MDA2NzUgMTQsNyBDMTQsMTAuODY1OTkzMiAxMC44NjU5OTMyLDE0IDcsMTQgQzMuMTM0MDA2NzUsMTQgNC43MzQ0NzYyNmUtMTYsMTAuODY1OTkzMiAwLDcgQy00LjczNDQ3NjI2ZS0xNiwzLjEzNDAwNjc1IDMuMTM0MDA2NzUsNy4xMDE3MTQzOWUtMTYgNywwIFogTTcsNi4zNTgzMzMzMyBDNy4zNTU4MzMzMyw2LjM1ODMzMzMzIDcuNjQxNjY2NjcsNi42NDQxNjY2NyA3LjY0MTY2NjY3LDcgQzcuNjQxNjY2NjcsNy4zNTU4MzMzMyA3LjM1NTgzMzMzLDcuNjQxNjY2NjcgNyw3LjY0MTY2NjY3IEM2LjY0NDE2NjY3LDcuNjQxNjY2NjcgNi4zNTgzMzMzMyw3LjM1NTgzMzMzIDYuMzU4MzMzMzMsNyBDNi4zNTgzMzMzMyw2LjY0NDE2NjY3IDYuNjQ0MTY2NjcsNi4zNTgzMzMzMyA3LDYuMzU4MzMzMzMgWiBNOC4yNzc1LDguMjc3NSBMMTAuNSwzLjUgTDUuNzIyNSw1LjcyMjUgTDMuNSwxMC41IEw4LjI3NzUsOC4yNzc1IFoiIGlkPSJDb21iaW5lZC1TaGFwZSIgZmlsbD0iI0ZGRkZGRiI+PC9wYXRoPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIyLjEgMi4xIDExLjkgMi4xIDExLjkgMTEuOSAyLjEgMTEuOSI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbD0iI0ZGQjEwMCIgeD0iMTQ4IiB5PSIwIiB3aWR0aD0iMzYiIGhlaWdodD0iMjQiIHJ4PSIyIj48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJiYXNlbGluZS1ib29rbWFyay0yNHB4LSgxKSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTU4LjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMS4zMzMzMzMzLDIgTDQuNjY2NjY2NjcsMiBDMy45MzMzMzMzMywyIDMuMzQsMi42IDMuMzQsMy4zMzMzMzMzMyBMMy4zMzMzMzMzMywxNCBMOCwxMiBMMTIuNjY2NjY2NywxNCBMMTIuNjY2NjY2NywzLjMzMzMzMzMzIEMxMi42NjY2NjY3LDIuNiAxMi4wNjY2NjY3LDIgMTEuMzMzMzMzMywyIFoiIGlkPSJTaGFwZSIgZmlsbD0iI0ZGRkZGRiIgZmlsbC1ydWxlPSJub256ZXJvIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMCAwIDE2IDAgMTYgMTYgMCAxNiI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgPC9nPg0KICAgICAgICA8L2c+DQogICAgPC9nPg0KPC9zdmc+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTg0cHgiIGhlaWdodD0iMTA2cHgiIHZpZXdCb3g9IjAgMCAxODQgMTA2IiB2ZXJzaW9uPSIxLjEiIHhtbG5zPSJodHRwOi8vd3d3LnczLm9yZy8yMDAwL3N2ZyIgeG1sbnM6eGxpbms9Imh0dHA6Ly93d3cudzMub3JnLzE5OTkveGxpbmsiPgogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA1Mi41ICg2NzQ2OSkgLSBodHRwOi8vd3d3LmJvaGVtaWFuY29kaW5nLmNvbS9za2V0Y2ggLS0+CiAgICA8dGl0bGU+dGVzdC1pbGx1c3RyYXRpb24tMTwvdGl0bGU+CiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4KICAgIDxnIGlkPSLmtYvor5XmlrDpobXpnaIiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSLmiqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC05MzAuMDAwMDAwLCAtMjc2LjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjc0LjAwMDAwMCwgMTMxLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeeHg+WwveWbvi1jb3B5IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCAxMDMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9InRlc3QtaWxsdXN0cmF0aW9uLTEiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDQ4LjAwMDAwMCwgNDIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGwtb3BhY2l0eT0iMC4zIiBmaWxsPSIjMDBDMEE1IiB4PSIwIiB5PSIwIiB3aWR0aD0iOTIiIGhlaWdodD0iMTA2Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGwtb3BhY2l0eT0iMC41IiBmaWxsPSIjRkZGRkZGIiB4PSIyNyIgeT0iNDgiIHdpZHRoPSIzOSIgaGVpZ2h0PSIxMCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktMiIgZmlsbC1vcGFjaXR5PSIwLjEiIGZpbGw9IiM0QTRBNEEiIHg9IjkyIiB5PSIwIiB3aWR0aD0iOTIiIGhlaWdodD0iNDAiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5IiBmaWxsLW9wYWNpdHk9IjAuNSIgZmlsbD0iI0ZGRkZGRiIgeD0iMTE5IiB5PSIxNSIgd2lkdGg9IjM5IiBoZWlnaHQ9IjEwIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaItY29weS0zIiBmaWxsLW9wYWNpdHk9IjAuMiIgZmlsbD0iI0Y3NDEyRCIgeD0iOTIiIHk9IjQwIiB3aWR0aD0iNDYiIGhlaWdodD0iNjYiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5IiBmaWxsLW9wYWNpdHk9IjAuNSIgZmlsbD0iI0ZGRkZGRiIgeD0iMTAxIiB5PSI2OSIgd2lkdGg9IjI4IiBoZWlnaHQ9IjgiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5LTQiIGZpbGwtb3BhY2l0eT0iMC4yIiBmaWxsPSIjRkZCMjAwIiB4PSIxMzgiIHk9IjQwIiB3aWR0aD0iNDYiIGhlaWdodD0iMzMiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5LTYiIGZpbGwtb3BhY2l0eT0iMC41IiBmaWxsPSIjRkZGRkZGIiB4PSIxNDciIHk9IjUzIiB3aWR0aD0iMjgiIGhlaWdodD0iOCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktNSIgZmlsbC1vcGFjaXR5PSIwLjIiIGZpbGw9IiM0OThERkYiIHg9IjEzOCIgeT0iNzMiIHdpZHRoPSI0NiIgaGVpZ2h0PSIzMyI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktNiIgZmlsbC1vcGFjaXR5PSIwLjUiIGZpbGw9IiNGRkZGRkYiIHg9IjE0NyIgeT0iODYiIHdpZHRoPSIyOCIgaGVpZ2h0PSI4Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/testManager/report/test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/testManager/report/progress</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1362,7 +1448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="106" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="106" workbookViewId="0">
       <selection activeCell="G31" activeCellId="1" sqref="G21 G31"/>
     </sheetView>
   </sheetViews>
@@ -1968,7 +2054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36:XFD63"/>
     </sheetView>
   </sheetViews>
@@ -2374,7 +2460,7 @@
   <dimension ref="D7:H18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B19" sqref="A19:XFD54"/>
+      <selection activeCell="D7" sqref="D7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2525,6 +2611,124 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="27.19921875" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" customWidth="1"/>
+    <col min="6" max="6" width="20.796875" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="29.59765625" customWidth="1"/>
+    <col min="9" max="9" width="28.19921875" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="F9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="F10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I10" t="s">
+        <v>164</v>
+      </c>
+      <c r="J10" t="s">
+        <v>171</v>
+      </c>
+      <c r="K10">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R11"/>
   <sheetViews>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1840" windowWidth="32320" windowHeight="18980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1840" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="127">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -344,15 +344,6 @@
   <si>
     <t>choerodon.route.test.autotest</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置</t>
-  </si>
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>agile</t>
   </si>
   <si>
     <t>choerodon.code.setting.test</t>
@@ -495,6 +486,14 @@
   </si>
   <si>
     <t>GENERAL</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENERAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -865,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -927,7 +926,7 @@
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
@@ -956,7 +955,7 @@
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
@@ -1017,7 +1016,7 @@
         <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>11</v>
@@ -1043,10 +1042,10 @@
     </row>
     <row r="12" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>11</v>
@@ -1055,7 +1054,7 @@
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>13</v>
@@ -1083,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:P14"/>
+  <dimension ref="D7:P13"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1278,7 +1277,7 @@
         <v>84</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>85</v>
@@ -1307,63 +1306,33 @@
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" t="s">
         <v>92</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I13"/>
       <c r="J13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" t="s">
-        <v>94</v>
-      </c>
-      <c r="O13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="F14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="K13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O14" s="1">
+      <c r="N13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" s="1">
         <v>40</v>
       </c>
     </row>
@@ -1383,7 +1352,7 @@
   <dimension ref="D7:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.59765625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1428,7 +1397,7 @@
     </row>
     <row r="9" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>81</v>
@@ -1439,7 +1408,7 @@
     </row>
     <row r="10" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>81</v>
@@ -1472,7 +1441,7 @@
     </row>
     <row r="13" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>82</v>
@@ -1505,7 +1474,7 @@
     </row>
     <row r="16" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>83</v>
@@ -1538,7 +1507,7 @@
     </row>
     <row r="19" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F19" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>84</v>
@@ -1552,7 +1521,7 @@
         <v>64</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>12</v>
@@ -1563,7 +1532,7 @@
         <v>66</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>65</v>
@@ -1571,10 +1540,10 @@
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>12</v>
@@ -1623,7 +1592,7 @@
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>34</v>
@@ -1647,7 +1616,7 @@
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>34</v>
@@ -1685,28 +1654,28 @@
   <sheetData>
     <row r="7" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="1"/>
@@ -1718,19 +1687,19 @@
     </row>
     <row r="8" spans="4:18" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" t="s">
         <v>114</v>
       </c>
-      <c r="G8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" t="s">
-        <v>117</v>
-      </c>
       <c r="J8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -1738,19 +1707,19 @@
     </row>
     <row r="9" spans="4:18" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K9">
         <v>20</v>
@@ -1758,19 +1727,19 @@
     </row>
     <row r="10" spans="4:18" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K10">
         <v>30</v>
@@ -1786,7 +1755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1840" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="1840" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -432,19 +432,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>要求 -&gt; 测试 -&gt; 执行 -&gt; 缺陷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>缺陷 -&gt; 执行 -&gt; 测试 -&gt; 要求</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>从类型字段搜索要求或缺陷，然后选择合适版本以缩小范围，最后单击“生成” 创建可跟踪性报告。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>从类型字段搜索要求或缺陷，然后选择合适版本以缩小范围，最后单击“生成” 创建可跟踪性报告。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -466,33 +454,46 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTg0cHgiIGhlaWdodD0iMTA2cHgiIHZpZXdCb3g9IjAgMCAxODQgMTA2IiB2ZXJzaW9uPSIxLjEiIHhtbG5zPSJodHRwOi8vd3d3LnczLm9yZy8yMDAwL3N2ZyIgeG1sbnM6eGxpbms9Imh0dHA6Ly93d3cudzMub3JnLzE5OTkveGxpbmsiPgogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA1Mi41ICg2NzQ2OSkgLSBodHRwOi8vd3d3LmJvaGVtaWFuY29kaW5nLmNvbS9za2V0Y2ggLS0+CiAgICA8dGl0bGU+dGVzdC1pbGx1c3RyYXRpb24tMTwvdGl0bGU+CiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4KICAgIDxnIGlkPSLmtYvor5XmlrDpobXpnaIiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSLmiqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC05MzAuMDAwMDAwLCAtMjc2LjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjc0LjAwMDAwMCwgMTMxLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeeHg+WwveWbvi1jb3B5IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCAxMDMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9InRlc3QtaWxsdXN0cmF0aW9uLTEiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDQ4LjAwMDAwMCwgNDIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGwtb3BhY2l0eT0iMC4zIiBmaWxsPSIjMDBDMEE1IiB4PSIwIiB5PSIwIiB3aWR0aD0iOTIiIGhlaWdodD0iMTA2Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGwtb3BhY2l0eT0iMC41IiBmaWxsPSIjRkZGRkZGIiB4PSIyNyIgeT0iNDgiIHdpZHRoPSIzOSIgaGVpZ2h0PSIxMCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktMiIgZmlsbC1vcGFjaXR5PSIwLjEiIGZpbGw9IiM0QTRBNEEiIHg9IjkyIiB5PSIwIiB3aWR0aD0iOTIiIGhlaWdodD0iNDAiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5IiBmaWxsLW9wYWNpdHk9IjAuNSIgZmlsbD0iI0ZGRkZGRiIgeD0iMTE5IiB5PSIxNSIgd2lkdGg9IjM5IiBoZWlnaHQ9IjEwIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaItY29weS0zIiBmaWxsLW9wYWNpdHk9IjAuMiIgZmlsbD0iI0Y3NDEyRCIgeD0iOTIiIHk9IjQwIiB3aWR0aD0iNDYiIGhlaWdodD0iNjYiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5IiBmaWxsLW9wYWNpdHk9IjAuNSIgZmlsbD0iI0ZGRkZGRiIgeD0iMTAxIiB5PSI2OSIgd2lkdGg9IjI4IiBoZWlnaHQ9IjgiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5LTQiIGZpbGwtb3BhY2l0eT0iMC4yIiBmaWxsPSIjRkZCMjAwIiB4PSIxMzgiIHk9IjQwIiB3aWR0aD0iNDYiIGhlaWdodD0iMzMiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5LTYiIGZpbGwtb3BhY2l0eT0iMC41IiBmaWxsPSIjRkZGRkZGIiB4PSIxNDciIHk9IjUzIiB3aWR0aD0iMjgiIGhlaWdodD0iOCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktNSIgZmlsbC1vcGFjaXR5PSIwLjIiIGZpbGw9IiM0OThERkYiIHg9IjEzOCIgeT0iNzMiIHdpZHRoPSI0NiIgaGVpZ2h0PSIzMyI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktNiIgZmlsbC1vcGFjaXR5PSIwLjUiIGZpbGw9IiNGRkZGRkYiIHg9IjE0NyIgeT0iODYiIHdpZHRoPSIyOCIgaGVpZ2h0PSI4Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/testManager/report/test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/testManager/report/progress</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENERAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+DQo8c3ZnIHdpZHRoPSIxODRweCIgaGVpZ2h0PSIxMDZweCIgdmlld0JveD0iMCAwIDE4NCAxMDYiIHZlcnNpb249IjEuMSIgeG1sbnM9Imh0dHA6Ly93d3cudzMub3JnLzIwMDAvc3ZnIiB4bWxuczp4bGluaz0iaHR0cDovL3d3dy53My5vcmcvMTk5OS94bGluayI+DQogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA0OSAoNTEwMDIpIC0gaHR0cDovL3d3dy5ib2hlbWlhbmNvZGluZy5jb20vc2tldGNoIC0tPg0KICAgIDx0aXRsZT5Hcm91cCA3PC90aXRsZT4NCiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4NCiAgICA8ZGVmcz48L2RlZnM+DQogICAgPGcgaWQ9IlN5bWJvbHMiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPg0KICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgtNDguMDAwMDAwLCAtNDIuMDAwMDAwKSI+DQogICAgICAgICAgICA8ZyBpZD0iR3JvdXAiPg0KICAgICAgICAgICAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDMwLjAwMDAwMCwgMTguMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC03IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDI0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAzNC4wMDAwMDApIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI4MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDE2LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjgwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMzIuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjkwIiB5PSIwIiB3aWR0aD0iNDAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE0MCIgeT0iMCIgd2lkdGg9IjQ0IiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA0OC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI4MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDY0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjgwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTQiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zOS42NjY2NjY3LDEyIEw0NS42NjY2NjY3LDEyIiBpZD0iTGluZS00IiBzdHJva2Utb3BhY2l0eT0iMC4zNiIgc3Ryb2tlPSIjMDAwMDAwIiBzdHJva2Utd2lkdGg9IjIiIHN0cm9rZS1saW5lY2FwPSJyb3VuZCIgc3Ryb2tlLWxpbmVqb2luPSJyb3VuZCI+PC9wYXRoPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik04OSwxMiBMOTUsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzOC4zMzMzMzMsMTIgTDE0NC4zMzMzMzMsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE0OC4wMDAwMDAsIDAuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbC1vcGFjaXR5PSIwLjgiIGZpbGw9IiNGNDQzMzYiIHg9IjAiIHk9IjAiIHdpZHRoPSIzNiIgaGVpZ2h0PSIyNCIgcng9IjIiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImljX2J1Z19yZXBvcnRfYmxhY2tfMjRweCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTAuMDAwMDAwLCA0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBvbHlnb24gaWQ9IlNoYXBlIiBwb2ludHM9IjAgMCAxNiAwIDE2IDE2IDAgMTYiPjwvcG9seWdvbj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMi41NzE0Mjg2LDUuNzc3Nzc3NzggTDEwLjc2NSw1Ljc3Nzc3Nzc4IEMxMC40NzU3MTQzLDUuMjMzMDE1ODcgMTAuMDc3MTQyOSw0Ljc2NTA3OTM3IDkuNTk1LDQuNDA4ODg4ODkgTDEwLjY0Mjg1NzEsMy4yNzA0NzYxOSBMOS43MzY0Mjg1NywyLjI4NTcxNDI5IEw4LjM0MTQyODU3LDMuODAxMjY5ODQgQzguMDQ1NzE0MjksMy43MjQ0NDQ0NCA3Ljc0MzU3MTQzLDMuNjgyNTM5NjggNy40Mjg1NzE0MywzLjY4MjUzOTY4IEM3LjExMzU3MTQzLDMuNjgyNTM5NjggNi44MTE0Mjg1NywzLjcyNDQ0NDQ0IDYuNTIyMTQyODYsMy44MDEyNjk4NCBMNS4xMjA3MTQyOSwyLjI4NTcxNDI5IEw0LjIxNDI4NTcxLDMuMjcwNDc2MTkgTDUuMjU1NzE0MjksNC40MDg4ODg4OSBDNC43OCw0Ljc2NTA3OTM3IDQuMzgxNDI4NTcsNS4yMzMwMTU4NyA0LjA5MjE0Mjg2LDUuNzc3Nzc3NzggTDIuMjg1NzE0MjksNS43Nzc3Nzc3OCBMMi4yODU3MTQyOSw3LjE3NDYwMzE3IEwzLjYyOTI4NTcxLDcuMTc0NjAzMTcgQzMuNTk3MTQyODYsNy40MDUwNzkzNyAzLjU3MTQyODU3LDcuNjM1NTU1NTYgMy41NzE0Mjg1Nyw3Ljg3MzAxNTg3IEwzLjU3MTQyODU3LDguNTcxNDI4NTcgTDIuMjg1NzE0MjksOC41NzE0Mjg1NyBMMi4yODU3MTQyOSw5Ljk2ODI1Mzk3IEwzLjU3MTQyODU3LDkuOTY4MjUzOTcgTDMuNTcxNDI4NTcsMTAuNjY2NjY2NyBDMy41NzE0Mjg1NywxMC45MDQxMjcgMy41OTcxNDI4NiwxMS4xMzQ2MDMyIDMuNjI5Mjg1NzEsMTEuMzY1MDc5NCBMMi4yODU3MTQyOSwxMS4zNjUwNzk0IEwyLjI4NTcxNDI5LDEyLjc2MTkwNDggTDQuMDkyMTQyODYsMTIuNzYxOTA0OCBDNC43NjA3MTQyOSwxNC4wMTIwNjM1IDYuMDAxNDI4NTcsMTQuODU3MTQyOSA3LjQyODU3MTQzLDE0Ljg1NzE0MjkgQzguODU1NzE0MjksMTQuODU3MTQyOSAxMC4wOTY0Mjg2LDE0LjAxMjA2MzUgMTAuNzY1LDEyLjc2MTkwNDggTDEyLjU3MTQyODYsMTIuNzYxOTA0OCBMMTIuNTcxNDI4NiwxMS4zNjUwNzk0IEwxMS4yMjc4NTcxLDExLjM2NTA3OTQgQzExLjI2LDExLjEzNDYwMzIgMTEuMjg1NzE0MywxMC45MDQxMjcgMTEuMjg1NzE0MywxMC42NjY2NjY3IEwxMS4yODU3MTQzLDkuOTY4MjUzOTcgTDEyLjU3MTQyODYsOS45NjgyNTM5NyBMMTIuNTcxNDI4Niw4LjU3MTQyODU3IEwxMS4yODU3MTQzLDguNTcxNDI4NTcgTDExLjI4NTcxNDMsNy44NzMwMTU4NyBDMTEuMjg1NzE0Myw3LjYzNTU1NTU2IDExLjI2LDcuNDA1MDc5MzcgMTEuMjI3ODU3MSw3LjE3NDYwMzE3IEwxMi41NzE0Mjg2LDcuMTc0NjAzMTcgTDEyLjU3MTQyODYsNS43Nzc3Nzc3OCBaIE04LjcxNDI4NTcxLDExLjM2NTA3OTQgTDYuMTQyODU3MTQsMTEuMzY1MDc5NCBMNi4xNDI4NTcxNCw5Ljk2ODI1Mzk3IEw4LjcxNDI4NTcxLDkuOTY4MjUzOTcgTDguNzE0Mjg1NzEsMTEuMzY1MDc5NCBaIE04LjcxNDI4NTcxLDguNTcxNDI4NTcgTDYuMTQyODU3MTQsOC41NzE0Mjg1NyBMNi4xNDI4NTcxNCw3LjE3NDYwMzE3IEw4LjcxNDI4NTcxLDcuMTc0NjAzMTcgTDguNzE0Mjg1NzEsOC41NzE0Mjg1NyBaIiBpZD0iU2hhcGUiIGZpbGw9IiNGRkZGRkYiIGZpbGwtcnVsZT0ibm9uemVybyI+PC9wYXRoPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0zIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg5OC42NjY2NjcsIDAuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbC1vcGFjaXR5PSIwLjgiIGZpbGw9IiM0RDkwRkUiIHg9IjAiIHk9IjAiIHdpZHRoPSIzNiIgaGVpZ2h0PSIyNCIgcng9IjIiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImJhc2VsaW5lLWV4cGxpY2l0LTI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIwIDAgMTYgMCAxNiAxNiAwIDE2Ij48L3BvbHlnb24+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTIuNjY2NjY2NywyIEwzLjMzMzMzMzMzLDIgQzIuNiwyIDIsMi42IDIsMy4zMzMzMzMzMyBMMiwxMi42NjY2NjY3IEMyLDEzLjQgMi42LDE0IDMuMzMzMzMzMzMsMTQgTDEyLjY2NjY2NjcsMTQgQzEzLjQsMTQgMTQsMTMuNCAxNCwxMi42NjY2NjY3IEwxNCwzLjMzMzMzMzMzIEMxNCwyLjYgMTMuNCwyIDEyLjY2NjY2NjcsMiBaIE0xMCw2IEw3LjMzMzMzMzMzLDYgTDcuMzMzMzMzMzMsNy4zMzMzMzMzMyBMMTAsNy4zMzMzMzMzMyBMMTAsOC42NjY2NjY2NyBMNy4zMzMzMzMzMyw4LjY2NjY2NjY3IEw3LjMzMzMzMzMzLDEwIEwxMCwxMCBMMTAsMTEuMzMzMzMzMyBMNiwxMS4zMzMzMzMzIEw2LDQuNjY2NjY2NjcgTDEwLDQuNjY2NjY2NjcgTDEwLDYgWiIgaWQ9IlNoYXBlIiBmaWxsPSIjRkZGRkZGIiBmaWxsLXJ1bGU9Im5vbnplcm8iPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDkuMzMzMzMzLCAwLjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTQiIGZpbGwtb3BhY2l0eT0iMC44IiBmaWxsPSIjMDBCRkE1IiB4PSIwIiB5PSIwIiB3aWR0aD0iMzYiIGhlaWdodD0iMjQiIHJ4PSIyIj48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJpY19idWdfcmVwb3J0X2JsYWNrXzI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIwIDAgMTYgMCAxNiAxNiAwIDE2Ij48L3BvbHlnb24+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iYmFzZWxpbmUtZXhwbG9yZS0yNHB4IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxLjAwMDAwMCwgMS4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNywwIEMxMC44NjU5OTMyLC03LjEwMTcxNDM5ZS0xNiAxNCwzLjEzNDAwNjc1IDE0LDcgQzE0LDEwLjg2NTk5MzIgMTAuODY1OTkzMiwxNCA3LDE0IEMzLjEzNDAwNjc1LDE0IDQuNzM0NDc2MjZlLTE2LDEwLjg2NTk5MzIgMCw3IEMtNC43MzQ0NzYyNmUtMTYsMy4xMzQwMDY3NSAzLjEzNDAwNjc1LDcuMTAxNzE0MzllLTE2IDcsMCBaIE03LDYuMzU4MzMzMzMgQzcuMzU1ODMzMzMsNi4zNTgzMzMzMyA3LjY0MTY2NjY3LDYuNjQ0MTY2NjcgNy42NDE2NjY2Nyw3IEM3LjY0MTY2NjY3LDcuMzU1ODMzMzMgNy4zNTU4MzMzMyw3LjY0MTY2NjY3IDcsNy42NDE2NjY2NyBDNi42NDQxNjY2Nyw3LjY0MTY2NjY3IDYuMzU4MzMzMzMsNy4zNTU4MzMzMyA2LjM1ODMzMzMzLDcgQzYuMzU4MzMzMzMsNi42NDQxNjY2NyA2LjY0NDE2NjY3LDYuMzU4MzMzMzMgNyw2LjM1ODMzMzMzIFogTTguMjc3NSw4LjI3NzUgTDEwLjUsMy41IEw1LjcyMjUsNS43MjI1IEwzLjUsMTAuNSBMOC4yNzc1LDguMjc3NSBaIiBpZD0iQ29tYmluZWQtU2hhcGUiIGZpbGw9IiNGRkZGRkYiPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMi4xIDIuMSAxMS45IDIuMSAxMS45IDExLjkgMi4xIDExLjkiPjwvcG9seWdvbj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbD0iI0ZGQjEwMCIgeD0iMCIgeT0iMCIgd2lkdGg9IjM2IiBoZWlnaHQ9IjI0IiByeD0iMiI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iYmFzZWxpbmUtYm9va21hcmstMjRweC0oMSkiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMS4zMzMzMzMzLDIgTDQuNjY2NjY2NjcsMiBDMy45MzMzMzMzMywyIDMuMzQsMi42IDMuMzQsMy4zMzMzMzMzMyBMMy4zMzMzMzMzMywxNCBMOCwxMiBMMTIuNjY2NjY2NywxNCBMMTIuNjY2NjY2NywzLjMzMzMzMzMzIEMxMi42NjY2NjY3LDIuNiAxMi4wNjY2NjY3LDIgMTEuMzMzMzMzMywyIFoiIGlkPSJTaGFwZSIgZmlsbD0iI0ZGRkZGRiIgZmlsbC1ydWxlPSJub256ZXJvIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMCAwIDE2IDAgMTYgMTYgMCAxNiI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgPC9nPg0KICAgICAgICA8L2c+DQogICAgPC9nPg0KPC9zdmc+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+DQo8c3ZnIHdpZHRoPSIxODRweCIgaGVpZ2h0PSIxMDZweCIgdmlld0JveD0iMCAwIDE4NCAxMDYiIHZlcnNpb249IjEuMSIgeG1sbnM9Imh0dHA6Ly93d3cudzMub3JnLzIwMDAvc3ZnIiB4bWxuczp4bGluaz0iaHR0cDovL3d3dy53My5vcmcvMTk5OS94bGluayI+DQogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA0OSAoNTEwMDIpIC0gaHR0cDovL3d3dy5ib2hlbWlhbmNvZGluZy5jb20vc2tldGNoIC0tPg0KICAgIDx0aXRsZT5Hcm91cCA3PC90aXRsZT4NCiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4NCiAgICA8ZGVmcz48L2RlZnM+DQogICAgPGcgaWQ9IlBhZ2UtMSIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+DQogICAgICAgIDxnIGlkPSLmiqXooajvvIjmgLvop4jvvIkiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC02MjYuMDAwMDAwLCAtMjc2LjAwMDAwMCkiPg0KICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDI3NC4wMDAwMDAsIDEzMi4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgzMDQuMDAwMDAwLCAxMDIuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMzAuMDAwMDAwLCAxOC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC03IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDI0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC04IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMzQuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDE2LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDMyLjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDQ4LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDY0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNCI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik00MCwxMiBMNDYsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik04OSwxMiBMOTUsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMzgsMTIgTDE0NCwxMiIgaWQ9IkxpbmUtNCIgc3Ryb2tlLW9wYWNpdHk9IjAuMzYiIHN0cm9rZT0iIzAwMDAwMCIgc3Ryb2tlLXdpZHRoPSIyIiBzdHJva2UtbGluZWNhcD0icm91bmQiIHN0cm9rZS1saW5lam9pbj0icm91bmQiPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS00IiBmaWxsLW9wYWNpdHk9IjAuOCIgZmlsbD0iI0Y0NDMzNiIgeD0iMCIgeT0iMCIgd2lkdGg9IjM2IiBoZWlnaHQ9IjI0IiByeD0iMiI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iaWNfYnVnX3JlcG9ydF9ibGFja18yNHB4IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMC4wMDAwMDAsIDQuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMCAwIDE2IDAgMTYgMTYgMCAxNiI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEyLjU3MTQyODYsNS43Nzc3Nzc3OCBMMTAuNzY1LDUuNzc3Nzc3NzggQzEwLjQ3NTcxNDMsNS4yMzMwMTU4NyAxMC4wNzcxNDI5LDQuNzY1MDc5MzcgOS41OTUsNC40MDg4ODg4OSBMMTAuNjQyODU3MSwzLjI3MDQ3NjE5IEw5LjczNjQyODU3LDIuMjg1NzE0MjkgTDguMzQxNDI4NTcsMy44MDEyNjk4NCBDOC4wNDU3MTQyOSwzLjcyNDQ0NDQ0IDcuNzQzNTcxNDMsMy42ODI1Mzk2OCA3LjQyODU3MTQzLDMuNjgyNTM5NjggQzcuMTEzNTcxNDMsMy42ODI1Mzk2OCA2LjgxMTQyODU3LDMuNzI0NDQ0NDQgNi41MjIxNDI4NiwzLjgwMTI2OTg0IEw1LjEyMDcxNDI5LDIuMjg1NzE0MjkgTDQuMjE0Mjg1NzEsMy4yNzA0NzYxOSBMNS4yNTU3MTQyOSw0LjQwODg4ODg5IEM0Ljc4LDQuNzY1MDc5MzcgNC4zODE0Mjg1Nyw1LjIzMzAxNTg3IDQuMDkyMTQyODYsNS43Nzc3Nzc3OCBMMi4yODU3MTQyOSw1Ljc3Nzc3Nzc4IEwyLjI4NTcxNDI5LDcuMTc0NjAzMTcgTDMuNjI5Mjg1NzEsNy4xNzQ2MDMxNyBDMy41OTcxNDI4Niw3LjQwNTA3OTM3IDMuNTcxNDI4NTcsNy42MzU1NTU1NiAzLjU3MTQyODU3LDcuODczMDE1ODcgTDMuNTcxNDI4NTcsOC41NzE0Mjg1NyBMMi4yODU3MTQyOSw4LjU3MTQyODU3IEwyLjI4NTcxNDI5LDkuOTY4MjUzOTcgTDMuNTcxNDI4NTcsOS45NjgyNTM5NyBMMy41NzE0Mjg1NywxMC42NjY2NjY3IEMzLjU3MTQyODU3LDEwLjkwNDEyNyAzLjU5NzE0Mjg2LDExLjEzNDYwMzIgMy42MjkyODU3MSwxMS4zNjUwNzk0IEwyLjI4NTcxNDI5LDExLjM2NTA3OTQgTDIuMjg1NzE0MjksMTIuNzYxOTA0OCBMNC4wOTIxNDI4NiwxMi43NjE5MDQ4IEM0Ljc2MDcxNDI5LDE0LjAxMjA2MzUgNi4wMDE0Mjg1NywxNC44NTcxNDI5IDcuNDI4NTcxNDMsMTQuODU3MTQyOSBDOC44NTU3MTQyOSwxNC44NTcxNDI5IDEwLjA5NjQyODYsMTQuMDEyMDYzNSAxMC43NjUsMTIuNzYxOTA0OCBMMTIuNTcxNDI4NiwxMi43NjE5MDQ4IEwxMi41NzE0Mjg2LDExLjM2NTA3OTQgTDExLjIyNzg1NzEsMTEuMzY1MDc5NCBDMTEuMjYsMTEuMTM0NjAzMiAxMS4yODU3MTQzLDEwLjkwNDEyNyAxMS4yODU3MTQzLDEwLjY2NjY2NjcgTDExLjI4NTcxNDMsOS45NjgyNTM5NyBMMTIuNTcxNDI4Niw5Ljk2ODI1Mzk3IEwxMi41NzE0Mjg2LDguNTcxNDI4NTcgTDExLjI4NTcxNDMsOC41NzE0Mjg1NyBMMTEuMjg1NzE0Myw3Ljg3MzAxNTg3IEMxMS4yODU3MTQzLDcuNjM1NTU1NTYgMTEuMjYsNy40MDUwNzkzNyAxMS4yMjc4NTcxLDcuMTc0NjAzMTcgTDEyLjU3MTQyODYsNy4xNzQ2MDMxNyBMMTIuNTcxNDI4Niw1Ljc3Nzc3Nzc4IFogTTguNzE0Mjg1NzEsMTEuMzY1MDc5NCBMNi4xNDI4NTcxNCwxMS4zNjUwNzk0IEw2LjE0Mjg1NzE0LDkuOTY4MjUzOTcgTDguNzE0Mjg1NzEsOS45NjgyNTM5NyBMOC43MTQyODU3MSwxMS4zNjUwNzk0IFogTTguNzE0Mjg1NzEsOC41NzE0Mjg1NyBMNi4xNDI4NTcxNCw4LjU3MTQyODU3IEw2LjE0Mjg1NzE0LDcuMTc0NjAzMTcgTDguNzE0Mjg1NzEsNy4xNzQ2MDMxNyBMOC43MTQyODU3MSw4LjU3MTQyODU3IFoiIGlkPSJTaGFwZSIgZmlsbD0iI0ZGRkZGRiIgZmlsbC1ydWxlPSJub256ZXJvIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS00IiBmaWxsLW9wYWNpdHk9IjAuOCIgZmlsbD0iIzREOTBGRSIgeD0iNDkiIHk9IjAiIHdpZHRoPSIzNiIgaGVpZ2h0PSIyNCIgcng9IjIiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImJhc2VsaW5lLWV4cGxpY2l0LTI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDU5LjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIwIDAgMTYgMCAxNiAxNiAwIDE2Ij48L3BvbHlnb24+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTIuNjY2NjY2NywyIEwzLjMzMzMzMzMzLDIgQzIuNiwyIDIsMi42IDIsMy4zMzMzMzMzMyBMMiwxMi42NjY2NjY3IEMyLDEzLjQgMi42LDE0IDMuMzMzMzMzMzMsMTQgTDEyLjY2NjY2NjcsMTQgQzEzLjQsMTQgMTQsMTMuNCAxNCwxMi42NjY2NjY3IEwxNCwzLjMzMzMzMzMzIEMxNCwyLjYgMTMuNCwyIDEyLjY2NjY2NjcsMiBaIE0xMCw2IEw3LjMzMzMzMzMzLDYgTDcuMzMzMzMzMzMsNy4zMzMzMzMzMyBMMTAsNy4zMzMzMzMzMyBMMTAsOC42NjY2NjY2NyBMNy4zMzMzMzMzMyw4LjY2NjY2NjY3IEw3LjMzMzMzMzMzLDEwIEwxMCwxMCBMMTAsMTEuMzMzMzMzMyBMNiwxMS4zMzMzMzMzIEw2LDQuNjY2NjY2NjcgTDEwLDQuNjY2NjY2NjcgTDEwLDYgWiIgaWQ9IlNoYXBlIiBmaWxsPSIjRkZGRkZGIiBmaWxsLXJ1bGU9Im5vbnplcm8iPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTQiIGZpbGwtb3BhY2l0eT0iMC44IiBmaWxsPSIjMDBCRkE1IiB4PSI5OSIgeT0iMCIgd2lkdGg9IjM2IiBoZWlnaHQ9IjI0IiByeD0iMiI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iaWNfYnVnX3JlcG9ydF9ibGFja18yNHB4IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMDkuMDAwMDAwLCA0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBvbHlnb24gaWQ9IlNoYXBlIiBwb2ludHM9IjAgMCAxNiAwIDE2IDE2IDAgMTYiPjwvcG9seWdvbj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJiYXNlbGluZS1leHBsb3JlLTI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEuMDAwMDAwLCAxLjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik03LDAgQzEwLjg2NTk5MzIsLTcuMTAxNzE0MzllLTE2IDE0LDMuMTM0MDA2NzUgMTQsNyBDMTQsMTAuODY1OTkzMiAxMC44NjU5OTMyLDE0IDcsMTQgQzMuMTM0MDA2NzUsMTQgNC43MzQ0NzYyNmUtMTYsMTAuODY1OTkzMiAwLDcgQy00LjczNDQ3NjI2ZS0xNiwzLjEzNDAwNjc1IDMuMTM0MDA2NzUsNy4xMDE3MTQzOWUtMTYgNywwIFogTTcsNi4zNTgzMzMzMyBDNy4zNTU4MzMzMyw2LjM1ODMzMzMzIDcuNjQxNjY2NjcsNi42NDQxNjY2NyA3LjY0MTY2NjY3LDcgQzcuNjQxNjY2NjcsNy4zNTU4MzMzMyA3LjM1NTgzMzMzLDcuNjQxNjY2NjcgNyw3LjY0MTY2NjY3IEM2LjY0NDE2NjY3LDcuNjQxNjY2NjcgNi4zNTgzMzMzMyw3LjM1NTgzMzMzIDYuMzU4MzMzMzMsNyBDNi4zNTgzMzMzMyw2LjY0NDE2NjY3IDYuNjQ0MTY2NjcsNi4zNTgzMzMzMyA3LDYuMzU4MzMzMzMgWiBNOC4yNzc1LDguMjc3NSBMMTAuNSwzLjUgTDUuNzIyNSw1LjcyMjUgTDMuNSwxMC41IEw4LjI3NzUsOC4yNzc1IFoiIGlkPSJDb21iaW5lZC1TaGFwZSIgZmlsbD0iI0ZGRkZGRiI+PC9wYXRoPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIyLjEgMi4xIDExLjkgMi4xIDExLjkgMTEuOSAyLjEgMTEuOSI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbD0iI0ZGQjEwMCIgeD0iMTQ4IiB5PSIwIiB3aWR0aD0iMzYiIGhlaWdodD0iMjQiIHJ4PSIyIj48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJiYXNlbGluZS1ib29rbWFyay0yNHB4LSgxKSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTU4LjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMS4zMzMzMzMzLDIgTDQuNjY2NjY2NjcsMiBDMy45MzMzMzMzMywyIDMuMzQsMi42IDMuMzQsMy4zMzMzMzMzMyBMMy4zMzMzMzMzMywxNCBMOCwxMiBMMTIuNjY2NjY2NywxNCBMMTIuNjY2NjY2NywzLjMzMzMzMzMzIEMxMi42NjY2NjY3LDIuNiAxMi4wNjY2NjY3LDIgMTEuMzMzMzMzMywyIFoiIGlkPSJTaGFwZSIgZmlsbD0iI0ZGRkZGRiIgZmlsbC1ydWxlPSJub256ZXJvIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMCAwIDE2IDAgMTYgMTYgMCAxNiI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgPC9nPg0KICAgICAgICA8L2c+DQogICAgPC9nPg0KPC9zdmc+</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTg0cHgiIGhlaWdodD0iMTA2cHgiIHZpZXdCb3g9IjAgMCAxODQgMTA2IiB2ZXJzaW9uPSIxLjEiIHhtbG5zPSJodHRwOi8vd3d3LnczLm9yZy8yMDAwL3N2ZyIgeG1sbnM6eGxpbms9Imh0dHA6Ly93d3cudzMub3JnLzE5OTkveGxpbmsiPgogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA1Mi41ICg2NzQ2OSkgLSBodHRwOi8vd3d3LmJvaGVtaWFuY29kaW5nLmNvbS9za2V0Y2ggLS0+CiAgICA8dGl0bGU+dGVzdC1pbGx1c3RyYXRpb24tMTwvdGl0bGU+CiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4KICAgIDxnIGlkPSLmtYvor5XmlrDpobXpnaIiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSLmiqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC05MzAuMDAwMDAwLCAtMjc2LjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjc0LjAwMDAwMCwgMTMxLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeeHg+WwveWbvi1jb3B5IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCAxMDMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9InRlc3QtaWxsdXN0cmF0aW9uLTEiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDQ4LjAwMDAwMCwgNDIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGwtb3BhY2l0eT0iMC4zIiBmaWxsPSIjMDBDMEE1IiB4PSIwIiB5PSIwIiB3aWR0aD0iOTIiIGhlaWdodD0iMTA2Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGwtb3BhY2l0eT0iMC41IiBmaWxsPSIjRkZGRkZGIiB4PSIyNyIgeT0iNDgiIHdpZHRoPSIzOSIgaGVpZ2h0PSIxMCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktMiIgZmlsbC1vcGFjaXR5PSIwLjEiIGZpbGw9IiM0QTRBNEEiIHg9IjkyIiB5PSIwIiB3aWR0aD0iOTIiIGhlaWdodD0iNDAiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5IiBmaWxsLW9wYWNpdHk9IjAuNSIgZmlsbD0iI0ZGRkZGRiIgeD0iMTE5IiB5PSIxNSIgd2lkdGg9IjM5IiBoZWlnaHQ9IjEwIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaItY29weS0zIiBmaWxsLW9wYWNpdHk9IjAuMiIgZmlsbD0iI0Y3NDEyRCIgeD0iOTIiIHk9IjQwIiB3aWR0aD0iNDYiIGhlaWdodD0iNjYiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5IiBmaWxsLW9wYWNpdHk9IjAuNSIgZmlsbD0iI0ZGRkZGRiIgeD0iMTAxIiB5PSI2OSIgd2lkdGg9IjI4IiBoZWlnaHQ9IjgiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5LTQiIGZpbGwtb3BhY2l0eT0iMC4yIiBmaWxsPSIjRkZCMjAwIiB4PSIxMzgiIHk9IjQwIiB3aWR0aD0iNDYiIGhlaWdodD0iMzMiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5LTYiIGZpbGwtb3BhY2l0eT0iMC41IiBmaWxsPSIjRkZGRkZGIiB4PSIxNDciIHk9IjUzIiB3aWR0aD0iMjgiIGhlaWdodD0iOCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktNSIgZmlsbC1vcGFjaXR5PSIwLjIiIGZpbGw9IiM0OThERkYiIHg9IjEzOCIgeT0iNzMiIHdpZHRoPSI0NiIgaGVpZ2h0PSIzMyI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktNiIgZmlsbC1vcGFjaXR5PSIwLjUiIGZpbGw9IiNGRkZGRkYiIHg9IjE0NyIgeT0iODYiIHdpZHRoPSIyOCIgaGVpZ2h0PSI4Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/testManager/report/test</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/testManager/report/progress</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GENERAL</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GENERAL</t>
+    <t xml:space="preserve">从类型字段搜索要求或缺陷，然后选择合适版本以缩小范围，最后单击“生成” 创建可跟踪性报告。 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求 -&gt; 测试 -&gt; 执行 -&gt; 缺陷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从类型字段搜索要求或缺陷，然后选择合适版本以缩小范围，最后单击“生成” 创建可跟踪性报告。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1397,7 +1398,7 @@
     </row>
     <row r="9" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>81</v>
@@ -1408,7 +1409,7 @@
     </row>
     <row r="10" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>81</v>
@@ -1441,7 +1442,7 @@
     </row>
     <row r="13" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>82</v>
@@ -1474,7 +1475,7 @@
     </row>
     <row r="16" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>83</v>
@@ -1507,7 +1508,7 @@
     </row>
     <row r="19" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F19" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>84</v>
@@ -1540,7 +1541,7 @@
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>92</v>
@@ -1635,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:R10"/>
+  <dimension ref="D7:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1646,13 +1647,13 @@
     <col min="4" max="4" width="27.19921875" customWidth="1"/>
     <col min="5" max="5" width="18.3984375" customWidth="1"/>
     <col min="6" max="6" width="20.796875" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="7" max="7" width="103" customWidth="1"/>
     <col min="8" max="8" width="29.59765625" customWidth="1"/>
-    <col min="9" max="9" width="28.19921875" customWidth="1"/>
+    <col min="9" max="9" width="89.796875" customWidth="1"/>
     <col min="10" max="10" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>104</v>
       </c>
@@ -1677,69 +1678,63 @@
       <c r="K7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="J8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K10">
         <v>30</v>
@@ -1755,7 +1750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -16,7 +16,7 @@
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="FD_CATEGORY_MENU" sheetId="5" r:id="rId3"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId4"/>
-    <sheet name="FD_REPORT" sheetId="6" r:id="rId5"/>
+    <sheet name="FD_REPORT" sheetId="7" r:id="rId5"/>
     <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
@@ -400,43 +400,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FD_REPORT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>#REPORT_TYPE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>#ICON</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>#TITLE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>#DESCRIPTION</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>#PATH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>#SORT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>缺陷 -&gt; 执行 -&gt; 测试 -&gt; 要求</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计测试用例执行情况，可以筛选得到各个迭代的不同测试循环中的用例执行状态记录。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -450,46 +418,75 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTg0cHgiIGhlaWdodD0iMTA2cHgiIHZpZXdCb3g9IjAgMCAxODQgMTA2IiB2ZXJzaW9uPSIxLjEiIHhtbG5zPSJodHRwOi8vd3d3LnczLm9yZy8yMDAwL3N2ZyIgeG1sbnM6eGxpbms9Imh0dHA6Ly93d3cudzMub3JnLzE5OTkveGxpbmsiPgogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA1Mi41ICg2NzQ2OSkgLSBodHRwOi8vd3d3LmJvaGVtaWFuY29kaW5nLmNvbS9za2V0Y2ggLS0+CiAgICA8dGl0bGU+dGVzdC1pbGx1c3RyYXRpb24tMTwvdGl0bGU+CiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4KICAgIDxnIGlkPSLmtYvor5XmlrDpobXpnaIiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSLmiqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC05MzAuMDAwMDAwLCAtMjc2LjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjc0LjAwMDAwMCwgMTMxLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeeHg+WwveWbvi1jb3B5IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCAxMDMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9InRlc3QtaWxsdXN0cmF0aW9uLTEiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDQ4LjAwMDAwMCwgNDIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGwtb3BhY2l0eT0iMC4zIiBmaWxsPSIjMDBDMEE1IiB4PSIwIiB5PSIwIiB3aWR0aD0iOTIiIGhlaWdodD0iMTA2Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGwtb3BhY2l0eT0iMC41IiBmaWxsPSIjRkZGRkZGIiB4PSIyNyIgeT0iNDgiIHdpZHRoPSIzOSIgaGVpZ2h0PSIxMCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktMiIgZmlsbC1vcGFjaXR5PSIwLjEiIGZpbGw9IiM0QTRBNEEiIHg9IjkyIiB5PSIwIiB3aWR0aD0iOTIiIGhlaWdodD0iNDAiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5IiBmaWxsLW9wYWNpdHk9IjAuNSIgZmlsbD0iI0ZGRkZGRiIgeD0iMTE5IiB5PSIxNSIgd2lkdGg9IjM5IiBoZWlnaHQ9IjEwIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaItY29weS0zIiBmaWxsLW9wYWNpdHk9IjAuMiIgZmlsbD0iI0Y3NDEyRCIgeD0iOTIiIHk9IjQwIiB3aWR0aD0iNDYiIGhlaWdodD0iNjYiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5IiBmaWxsLW9wYWNpdHk9IjAuNSIgZmlsbD0iI0ZGRkZGRiIgeD0iMTAxIiB5PSI2OSIgd2lkdGg9IjI4IiBoZWlnaHQ9IjgiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5LTQiIGZpbGwtb3BhY2l0eT0iMC4yIiBmaWxsPSIjRkZCMjAwIiB4PSIxMzgiIHk9IjQwIiB3aWR0aD0iNDYiIGhlaWdodD0iMzMiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5LTYiIGZpbGwtb3BhY2l0eT0iMC41IiBmaWxsPSIjRkZGRkZGIiB4PSIxNDciIHk9IjUzIiB3aWR0aD0iMjgiIGhlaWdodD0iOCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktNSIgZmlsbC1vcGFjaXR5PSIwLjIiIGZpbGw9IiM0OThERkYiIHg9IjEzOCIgeT0iNzMiIHdpZHRoPSI0NiIgaGVpZ2h0PSIzMyI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktNiIgZmlsbC1vcGFjaXR5PSIwLjUiIGZpbGw9IiNGRkZGRkYiIHg9IjE0NyIgeT0iODYiIHdpZHRoPSIyOCIgaGVpZ2h0PSI4Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/testManager/report/progress</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENERAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+DQo8c3ZnIHdpZHRoPSIxODRweCIgaGVpZ2h0PSIxMDZweCIgdmlld0JveD0iMCAwIDE4NCAxMDYiIHZlcnNpb249IjEuMSIgeG1sbnM9Imh0dHA6Ly93d3cudzMub3JnLzIwMDAvc3ZnIiB4bWxuczp4bGluaz0iaHR0cDovL3d3dy53My5vcmcvMTk5OS94bGluayI+DQogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA0OSAoNTEwMDIpIC0gaHR0cDovL3d3dy5ib2hlbWlhbmNvZGluZy5jb20vc2tldGNoIC0tPg0KICAgIDx0aXRsZT5Hcm91cCA3PC90aXRsZT4NCiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4NCiAgICA8ZGVmcz48L2RlZnM+DQogICAgPGcgaWQ9IlBhZ2UtMSIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+DQogICAgICAgIDxnIGlkPSLmiqXooajvvIjmgLvop4jvvIkiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC02MjYuMDAwMDAwLCAtMjc2LjAwMDAwMCkiPg0KICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDI3NC4wMDAwMDAsIDEzMi4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgzMDQuMDAwMDAwLCAxMDIuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMzAuMDAwMDAwLCAxOC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC03IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDI0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC04IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMzQuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDE2LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDMyLjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDQ4LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDY0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNCI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik00MCwxMiBMNDYsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik04OSwxMiBMOTUsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMzgsMTIgTDE0NCwxMiIgaWQ9IkxpbmUtNCIgc3Ryb2tlLW9wYWNpdHk9IjAuMzYiIHN0cm9rZT0iIzAwMDAwMCIgc3Ryb2tlLXdpZHRoPSIyIiBzdHJva2UtbGluZWNhcD0icm91bmQiIHN0cm9rZS1saW5lam9pbj0icm91bmQiPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS00IiBmaWxsLW9wYWNpdHk9IjAuOCIgZmlsbD0iI0Y0NDMzNiIgeD0iMCIgeT0iMCIgd2lkdGg9IjM2IiBoZWlnaHQ9IjI0IiByeD0iMiI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iaWNfYnVnX3JlcG9ydF9ibGFja18yNHB4IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMC4wMDAwMDAsIDQuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMCAwIDE2IDAgMTYgMTYgMCAxNiI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEyLjU3MTQyODYsNS43Nzc3Nzc3OCBMMTAuNzY1LDUuNzc3Nzc3NzggQzEwLjQ3NTcxNDMsNS4yMzMwMTU4NyAxMC4wNzcxNDI5LDQuNzY1MDc5MzcgOS41OTUsNC40MDg4ODg4OSBMMTAuNjQyODU3MSwzLjI3MDQ3NjE5IEw5LjczNjQyODU3LDIuMjg1NzE0MjkgTDguMzQxNDI4NTcsMy44MDEyNjk4NCBDOC4wNDU3MTQyOSwzLjcyNDQ0NDQ0IDcuNzQzNTcxNDMsMy42ODI1Mzk2OCA3LjQyODU3MTQzLDMuNjgyNTM5NjggQzcuMTEzNTcxNDMsMy42ODI1Mzk2OCA2LjgxMTQyODU3LDMuNzI0NDQ0NDQgNi41MjIxNDI4NiwzLjgwMTI2OTg0IEw1LjEyMDcxNDI5LDIuMjg1NzE0MjkgTDQuMjE0Mjg1NzEsMy4yNzA0NzYxOSBMNS4yNTU3MTQyOSw0LjQwODg4ODg5IEM0Ljc4LDQuNzY1MDc5MzcgNC4zODE0Mjg1Nyw1LjIzMzAxNTg3IDQuMDkyMTQyODYsNS43Nzc3Nzc3OCBMMi4yODU3MTQyOSw1Ljc3Nzc3Nzc4IEwyLjI4NTcxNDI5LDcuMTc0NjAzMTcgTDMuNjI5Mjg1NzEsNy4xNzQ2MDMxNyBDMy41OTcxNDI4Niw3LjQwNTA3OTM3IDMuNTcxNDI4NTcsNy42MzU1NTU1NiAzLjU3MTQyODU3LDcuODczMDE1ODcgTDMuNTcxNDI4NTcsOC41NzE0Mjg1NyBMMi4yODU3MTQyOSw4LjU3MTQyODU3IEwyLjI4NTcxNDI5LDkuOTY4MjUzOTcgTDMuNTcxNDI4NTcsOS45NjgyNTM5NyBMMy41NzE0Mjg1NywxMC42NjY2NjY3IEMzLjU3MTQyODU3LDEwLjkwNDEyNyAzLjU5NzE0Mjg2LDExLjEzNDYwMzIgMy42MjkyODU3MSwxMS4zNjUwNzk0IEwyLjI4NTcxNDI5LDExLjM2NTA3OTQgTDIuMjg1NzE0MjksMTIuNzYxOTA0OCBMNC4wOTIxNDI4NiwxMi43NjE5MDQ4IEM0Ljc2MDcxNDI5LDE0LjAxMjA2MzUgNi4wMDE0Mjg1NywxNC44NTcxNDI5IDcuNDI4NTcxNDMsMTQuODU3MTQyOSBDOC44NTU3MTQyOSwxNC44NTcxNDI5IDEwLjA5NjQyODYsMTQuMDEyMDYzNSAxMC43NjUsMTIuNzYxOTA0OCBMMTIuNTcxNDI4NiwxMi43NjE5MDQ4IEwxMi41NzE0Mjg2LDExLjM2NTA3OTQgTDExLjIyNzg1NzEsMTEuMzY1MDc5NCBDMTEuMjYsMTEuMTM0NjAzMiAxMS4yODU3MTQzLDEwLjkwNDEyNyAxMS4yODU3MTQzLDEwLjY2NjY2NjcgTDExLjI4NTcxNDMsOS45NjgyNTM5NyBMMTIuNTcxNDI4Niw5Ljk2ODI1Mzk3IEwxMi41NzE0Mjg2LDguNTcxNDI4NTcgTDExLjI4NTcxNDMsOC41NzE0Mjg1NyBMMTEuMjg1NzE0Myw3Ljg3MzAxNTg3IEMxMS4yODU3MTQzLDcuNjM1NTU1NTYgMTEuMjYsNy40MDUwNzkzNyAxMS4yMjc4NTcxLDcuMTc0NjAzMTcgTDEyLjU3MTQyODYsNy4xNzQ2MDMxNyBMMTIuNTcxNDI4Niw1Ljc3Nzc3Nzc4IFogTTguNzE0Mjg1NzEsMTEuMzY1MDc5NCBMNi4xNDI4NTcxNCwxMS4zNjUwNzk0IEw2LjE0Mjg1NzE0LDkuOTY4MjUzOTcgTDguNzE0Mjg1NzEsOS45NjgyNTM5NyBMOC43MTQyODU3MSwxMS4zNjUwNzk0IFogTTguNzE0Mjg1NzEsOC41NzE0Mjg1NyBMNi4xNDI4NTcxNCw4LjU3MTQyODU3IEw2LjE0Mjg1NzE0LDcuMTc0NjAzMTcgTDguNzE0Mjg1NzEsNy4xNzQ2MDMxNyBMOC43MTQyODU3MSw4LjU3MTQyODU3IFoiIGlkPSJTaGFwZSIgZmlsbD0iI0ZGRkZGRiIgZmlsbC1ydWxlPSJub256ZXJvIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS00IiBmaWxsLW9wYWNpdHk9IjAuOCIgZmlsbD0iIzREOTBGRSIgeD0iNDkiIHk9IjAiIHdpZHRoPSIzNiIgaGVpZ2h0PSIyNCIgcng9IjIiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImJhc2VsaW5lLWV4cGxpY2l0LTI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDU5LjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIwIDAgMTYgMCAxNiAxNiAwIDE2Ij48L3BvbHlnb24+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTIuNjY2NjY2NywyIEwzLjMzMzMzMzMzLDIgQzIuNiwyIDIsMi42IDIsMy4zMzMzMzMzMyBMMiwxMi42NjY2NjY3IEMyLDEzLjQgMi42LDE0IDMuMzMzMzMzMzMsMTQgTDEyLjY2NjY2NjcsMTQgQzEzLjQsMTQgMTQsMTMuNCAxNCwxMi42NjY2NjY3IEwxNCwzLjMzMzMzMzMzIEMxNCwyLjYgMTMuNCwyIDEyLjY2NjY2NjcsMiBaIE0xMCw2IEw3LjMzMzMzMzMzLDYgTDcuMzMzMzMzMzMsNy4zMzMzMzMzMyBMMTAsNy4zMzMzMzMzMyBMMTAsOC42NjY2NjY2NyBMNy4zMzMzMzMzMyw4LjY2NjY2NjY3IEw3LjMzMzMzMzMzLDEwIEwxMCwxMCBMMTAsMTEuMzMzMzMzMyBMNiwxMS4zMzMzMzMzIEw2LDQuNjY2NjY2NjcgTDEwLDQuNjY2NjY2NjcgTDEwLDYgWiIgaWQ9IlNoYXBlIiBmaWxsPSIjRkZGRkZGIiBmaWxsLXJ1bGU9Im5vbnplcm8iPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTQiIGZpbGwtb3BhY2l0eT0iMC44IiBmaWxsPSIjMDBCRkE1IiB4PSI5OSIgeT0iMCIgd2lkdGg9IjM2IiBoZWlnaHQ9IjI0IiByeD0iMiI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iaWNfYnVnX3JlcG9ydF9ibGFja18yNHB4IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMDkuMDAwMDAwLCA0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBvbHlnb24gaWQ9IlNoYXBlIiBwb2ludHM9IjAgMCAxNiAwIDE2IDE2IDAgMTYiPjwvcG9seWdvbj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJiYXNlbGluZS1leHBsb3JlLTI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEuMDAwMDAwLCAxLjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik03LDAgQzEwLjg2NTk5MzIsLTcuMTAxNzE0MzllLTE2IDE0LDMuMTM0MDA2NzUgMTQsNyBDMTQsMTAuODY1OTkzMiAxMC44NjU5OTMyLDE0IDcsMTQgQzMuMTM0MDA2NzUsMTQgNC43MzQ0NzYyNmUtMTYsMTAuODY1OTkzMiAwLDcgQy00LjczNDQ3NjI2ZS0xNiwzLjEzNDAwNjc1IDMuMTM0MDA2NzUsNy4xMDE3MTQzOWUtMTYgNywwIFogTTcsNi4zNTgzMzMzMyBDNy4zNTU4MzMzMyw2LjM1ODMzMzMzIDcuNjQxNjY2NjcsNi42NDQxNjY2NyA3LjY0MTY2NjY3LDcgQzcuNjQxNjY2NjcsNy4zNTU4MzMzMyA3LjM1NTgzMzMzLDcuNjQxNjY2NjcgNyw3LjY0MTY2NjY3IEM2LjY0NDE2NjY3LDcuNjQxNjY2NjcgNi4zNTgzMzMzMyw3LjM1NTgzMzMzIDYuMzU4MzMzMzMsNyBDNi4zNTgzMzMzMyw2LjY0NDE2NjY3IDYuNjQ0MTY2NjcsNi4zNTgzMzMzMyA3LDYuMzU4MzMzMzMgWiBNOC4yNzc1LDguMjc3NSBMMTAuNSwzLjUgTDUuNzIyNSw1LjcyMjUgTDMuNSwxMC41IEw4LjI3NzUsOC4yNzc1IFoiIGlkPSJDb21iaW5lZC1TaGFwZSIgZmlsbD0iI0ZGRkZGRiI+PC9wYXRoPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIyLjEgMi4xIDExLjkgMi4xIDExLjkgMTEuOSAyLjEgMTEuOSI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbD0iI0ZGQjEwMCIgeD0iMTQ4IiB5PSIwIiB3aWR0aD0iMzYiIGhlaWdodD0iMjQiIHJ4PSIyIj48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJiYXNlbGluZS1ib29rbWFyay0yNHB4LSgxKSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTU4LjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMS4zMzMzMzMzLDIgTDQuNjY2NjY2NjcsMiBDMy45MzMzMzMzMywyIDMuMzQsMi42IDMuMzQsMy4zMzMzMzMzMyBMMy4zMzMzMzMzMywxNCBMOCwxMiBMMTIuNjY2NjY2NywxNCBMMTIuNjY2NjY2NywzLjMzMzMzMzMzIEMxMi42NjY2NjY3LDIuNiAxMi4wNjY2NjY3LDIgMTEuMzMzMzMzMywyIFoiIGlkPSJTaGFwZSIgZmlsbD0iI0ZGRkZGRiIgZmlsbC1ydWxlPSJub256ZXJvIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMCAwIDE2IDAgMTYgMTYgMCAxNiI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgPC9nPg0KICAgICAgICA8L2c+DQogICAgPC9nPg0KPC9zdmc+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">从类型字段搜索要求或缺陷，然后选择合适版本以缩小范围，最后单击“生成” 创建可跟踪性报告。 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求 -&gt; 测试 -&gt; 执行 -&gt; 缺陷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_REPORT</t>
+  </si>
+  <si>
+    <t>#REPORT_TYPE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#TITLE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#DESCRIPTION</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PATH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SORT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+DQo8c3ZnIHdpZHRoPSIxODRweCIgaGVpZ2h0PSIxMDZweCIgdmlld0JveD0iMCAwIDE4NCAxMDYiIHZlcnNpb249IjEuMSIgeG1sbnM9Imh0dHA6Ly93d3cudzMub3JnLzIwMDAvc3ZnIiB4bWxuczp4bGluaz0iaHR0cDovL3d3dy53My5vcmcvMTk5OS94bGluayI+DQogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA0OSAoNTEwMDIpIC0gaHR0cDovL3d3dy5ib2hlbWlhbmNvZGluZy5jb20vc2tldGNoIC0tPg0KICAgIDx0aXRsZT5Hcm91cCA3PC90aXRsZT4NCiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4NCiAgICA8ZGVmcz48L2RlZnM+DQogICAgPGcgaWQ9IlN5bWJvbHMiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPg0KICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgtNDguMDAwMDAwLCAtNDIuMDAwMDAwKSI+DQogICAgICAgICAgICA8ZyBpZD0iR3JvdXAiPg0KICAgICAgICAgICAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDMwLjAwMDAwMCwgMTguMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC03IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDI0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAzNC4wMDAwMDApIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI4MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDE2LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjgwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMzIuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjkwIiB5PSIwIiB3aWR0aD0iNDAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE0MCIgeT0iMCIgd2lkdGg9IjQ0IiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA0OC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI4MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDY0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjgwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTQiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zOS42NjY2NjY3LDEyIEw0NS42NjY2NjY3LDEyIiBpZD0iTGluZS00IiBzdHJva2Utb3BhY2l0eT0iMC4zNiIgc3Ryb2tlPSIjMDAwMDAwIiBzdHJva2Utd2lkdGg9IjIiIHN0cm9rZS1saW5lY2FwPSJyb3VuZCIgc3Ryb2tlLWxpbmVqb2luPSJyb3VuZCI+PC9wYXRoPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik04OSwxMiBMOTUsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzOC4zMzMzMzMsMTIgTDE0NC4zMzMzMzMsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE0OC4wMDAwMDAsIDAuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbC1vcGFjaXR5PSIwLjgiIGZpbGw9IiNGNDQzMzYiIHg9IjAiIHk9IjAiIHdpZHRoPSIzNiIgaGVpZ2h0PSIyNCIgcng9IjIiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImljX2J1Z19yZXBvcnRfYmxhY2tfMjRweCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTAuMDAwMDAwLCA0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBvbHlnb24gaWQ9IlNoYXBlIiBwb2ludHM9IjAgMCAxNiAwIDE2IDE2IDAgMTYiPjwvcG9seWdvbj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMi41NzE0Mjg2LDUuNzc3Nzc3NzggTDEwLjc2NSw1Ljc3Nzc3Nzc4IEMxMC40NzU3MTQzLDUuMjMzMDE1ODcgMTAuMDc3MTQyOSw0Ljc2NTA3OTM3IDkuNTk1LDQuNDA4ODg4ODkgTDEwLjY0Mjg1NzEsMy4yNzA0NzYxOSBMOS43MzY0Mjg1NywyLjI4NTcxNDI5IEw4LjM0MTQyODU3LDMuODAxMjY5ODQgQzguMDQ1NzE0MjksMy43MjQ0NDQ0NCA3Ljc0MzU3MTQzLDMuNjgyNTM5NjggNy40Mjg1NzE0MywzLjY4MjUzOTY4IEM3LjExMzU3MTQzLDMuNjgyNTM5NjggNi44MTE0Mjg1NywzLjcyNDQ0NDQ0IDYuNTIyMTQyODYsMy44MDEyNjk4NCBMNS4xMjA3MTQyOSwyLjI4NTcxNDI5IEw0LjIxNDI4NTcxLDMuMjcwNDc2MTkgTDUuMjU1NzE0MjksNC40MDg4ODg4OSBDNC43OCw0Ljc2NTA3OTM3IDQuMzgxNDI4NTcsNS4yMzMwMTU4NyA0LjA5MjE0Mjg2LDUuNzc3Nzc3NzggTDIuMjg1NzE0MjksNS43Nzc3Nzc3OCBMMi4yODU3MTQyOSw3LjE3NDYwMzE3IEwzLjYyOTI4NTcxLDcuMTc0NjAzMTcgQzMuNTk3MTQyODYsNy40MDUwNzkzNyAzLjU3MTQyODU3LDcuNjM1NTU1NTYgMy41NzE0Mjg1Nyw3Ljg3MzAxNTg3IEwzLjU3MTQyODU3LDguNTcxNDI4NTcgTDIuMjg1NzE0MjksOC41NzE0Mjg1NyBMMi4yODU3MTQyOSw5Ljk2ODI1Mzk3IEwzLjU3MTQyODU3LDkuOTY4MjUzOTcgTDMuNTcxNDI4NTcsMTAuNjY2NjY2NyBDMy41NzE0Mjg1NywxMC45MDQxMjcgMy41OTcxNDI4NiwxMS4xMzQ2MDMyIDMuNjI5Mjg1NzEsMTEuMzY1MDc5NCBMMi4yODU3MTQyOSwxMS4zNjUwNzk0IEwyLjI4NTcxNDI5LDEyLjc2MTkwNDggTDQuMDkyMTQyODYsMTIuNzYxOTA0OCBDNC43NjA3MTQyOSwxNC4wMTIwNjM1IDYuMDAxNDI4NTcsMTQuODU3MTQyOSA3LjQyODU3MTQzLDE0Ljg1NzE0MjkgQzguODU1NzE0MjksMTQuODU3MTQyOSAxMC4wOTY0Mjg2LDE0LjAxMjA2MzUgMTAuNzY1LDEyLjc2MTkwNDggTDEyLjU3MTQyODYsMTIuNzYxOTA0OCBMMTIuNTcxNDI4NiwxMS4zNjUwNzk0IEwxMS4yMjc4NTcxLDExLjM2NTA3OTQgQzExLjI2LDExLjEzNDYwMzIgMTEuMjg1NzE0MywxMC45MDQxMjcgMTEuMjg1NzE0MywxMC42NjY2NjY3IEwxMS4yODU3MTQzLDkuOTY4MjUzOTcgTDEyLjU3MTQyODYsOS45NjgyNTM5NyBMMTIuNTcxNDI4Niw4LjU3MTQyODU3IEwxMS4yODU3MTQzLDguNTcxNDI4NTcgTDExLjI4NTcxNDMsNy44NzMwMTU4NyBDMTEuMjg1NzE0Myw3LjYzNTU1NTU2IDExLjI2LDcuNDA1MDc5MzcgMTEuMjI3ODU3MSw3LjE3NDYwMzE3IEwxMi41NzE0Mjg2LDcuMTc0NjAzMTcgTDEyLjU3MTQyODYsNS43Nzc3Nzc3OCBaIE04LjcxNDI4NTcxLDExLjM2NTA3OTQgTDYuMTQyODU3MTQsMTEuMzY1MDc5NCBMNi4xNDI4NTcxNCw5Ljk2ODI1Mzk3IEw4LjcxNDI4NTcxLDkuOTY4MjUzOTcgTDguNzE0Mjg1NzEsMTEuMzY1MDc5NCBaIE04LjcxNDI4NTcxLDguNTcxNDI4NTcgTDYuMTQyODU3MTQsOC41NzE0Mjg1NyBMNi4xNDI4NTcxNCw3LjE3NDYwMzE3IEw4LjcxNDI4NTcxLDcuMTc0NjAzMTcgTDguNzE0Mjg1NzEsOC41NzE0Mjg1NyBaIiBpZD0iU2hhcGUiIGZpbGw9IiNGRkZGRkYiIGZpbGwtcnVsZT0ibm9uemVybyI+PC9wYXRoPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0zIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg5OC42NjY2NjcsIDAuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbC1vcGFjaXR5PSIwLjgiIGZpbGw9IiM0RDkwRkUiIHg9IjAiIHk9IjAiIHdpZHRoPSIzNiIgaGVpZ2h0PSIyNCIgcng9IjIiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImJhc2VsaW5lLWV4cGxpY2l0LTI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIwIDAgMTYgMCAxNiAxNiAwIDE2Ij48L3BvbHlnb24+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTIuNjY2NjY2NywyIEwzLjMzMzMzMzMzLDIgQzIuNiwyIDIsMi42IDIsMy4zMzMzMzMzMyBMMiwxMi42NjY2NjY3IEMyLDEzLjQgMi42LDE0IDMuMzMzMzMzMzMsMTQgTDEyLjY2NjY2NjcsMTQgQzEzLjQsMTQgMTQsMTMuNCAxNCwxMi42NjY2NjY3IEwxNCwzLjMzMzMzMzMzIEMxNCwyLjYgMTMuNCwyIDEyLjY2NjY2NjcsMiBaIE0xMCw2IEw3LjMzMzMzMzMzLDYgTDcuMzMzMzMzMzMsNy4zMzMzMzMzMyBMMTAsNy4zMzMzMzMzMyBMMTAsOC42NjY2NjY2NyBMNy4zMzMzMzMzMyw4LjY2NjY2NjY3IEw3LjMzMzMzMzMzLDEwIEwxMCwxMCBMMTAsMTEuMzMzMzMzMyBMNiwxMS4zMzMzMzMzIEw2LDQuNjY2NjY2NjcgTDEwLDQuNjY2NjY2NjcgTDEwLDYgWiIgaWQ9IlNoYXBlIiBmaWxsPSIjRkZGRkZGIiBmaWxsLXJ1bGU9Im5vbnplcm8iPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDkuMzMzMzMzLCAwLjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTQiIGZpbGwtb3BhY2l0eT0iMC44IiBmaWxsPSIjMDBCRkE1IiB4PSIwIiB5PSIwIiB3aWR0aD0iMzYiIGhlaWdodD0iMjQiIHJ4PSIyIj48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJpY19idWdfcmVwb3J0X2JsYWNrXzI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIwIDAgMTYgMCAxNiAxNiAwIDE2Ij48L3BvbHlnb24+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iYmFzZWxpbmUtZXhwbG9yZS0yNHB4IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxLjAwMDAwMCwgMS4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNywwIEMxMC44NjU5OTMyLC03LjEwMTcxNDM5ZS0xNiAxNCwzLjEzNDAwNjc1IDE0LDcgQzE0LDEwLjg2NTk5MzIgMTAuODY1OTkzMiwxNCA3LDE0IEMzLjEzNDAwNjc1LDE0IDQuNzM0NDc2MjZlLTE2LDEwLjg2NTk5MzIgMCw3IEMtNC43MzQ0NzYyNmUtMTYsMy4xMzQwMDY3NSAzLjEzNDAwNjc1LDcuMTAxNzE0MzllLTE2IDcsMCBaIE03LDYuMzU4MzMzMzMgQzcuMzU1ODMzMzMsNi4zNTgzMzMzMyA3LjY0MTY2NjY3LDYuNjQ0MTY2NjcgNy42NDE2NjY2Nyw3IEM3LjY0MTY2NjY3LDcuMzU1ODMzMzMgNy4zNTU4MzMzMyw3LjY0MTY2NjY3IDcsNy42NDE2NjY2NyBDNi42NDQxNjY2Nyw3LjY0MTY2NjY3IDYuMzU4MzMzMzMsNy4zNTU4MzMzMyA2LjM1ODMzMzMzLDcgQzYuMzU4MzMzMzMsNi42NDQxNjY2NyA2LjY0NDE2NjY3LDYuMzU4MzMzMzMgNyw2LjM1ODMzMzMzIFogTTguMjc3NSw4LjI3NzUgTDEwLjUsMy41IEw1LjcyMjUsNS43MjI1IEwzLjUsMTAuNSBMOC4yNzc1LDguMjc3NSBaIiBpZD0iQ29tYmluZWQtU2hhcGUiIGZpbGw9IiNGRkZGRkYiPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMi4xIDIuMSAxMS45IDIuMSAxMS45IDExLjkgMi4xIDExLjkiPjwvcG9seWdvbj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbD0iI0ZGQjEwMCIgeD0iMCIgeT0iMCIgd2lkdGg9IjM2IiBoZWlnaHQ9IjI0IiByeD0iMiI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iYmFzZWxpbmUtYm9va21hcmstMjRweC0oMSkiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMS4zMzMzMzMzLDIgTDQuNjY2NjY2NjcsMiBDMy45MzMzMzMzMywyIDMuMzQsMi42IDMuMzQsMy4zMzMzMzMzMyBMMy4zMzMzMzMzMywxNCBMOCwxMiBMMTIuNjY2NjY2NywxNCBMMTIuNjY2NjY2NywzLjMzMzMzMzMzIEMxMi42NjY2NjY3LDIuNiAxMi4wNjY2NjY3LDIgMTEuMzMzMzMzMywyIFoiIGlkPSJTaGFwZSIgZmlsbD0iI0ZGRkZGRiIgZmlsbC1ydWxlPSJub256ZXJvIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMCAwIDE2IDAgMTYgMTYgMCAxNiI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgPC9nPg0KICAgICAgICA8L2c+DQogICAgPC9nPg0KPC9zdmc+</t>
+  </si>
+  <si>
     <t>/testManager/report/story</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTg0cHgiIGhlaWdodD0iMTA2cHgiIHZpZXdCb3g9IjAgMCAxODQgMTA2IiB2ZXJzaW9uPSIxLjEiIHhtbG5zPSJodHRwOi8vd3d3LnczLm9yZy8yMDAwL3N2ZyIgeG1sbnM6eGxpbms9Imh0dHA6Ly93d3cudzMub3JnLzE5OTkveGxpbmsiPgogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA1Mi41ICg2NzQ2OSkgLSBodHRwOi8vd3d3LmJvaGVtaWFuY29kaW5nLmNvbS9za2V0Y2ggLS0+CiAgICA8dGl0bGU+dGVzdC1pbGx1c3RyYXRpb24tMTwvdGl0bGU+CiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4KICAgIDxnIGlkPSLmtYvor5XmlrDpobXpnaIiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSLmiqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC05MzAuMDAwMDAwLCAtMjc2LjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjc0LjAwMDAwMCwgMTMxLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeeHg+WwveWbvi1jb3B5IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCAxMDMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9InRlc3QtaWxsdXN0cmF0aW9uLTEiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDQ4LjAwMDAwMCwgNDIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGwtb3BhY2l0eT0iMC4zIiBmaWxsPSIjMDBDMEE1IiB4PSIwIiB5PSIwIiB3aWR0aD0iOTIiIGhlaWdodD0iMTA2Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGwtb3BhY2l0eT0iMC41IiBmaWxsPSIjRkZGRkZGIiB4PSIyNyIgeT0iNDgiIHdpZHRoPSIzOSIgaGVpZ2h0PSIxMCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktMiIgZmlsbC1vcGFjaXR5PSIwLjEiIGZpbGw9IiM0QTRBNEEiIHg9IjkyIiB5PSIwIiB3aWR0aD0iOTIiIGhlaWdodD0iNDAiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5IiBmaWxsLW9wYWNpdHk9IjAuNSIgZmlsbD0iI0ZGRkZGRiIgeD0iMTE5IiB5PSIxNSIgd2lkdGg9IjM5IiBoZWlnaHQ9IjEwIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaItY29weS0zIiBmaWxsLW9wYWNpdHk9IjAuMiIgZmlsbD0iI0Y3NDEyRCIgeD0iOTIiIHk9IjQwIiB3aWR0aD0iNDYiIGhlaWdodD0iNjYiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5IiBmaWxsLW9wYWNpdHk9IjAuNSIgZmlsbD0iI0ZGRkZGRiIgeD0iMTAxIiB5PSI2OSIgd2lkdGg9IjI4IiBoZWlnaHQ9IjgiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5LTQiIGZpbGwtb3BhY2l0eT0iMC4yIiBmaWxsPSIjRkZCMjAwIiB4PSIxMzgiIHk9IjQwIiB3aWR0aD0iNDYiIGhlaWdodD0iMzMiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5LTYiIGZpbGwtb3BhY2l0eT0iMC41IiBmaWxsPSIjRkZGRkZGIiB4PSIxNDciIHk9IjUzIiB3aWR0aD0iMjgiIGhlaWdodD0iOCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktNSIgZmlsbC1vcGFjaXR5PSIwLjIiIGZpbGw9IiM0OThERkYiIHg9IjEzOCIgeT0iNzMiIHdpZHRoPSI0NiIgaGVpZ2h0PSIzMyI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktNiIgZmlsbC1vcGFjaXR5PSIwLjUiIGZpbGw9IiNGRkZGRkYiIHg9IjE0NyIgeT0iODYiIHdpZHRoPSIyOCIgaGVpZ2h0PSI4Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>/testManager/report/test</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>/testManager/report/progress</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GENERAL</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GENERAL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+DQo8c3ZnIHdpZHRoPSIxODRweCIgaGVpZ2h0PSIxMDZweCIgdmlld0JveD0iMCAwIDE4NCAxMDYiIHZlcnNpb249IjEuMSIgeG1sbnM9Imh0dHA6Ly93d3cudzMub3JnLzIwMDAvc3ZnIiB4bWxuczp4bGluaz0iaHR0cDovL3d3dy53My5vcmcvMTk5OS94bGluayI+DQogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA0OSAoNTEwMDIpIC0gaHR0cDovL3d3dy5ib2hlbWlhbmNvZGluZy5jb20vc2tldGNoIC0tPg0KICAgIDx0aXRsZT5Hcm91cCA3PC90aXRsZT4NCiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4NCiAgICA8ZGVmcz48L2RlZnM+DQogICAgPGcgaWQ9IlN5bWJvbHMiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPg0KICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgtNDguMDAwMDAwLCAtNDIuMDAwMDAwKSI+DQogICAgICAgICAgICA8ZyBpZD0iR3JvdXAiPg0KICAgICAgICAgICAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDMwLjAwMDAwMCwgMTguMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC03IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDI0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAzNC4wMDAwMDApIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI4MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDE2LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjgwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMzIuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjkwIiB5PSIwIiB3aWR0aD0iNDAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE0MCIgeT0iMCIgd2lkdGg9IjQ0IiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA0OC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI4MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDY0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjgwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTQiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zOS42NjY2NjY3LDEyIEw0NS42NjY2NjY3LDEyIiBpZD0iTGluZS00IiBzdHJva2Utb3BhY2l0eT0iMC4zNiIgc3Ryb2tlPSIjMDAwMDAwIiBzdHJva2Utd2lkdGg9IjIiIHN0cm9rZS1saW5lY2FwPSJyb3VuZCIgc3Ryb2tlLWxpbmVqb2luPSJyb3VuZCI+PC9wYXRoPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik04OSwxMiBMOTUsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzOC4zMzMzMzMsMTIgTDE0NC4zMzMzMzMsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE0OC4wMDAwMDAsIDAuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbC1vcGFjaXR5PSIwLjgiIGZpbGw9IiNGNDQzMzYiIHg9IjAiIHk9IjAiIHdpZHRoPSIzNiIgaGVpZ2h0PSIyNCIgcng9IjIiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImljX2J1Z19yZXBvcnRfYmxhY2tfMjRweCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTAuMDAwMDAwLCA0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBvbHlnb24gaWQ9IlNoYXBlIiBwb2ludHM9IjAgMCAxNiAwIDE2IDE2IDAgMTYiPjwvcG9seWdvbj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMi41NzE0Mjg2LDUuNzc3Nzc3NzggTDEwLjc2NSw1Ljc3Nzc3Nzc4IEMxMC40NzU3MTQzLDUuMjMzMDE1ODcgMTAuMDc3MTQyOSw0Ljc2NTA3OTM3IDkuNTk1LDQuNDA4ODg4ODkgTDEwLjY0Mjg1NzEsMy4yNzA0NzYxOSBMOS43MzY0Mjg1NywyLjI4NTcxNDI5IEw4LjM0MTQyODU3LDMuODAxMjY5ODQgQzguMDQ1NzE0MjksMy43MjQ0NDQ0NCA3Ljc0MzU3MTQzLDMuNjgyNTM5NjggNy40Mjg1NzE0MywzLjY4MjUzOTY4IEM3LjExMzU3MTQzLDMuNjgyNTM5NjggNi44MTE0Mjg1NywzLjcyNDQ0NDQ0IDYuNTIyMTQyODYsMy44MDEyNjk4NCBMNS4xMjA3MTQyOSwyLjI4NTcxNDI5IEw0LjIxNDI4NTcxLDMuMjcwNDc2MTkgTDUuMjU1NzE0MjksNC40MDg4ODg4OSBDNC43OCw0Ljc2NTA3OTM3IDQuMzgxNDI4NTcsNS4yMzMwMTU4NyA0LjA5MjE0Mjg2LDUuNzc3Nzc3NzggTDIuMjg1NzE0MjksNS43Nzc3Nzc3OCBMMi4yODU3MTQyOSw3LjE3NDYwMzE3IEwzLjYyOTI4NTcxLDcuMTc0NjAzMTcgQzMuNTk3MTQyODYsNy40MDUwNzkzNyAzLjU3MTQyODU3LDcuNjM1NTU1NTYgMy41NzE0Mjg1Nyw3Ljg3MzAxNTg3IEwzLjU3MTQyODU3LDguNTcxNDI4NTcgTDIuMjg1NzE0MjksOC41NzE0Mjg1NyBMMi4yODU3MTQyOSw5Ljk2ODI1Mzk3IEwzLjU3MTQyODU3LDkuOTY4MjUzOTcgTDMuNTcxNDI4NTcsMTAuNjY2NjY2NyBDMy41NzE0Mjg1NywxMC45MDQxMjcgMy41OTcxNDI4NiwxMS4xMzQ2MDMyIDMuNjI5Mjg1NzEsMTEuMzY1MDc5NCBMMi4yODU3MTQyOSwxMS4zNjUwNzk0IEwyLjI4NTcxNDI5LDEyLjc2MTkwNDggTDQuMDkyMTQyODYsMTIuNzYxOTA0OCBDNC43NjA3MTQyOSwxNC4wMTIwNjM1IDYuMDAxNDI4NTcsMTQuODU3MTQyOSA3LjQyODU3MTQzLDE0Ljg1NzE0MjkgQzguODU1NzE0MjksMTQuODU3MTQyOSAxMC4wOTY0Mjg2LDE0LjAxMjA2MzUgMTAuNzY1LDEyLjc2MTkwNDggTDEyLjU3MTQyODYsMTIuNzYxOTA0OCBMMTIuNTcxNDI4NiwxMS4zNjUwNzk0IEwxMS4yMjc4NTcxLDExLjM2NTA3OTQgQzExLjI2LDExLjEzNDYwMzIgMTEuMjg1NzE0MywxMC45MDQxMjcgMTEuMjg1NzE0MywxMC42NjY2NjY3IEwxMS4yODU3MTQzLDkuOTY4MjUzOTcgTDEyLjU3MTQyODYsOS45NjgyNTM5NyBMMTIuNTcxNDI4Niw4LjU3MTQyODU3IEwxMS4yODU3MTQzLDguNTcxNDI4NTcgTDExLjI4NTcxNDMsNy44NzMwMTU4NyBDMTEuMjg1NzE0Myw3LjYzNTU1NTU2IDExLjI2LDcuNDA1MDc5MzcgMTEuMjI3ODU3MSw3LjE3NDYwMzE3IEwxMi41NzE0Mjg2LDcuMTc0NjAzMTcgTDEyLjU3MTQyODYsNS43Nzc3Nzc3OCBaIE04LjcxNDI4NTcxLDExLjM2NTA3OTQgTDYuMTQyODU3MTQsMTEuMzY1MDc5NCBMNi4xNDI4NTcxNCw5Ljk2ODI1Mzk3IEw4LjcxNDI4NTcxLDkuOTY4MjUzOTcgTDguNzE0Mjg1NzEsMTEuMzY1MDc5NCBaIE04LjcxNDI4NTcxLDguNTcxNDI4NTcgTDYuMTQyODU3MTQsOC41NzE0Mjg1NyBMNi4xNDI4NTcxNCw3LjE3NDYwMzE3IEw4LjcxNDI4NTcxLDcuMTc0NjAzMTcgTDguNzE0Mjg1NzEsOC41NzE0Mjg1NyBaIiBpZD0iU2hhcGUiIGZpbGw9IiNGRkZGRkYiIGZpbGwtcnVsZT0ibm9uemVybyI+PC9wYXRoPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0zIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg5OC42NjY2NjcsIDAuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbC1vcGFjaXR5PSIwLjgiIGZpbGw9IiM0RDkwRkUiIHg9IjAiIHk9IjAiIHdpZHRoPSIzNiIgaGVpZ2h0PSIyNCIgcng9IjIiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImJhc2VsaW5lLWV4cGxpY2l0LTI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIwIDAgMTYgMCAxNiAxNiAwIDE2Ij48L3BvbHlnb24+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTIuNjY2NjY2NywyIEwzLjMzMzMzMzMzLDIgQzIuNiwyIDIsMi42IDIsMy4zMzMzMzMzMyBMMiwxMi42NjY2NjY3IEMyLDEzLjQgMi42LDE0IDMuMzMzMzMzMzMsMTQgTDEyLjY2NjY2NjcsMTQgQzEzLjQsMTQgMTQsMTMuNCAxNCwxMi42NjY2NjY3IEwxNCwzLjMzMzMzMzMzIEMxNCwyLjYgMTMuNCwyIDEyLjY2NjY2NjcsMiBaIE0xMCw2IEw3LjMzMzMzMzMzLDYgTDcuMzMzMzMzMzMsNy4zMzMzMzMzMyBMMTAsNy4zMzMzMzMzMyBMMTAsOC42NjY2NjY2NyBMNy4zMzMzMzMzMyw4LjY2NjY2NjY3IEw3LjMzMzMzMzMzLDEwIEwxMCwxMCBMMTAsMTEuMzMzMzMzMyBMNiwxMS4zMzMzMzMzIEw2LDQuNjY2NjY2NjcgTDEwLDQuNjY2NjY2NjcgTDEwLDYgWiIgaWQ9IlNoYXBlIiBmaWxsPSIjRkZGRkZGIiBmaWxsLXJ1bGU9Im5vbnplcm8iPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDkuMzMzMzMzLCAwLjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTQiIGZpbGwtb3BhY2l0eT0iMC44IiBmaWxsPSIjMDBCRkE1IiB4PSIwIiB5PSIwIiB3aWR0aD0iMzYiIGhlaWdodD0iMjQiIHJ4PSIyIj48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJpY19idWdfcmVwb3J0X2JsYWNrXzI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIwIDAgMTYgMCAxNiAxNiAwIDE2Ij48L3BvbHlnb24+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iYmFzZWxpbmUtZXhwbG9yZS0yNHB4IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxLjAwMDAwMCwgMS4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNywwIEMxMC44NjU5OTMyLC03LjEwMTcxNDM5ZS0xNiAxNCwzLjEzNDAwNjc1IDE0LDcgQzE0LDEwLjg2NTk5MzIgMTAuODY1OTkzMiwxNCA3LDE0IEMzLjEzNDAwNjc1LDE0IDQuNzM0NDc2MjZlLTE2LDEwLjg2NTk5MzIgMCw3IEMtNC43MzQ0NzYyNmUtMTYsMy4xMzQwMDY3NSAzLjEzNDAwNjc1LDcuMTAxNzE0MzllLTE2IDcsMCBaIE03LDYuMzU4MzMzMzMgQzcuMzU1ODMzMzMsNi4zNTgzMzMzMyA3LjY0MTY2NjY3LDYuNjQ0MTY2NjcgNy42NDE2NjY2Nyw3IEM3LjY0MTY2NjY3LDcuMzU1ODMzMzMgNy4zNTU4MzMzMyw3LjY0MTY2NjY3IDcsNy42NDE2NjY2NyBDNi42NDQxNjY2Nyw3LjY0MTY2NjY3IDYuMzU4MzMzMzMsNy4zNTU4MzMzMyA2LjM1ODMzMzMzLDcgQzYuMzU4MzMzMzMsNi42NDQxNjY2NyA2LjY0NDE2NjY3LDYuMzU4MzMzMzMgNyw2LjM1ODMzMzMzIFogTTguMjc3NSw4LjI3NzUgTDEwLjUsMy41IEw1LjcyMjUsNS43MjI1IEwzLjUsMTAuNSBMOC4yNzc1LDguMjc3NSBaIiBpZD0iQ29tYmluZWQtU2hhcGUiIGZpbGw9IiNGRkZGRkYiPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMi4xIDIuMSAxMS45IDIuMSAxMS45IDExLjkgMi4xIDExLjkiPjwvcG9seWdvbj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbD0iI0ZGQjEwMCIgeD0iMCIgeT0iMCIgd2lkdGg9IjM2IiBoZWlnaHQ9IjI0IiByeD0iMiI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iYmFzZWxpbmUtYm9va21hcmstMjRweC0oMSkiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMS4zMzMzMzMzLDIgTDQuNjY2NjY2NjcsMiBDMy45MzMzMzMzMywyIDMuMzQsMi42IDMuMzQsMy4zMzMzMzMzMyBMMy4zMzMzMzMzMywxNCBMOCwxMiBMMTIuNjY2NjY2NywxNCBMMTIuNjY2NjY2NywzLjMzMzMzMzMzIEMxMi42NjY2NjY3LDIuNiAxMi4wNjY2NjY3LDIgMTEuMzMzMzMzMywyIFoiIGlkPSJTaGFwZSIgZmlsbD0iI0ZGRkZGRiIgZmlsbC1ydWxlPSJub256ZXJvIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMCAwIDE2IDAgMTYgMTYgMCAxNiI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgPC9nPg0KICAgICAgICA8L2c+DQogICAgPC9nPg0KPC9zdmc+</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+DQo8c3ZnIHdpZHRoPSIxODRweCIgaGVpZ2h0PSIxMDZweCIgdmlld0JveD0iMCAwIDE4NCAxMDYiIHZlcnNpb249IjEuMSIgeG1sbnM9Imh0dHA6Ly93d3cudzMub3JnLzIwMDAvc3ZnIiB4bWxuczp4bGluaz0iaHR0cDovL3d3dy53My5vcmcvMTk5OS94bGluayI+DQogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA0OSAoNTEwMDIpIC0gaHR0cDovL3d3dy5ib2hlbWlhbmNvZGluZy5jb20vc2tldGNoIC0tPg0KICAgIDx0aXRsZT5Hcm91cCA3PC90aXRsZT4NCiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4NCiAgICA8ZGVmcz48L2RlZnM+DQogICAgPGcgaWQ9IlBhZ2UtMSIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+DQogICAgICAgIDxnIGlkPSLmiqXooajvvIjmgLvop4jvvIkiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC02MjYuMDAwMDAwLCAtMjc2LjAwMDAwMCkiPg0KICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDI3NC4wMDAwMDAsIDEzMi4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgzMDQuMDAwMDAwLCAxMDIuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMzAuMDAwMDAwLCAxOC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC03IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDI0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC04IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMzQuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDE2LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDMyLjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDQ4LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDY0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNCI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik00MCwxMiBMNDYsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik04OSwxMiBMOTUsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMzgsMTIgTDE0NCwxMiIgaWQ9IkxpbmUtNCIgc3Ryb2tlLW9wYWNpdHk9IjAuMzYiIHN0cm9rZT0iIzAwMDAwMCIgc3Ryb2tlLXdpZHRoPSIyIiBzdHJva2UtbGluZWNhcD0icm91bmQiIHN0cm9rZS1saW5lam9pbj0icm91bmQiPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS00IiBmaWxsLW9wYWNpdHk9IjAuOCIgZmlsbD0iI0Y0NDMzNiIgeD0iMCIgeT0iMCIgd2lkdGg9IjM2IiBoZWlnaHQ9IjI0IiByeD0iMiI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iaWNfYnVnX3JlcG9ydF9ibGFja18yNHB4IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMC4wMDAwMDAsIDQuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMCAwIDE2IDAgMTYgMTYgMCAxNiI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEyLjU3MTQyODYsNS43Nzc3Nzc3OCBMMTAuNzY1LDUuNzc3Nzc3NzggQzEwLjQ3NTcxNDMsNS4yMzMwMTU4NyAxMC4wNzcxNDI5LDQuNzY1MDc5MzcgOS41OTUsNC40MDg4ODg4OSBMMTAuNjQyODU3MSwzLjI3MDQ3NjE5IEw5LjczNjQyODU3LDIuMjg1NzE0MjkgTDguMzQxNDI4NTcsMy44MDEyNjk4NCBDOC4wNDU3MTQyOSwzLjcyNDQ0NDQ0IDcuNzQzNTcxNDMsMy42ODI1Mzk2OCA3LjQyODU3MTQzLDMuNjgyNTM5NjggQzcuMTEzNTcxNDMsMy42ODI1Mzk2OCA2LjgxMTQyODU3LDMuNzI0NDQ0NDQgNi41MjIxNDI4NiwzLjgwMTI2OTg0IEw1LjEyMDcxNDI5LDIuMjg1NzE0MjkgTDQuMjE0Mjg1NzEsMy4yNzA0NzYxOSBMNS4yNTU3MTQyOSw0LjQwODg4ODg5IEM0Ljc4LDQuNzY1MDc5MzcgNC4zODE0Mjg1Nyw1LjIzMzAxNTg3IDQuMDkyMTQyODYsNS43Nzc3Nzc3OCBMMi4yODU3MTQyOSw1Ljc3Nzc3Nzc4IEwyLjI4NTcxNDI5LDcuMTc0NjAzMTcgTDMuNjI5Mjg1NzEsNy4xNzQ2MDMxNyBDMy41OTcxNDI4Niw3LjQwNTA3OTM3IDMuNTcxNDI4NTcsNy42MzU1NTU1NiAzLjU3MTQyODU3LDcuODczMDE1ODcgTDMuNTcxNDI4NTcsOC41NzE0Mjg1NyBMMi4yODU3MTQyOSw4LjU3MTQyODU3IEwyLjI4NTcxNDI5LDkuOTY4MjUzOTcgTDMuNTcxNDI4NTcsOS45NjgyNTM5NyBMMy41NzE0Mjg1NywxMC42NjY2NjY3IEMzLjU3MTQyODU3LDEwLjkwNDEyNyAzLjU5NzE0Mjg2LDExLjEzNDYwMzIgMy42MjkyODU3MSwxMS4zNjUwNzk0IEwyLjI4NTcxNDI5LDExLjM2NTA3OTQgTDIuMjg1NzE0MjksMTIuNzYxOTA0OCBMNC4wOTIxNDI4NiwxMi43NjE5MDQ4IEM0Ljc2MDcxNDI5LDE0LjAxMjA2MzUgNi4wMDE0Mjg1NywxNC44NTcxNDI5IDcuNDI4NTcxNDMsMTQuODU3MTQyOSBDOC44NTU3MTQyOSwxNC44NTcxNDI5IDEwLjA5NjQyODYsMTQuMDEyMDYzNSAxMC43NjUsMTIuNzYxOTA0OCBMMTIuNTcxNDI4NiwxMi43NjE5MDQ4IEwxMi41NzE0Mjg2LDExLjM2NTA3OTQgTDExLjIyNzg1NzEsMTEuMzY1MDc5NCBDMTEuMjYsMTEuMTM0NjAzMiAxMS4yODU3MTQzLDEwLjkwNDEyNyAxMS4yODU3MTQzLDEwLjY2NjY2NjcgTDExLjI4NTcxNDMsOS45NjgyNTM5NyBMMTIuNTcxNDI4Niw5Ljk2ODI1Mzk3IEwxMi41NzE0Mjg2LDguNTcxNDI4NTcgTDExLjI4NTcxNDMsOC41NzE0Mjg1NyBMMTEuMjg1NzE0Myw3Ljg3MzAxNTg3IEMxMS4yODU3MTQzLDcuNjM1NTU1NTYgMTEuMjYsNy40MDUwNzkzNyAxMS4yMjc4NTcxLDcuMTc0NjAzMTcgTDEyLjU3MTQyODYsNy4xNzQ2MDMxNyBMMTIuNTcxNDI4Niw1Ljc3Nzc3Nzc4IFogTTguNzE0Mjg1NzEsMTEuMzY1MDc5NCBMNi4xNDI4NTcxNCwxMS4zNjUwNzk0IEw2LjE0Mjg1NzE0LDkuOTY4MjUzOTcgTDguNzE0Mjg1NzEsOS45NjgyNTM5NyBMOC43MTQyODU3MSwxMS4zNjUwNzk0IFogTTguNzE0Mjg1NzEsOC41NzE0Mjg1NyBMNi4xNDI4NTcxNCw4LjU3MTQyODU3IEw2LjE0Mjg1NzE0LDcuMTc0NjAzMTcgTDguNzE0Mjg1NzEsNy4xNzQ2MDMxNyBMOC43MTQyODU3MSw4LjU3MTQyODU3IFoiIGlkPSJTaGFwZSIgZmlsbD0iI0ZGRkZGRiIgZmlsbC1ydWxlPSJub256ZXJvIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS00IiBmaWxsLW9wYWNpdHk9IjAuOCIgZmlsbD0iIzREOTBGRSIgeD0iNDkiIHk9IjAiIHdpZHRoPSIzNiIgaGVpZ2h0PSIyNCIgcng9IjIiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImJhc2VsaW5lLWV4cGxpY2l0LTI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDU5LjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIwIDAgMTYgMCAxNiAxNiAwIDE2Ij48L3BvbHlnb24+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTIuNjY2NjY2NywyIEwzLjMzMzMzMzMzLDIgQzIuNiwyIDIsMi42IDIsMy4zMzMzMzMzMyBMMiwxMi42NjY2NjY3IEMyLDEzLjQgMi42LDE0IDMuMzMzMzMzMzMsMTQgTDEyLjY2NjY2NjcsMTQgQzEzLjQsMTQgMTQsMTMuNCAxNCwxMi42NjY2NjY3IEwxNCwzLjMzMzMzMzMzIEMxNCwyLjYgMTMuNCwyIDEyLjY2NjY2NjcsMiBaIE0xMCw2IEw3LjMzMzMzMzMzLDYgTDcuMzMzMzMzMzMsNy4zMzMzMzMzMyBMMTAsNy4zMzMzMzMzMyBMMTAsOC42NjY2NjY2NyBMNy4zMzMzMzMzMyw4LjY2NjY2NjY3IEw3LjMzMzMzMzMzLDEwIEwxMCwxMCBMMTAsMTEuMzMzMzMzMyBMNiwxMS4zMzMzMzMzIEw2LDQuNjY2NjY2NjcgTDEwLDQuNjY2NjY2NjcgTDEwLDYgWiIgaWQ9IlNoYXBlIiBmaWxsPSIjRkZGRkZGIiBmaWxsLXJ1bGU9Im5vbnplcm8iPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTQiIGZpbGwtb3BhY2l0eT0iMC44IiBmaWxsPSIjMDBCRkE1IiB4PSI5OSIgeT0iMCIgd2lkdGg9IjM2IiBoZWlnaHQ9IjI0IiByeD0iMiI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iaWNfYnVnX3JlcG9ydF9ibGFja18yNHB4IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMDkuMDAwMDAwLCA0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBvbHlnb24gaWQ9IlNoYXBlIiBwb2ludHM9IjAgMCAxNiAwIDE2IDE2IDAgMTYiPjwvcG9seWdvbj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJiYXNlbGluZS1leHBsb3JlLTI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEuMDAwMDAwLCAxLjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik03LDAgQzEwLjg2NTk5MzIsLTcuMTAxNzE0MzllLTE2IDE0LDMuMTM0MDA2NzUgMTQsNyBDMTQsMTAuODY1OTkzMiAxMC44NjU5OTMyLDE0IDcsMTQgQzMuMTM0MDA2NzUsMTQgNC43MzQ0NzYyNmUtMTYsMTAuODY1OTkzMiAwLDcgQy00LjczNDQ3NjI2ZS0xNiwzLjEzNDAwNjc1IDMuMTM0MDA2NzUsNy4xMDE3MTQzOWUtMTYgNywwIFogTTcsNi4zNTgzMzMzMyBDNy4zNTU4MzMzMyw2LjM1ODMzMzMzIDcuNjQxNjY2NjcsNi42NDQxNjY2NyA3LjY0MTY2NjY3LDcgQzcuNjQxNjY2NjcsNy4zNTU4MzMzMyA3LjM1NTgzMzMzLDcuNjQxNjY2NjcgNyw3LjY0MTY2NjY3IEM2LjY0NDE2NjY3LDcuNjQxNjY2NjcgNi4zNTgzMzMzMyw3LjM1NTgzMzMzIDYuMzU4MzMzMzMsNyBDNi4zNTgzMzMzMyw2LjY0NDE2NjY3IDYuNjQ0MTY2NjcsNi4zNTgzMzMzMyA3LDYuMzU4MzMzMzMgWiBNOC4yNzc1LDguMjc3NSBMMTAuNSwzLjUgTDUuNzIyNSw1LjcyMjUgTDMuNSwxMC41IEw4LjI3NzUsOC4yNzc1IFoiIGlkPSJDb21iaW5lZC1TaGFwZSIgZmlsbD0iI0ZGRkZGRiI+PC9wYXRoPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIyLjEgMi4xIDExLjkgMi4xIDExLjkgMTEuOSAyLjEgMTEuOSI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbD0iI0ZGQjEwMCIgeD0iMTQ4IiB5PSIwIiB3aWR0aD0iMzYiIGhlaWdodD0iMjQiIHJ4PSIyIj48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJiYXNlbGluZS1ib29rbWFyay0yNHB4LSgxKSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTU4LjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMS4zMzMzMzMzLDIgTDQuNjY2NjY2NjcsMiBDMy45MzMzMzMzMywyIDMuMzQsMi42IDMuMzQsMy4zMzMzMzMzMyBMMy4zMzMzMzMzMywxNCBMOCwxMiBMMTIuNjY2NjY2NywxNCBMMTIuNjY2NjY2NywzLjMzMzMzMzMzIEMxMi42NjY2NjY3LDIuNiAxMi4wNjY2NjY3LDIgMTEuMzMzMzMzMywyIFoiIGlkPSJTaGFwZSIgZmlsbD0iI0ZGRkZGRiIgZmlsbC1ydWxlPSJub256ZXJvIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMCAwIDE2IDAgMTYgMTYgMCAxNiI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgPC9nPg0KICAgICAgICA8L2c+DQogICAgPC9nPg0KPC9zdmc+</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">从类型字段搜索要求或缺陷，然后选择合适版本以缩小范围，最后单击“生成” 创建可跟踪性报告。 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求 -&gt; 测试 -&gt; 执行 -&gt; 缺陷</t>
+    <t>统计测试用例执行情况，可以筛选得到各个迭代的不同测试循环中的用例执行状态记录。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1398,7 +1395,7 @@
     </row>
     <row r="9" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>81</v>
@@ -1409,7 +1406,7 @@
     </row>
     <row r="10" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>81</v>
@@ -1442,7 +1439,7 @@
     </row>
     <row r="13" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>82</v>
@@ -1475,7 +1472,7 @@
     </row>
     <row r="16" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>83</v>
@@ -1508,7 +1505,7 @@
     </row>
     <row r="19" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F19" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>84</v>
@@ -1541,7 +1538,7 @@
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>92</v>
@@ -1636,105 +1633,103 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:L10"/>
+  <dimension ref="D7:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="27.19921875" customWidth="1"/>
-    <col min="5" max="5" width="18.3984375" customWidth="1"/>
-    <col min="6" max="6" width="20.796875" customWidth="1"/>
-    <col min="7" max="7" width="103" customWidth="1"/>
-    <col min="8" max="8" width="29.59765625" customWidth="1"/>
-    <col min="9" max="9" width="89.796875" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
+    <col min="4" max="4" width="16.796875" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="24.796875" customWidth="1"/>
+    <col min="8" max="8" width="23.3984375" customWidth="1"/>
+    <col min="9" max="9" width="20.3984375" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D7" s="2" t="s">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="H7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J8" t="s">
-        <v>115</v>
+      <c r="J8" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="K8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="F9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" t="s">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="J9" t="s">
-        <v>117</v>
       </c>
       <c r="K9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="F10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" t="s">
-        <v>118</v>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K10">
         <v>30</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1840" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="1840" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -247,10 +247,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>SORT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$DEL</t>
   </si>
   <si>
@@ -400,10 +396,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#ICON</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>缺陷 -&gt; 执行 -&gt; 测试 -&gt; 要求</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -452,26 +444,6 @@
     <t>FD_REPORT</t>
   </si>
   <si>
-    <t>#REPORT_TYPE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>#TITLE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>#DESCRIPTION</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>#PATH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>#SORT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -492,6 +464,34 @@
   <si>
     <t>从类型字段搜索要求或缺陷，然后选择合适版本以缩小范围，最后单击“生成” 创建可跟踪性报告。</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>@SORT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TITLE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICON</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPORT_TYPE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>@SORT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -919,12 +919,12 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="10" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>18</v>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="11" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>11</v>
@@ -1040,10 +1040,10 @@
     </row>
     <row r="12" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>11</v>
@@ -1052,7 +1052,7 @@
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>13</v>
@@ -1082,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1139,24 +1139,24 @@
         <v>25</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>27</v>
@@ -1168,7 +1168,7 @@
         <v>28</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O8" s="1">
         <v>30</v>
@@ -1176,22 +1176,22 @@
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>12</v>
@@ -1208,22 +1208,22 @@
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>12</v>
@@ -1232,7 +1232,7 @@
         <v>29</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O10" s="1">
         <v>20</v>
@@ -1240,22 +1240,22 @@
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>12</v>
@@ -1264,7 +1264,7 @@
         <v>29</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O11" s="1">
         <v>30</v>
@@ -1272,22 +1272,22 @@
     </row>
     <row r="12" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>12</v>
@@ -1296,7 +1296,7 @@
         <v>29</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O12" s="1">
         <v>40</v>
@@ -1304,22 +1304,22 @@
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>12</v>
@@ -1328,7 +1328,7 @@
         <v>29</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O13" s="1">
         <v>40</v>
@@ -1379,7 +1379,7 @@
         <v>63</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.15">
@@ -1387,7 +1387,7 @@
         <v>64</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>12</v>
@@ -1395,10 +1395,10 @@
     </row>
     <row r="9" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>65</v>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="10" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>12</v>
@@ -1420,7 +1420,7 @@
         <v>64</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>12</v>
@@ -1431,7 +1431,7 @@
         <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>65</v>
@@ -1439,10 +1439,10 @@
     </row>
     <row r="13" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>12</v>
@@ -1453,7 +1453,7 @@
         <v>64</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>12</v>
@@ -1464,7 +1464,7 @@
         <v>66</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>65</v>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="16" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>12</v>
@@ -1486,7 +1486,7 @@
         <v>64</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>12</v>
@@ -1497,7 +1497,7 @@
         <v>66</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>65</v>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="19" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F19" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>12</v>
@@ -1519,7 +1519,7 @@
         <v>64</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>12</v>
@@ -1530,7 +1530,7 @@
         <v>66</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>65</v>
@@ -1538,10 +1538,10 @@
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>12</v>
@@ -1585,12 +1585,12 @@
         <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>34</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>34</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>34</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>34</v>
@@ -1635,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1651,45 +1651,45 @@
   <sheetData>
     <row r="7" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" t="s">
-        <v>118</v>
-      </c>
-      <c r="J7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="F7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -1697,19 +1697,19 @@
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K9">
         <v>20</v>
@@ -1717,19 +1717,19 @@
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="K10">
         <v>30</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1840" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1840" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -470,18 +470,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>PATH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>DESCRIPTION</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>TITLE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ICON</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -492,6 +484,14 @@
   <si>
     <t>@SORT</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#TITLE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PATH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1082,7 +1082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="106" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="106" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -1139,7 +1139,7 @@
         <v>25</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>67</v>
@@ -1635,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1657,19 +1657,19 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>120</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1840" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="1840" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -1082,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1171,7 +1171,7 @@
         <v>78</v>
       </c>
       <c r="O8" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.15">
@@ -1635,7 +1635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/test-manager-service/src/main/resources/script/meta/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="500" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="20540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="FD_CATEGORY_MENU" sheetId="5" r:id="rId3"/>
-    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId4"/>
-    <sheet name="FD_REPORT" sheetId="7" r:id="rId5"/>
-    <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId6"/>
+    <sheet name="IAM_ROLE_PERMISSION" sheetId="8" r:id="rId4"/>
+    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId5"/>
+    <sheet name="FD_REPORT" sheetId="7" r:id="rId6"/>
+    <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="116">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -355,19 +369,25 @@
   </si>
   <si>
     <t>{"width": 4, "positionX": 4, "positionY": 2, "height": 4}</t>
+  </si>
+  <si>
+    <t>OFFICIAL</t>
+  </si>
+  <si>
+    <t>IAM_ROLE_PERMISSION</t>
+  </si>
+  <si>
+    <t>#ROLE_CODE</t>
+  </si>
+  <si>
+    <t>role/project/default/administrator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -384,352 +404,20 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -737,251 +425,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -991,57 +437,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1330,37 +729,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.6" customWidth="1"/>
-    <col min="6" max="6" width="44.6" customWidth="1"/>
-    <col min="7" max="7" width="36.2" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="44.59765625" customWidth="1"/>
+    <col min="7" max="7" width="36.19921875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.2" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.2" customWidth="1"/>
-    <col min="13" max="13" width="18.6" customWidth="1"/>
-    <col min="14" max="14" width="19.4" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.59765625" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.6" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:14">
+    <row r="8" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -1427,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -1456,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>21</v>
       </c>
@@ -1485,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>24</v>
       </c>
@@ -1514,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>27</v>
       </c>
@@ -1544,8 +943,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -1554,32 +954,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P13"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.6" customWidth="1"/>
-    <col min="4" max="4" width="15.2" customWidth="1"/>
-    <col min="5" max="5" width="11.6" customWidth="1"/>
-    <col min="6" max="6" width="66.6" customWidth="1"/>
-    <col min="7" max="7" width="16.8" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="66.59765625" customWidth="1"/>
+    <col min="7" max="7" width="16.796875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="48.6" customWidth="1"/>
-    <col min="10" max="10" width="18.6" customWidth="1"/>
-    <col min="11" max="11" width="44.2" customWidth="1"/>
-    <col min="12" max="12" width="19.2" customWidth="1"/>
-    <col min="13" max="13" width="11.6" customWidth="1"/>
+    <col min="9" max="9" width="48.59765625" customWidth="1"/>
+    <col min="10" max="10" width="18.59765625" customWidth="1"/>
+    <col min="11" max="11" width="44.19921875" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.59765625" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="1025" width="11.6" customWidth="1"/>
+    <col min="15" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:16">
+    <row r="7" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
@@ -1620,7 +1019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:15">
+    <row r="8" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F8" s="5" t="s">
         <v>39</v>
       </c>
@@ -1649,7 +1048,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="6:15">
+    <row r="9" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>46</v>
       </c>
@@ -1681,7 +1080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="6:15">
+    <row r="10" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>51</v>
       </c>
@@ -1713,7 +1112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="6:15">
+    <row r="11" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>55</v>
       </c>
@@ -1745,7 +1144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="6:15">
+    <row r="12" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>59</v>
       </c>
@@ -1777,7 +1176,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="6:15">
+    <row r="13" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>63</v>
       </c>
@@ -1810,8 +1209,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -1820,24 +1220,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.59765625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="22.4" customWidth="1"/>
-    <col min="6" max="6" width="26.4" customWidth="1"/>
-    <col min="7" max="7" width="41.4" customWidth="1"/>
-    <col min="8" max="8" width="26.2" customWidth="1"/>
-    <col min="9" max="9" width="10.8" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" customWidth="1"/>
+    <col min="6" max="6" width="26.3984375" customWidth="1"/>
+    <col min="7" max="7" width="41.3984375" customWidth="1"/>
+    <col min="8" max="8" width="26.19921875" customWidth="1"/>
+    <col min="9" max="9" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
         <v>66</v>
       </c>
@@ -1857,7 +1256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:8">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>70</v>
       </c>
@@ -1868,73 +1267,73 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="6:8">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="6:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="6:8">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>70</v>
       </c>
       <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="6:8">
-      <c r="F12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="6:8">
-      <c r="F13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="6:8">
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="6:8">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
         <v>71</v>
       </c>
@@ -1945,109 +1344,243 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="6:8">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="6:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="6:8">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="G19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" t="s">
         <v>59</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="6:8">
-      <c r="F20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="6:8">
-      <c r="F21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" t="s">
-        <v>63</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="6:8">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="G22" t="s">
         <v>63</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="29.796875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="44.3984375" customWidth="1"/>
+    <col min="7" max="7" width="44.59765625" customWidth="1"/>
+    <col min="8" max="8" width="14.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.6" customWidth="1"/>
-    <col min="4" max="4" width="23.8" customWidth="1"/>
-    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="7" width="59.2" customWidth="1"/>
-    <col min="8" max="1025" width="11.6" customWidth="1"/>
+    <col min="7" max="7" width="59.19921875" customWidth="1"/>
+    <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:8">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
         <v>74</v>
       </c>
@@ -2064,7 +1597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:7">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>51</v>
       </c>
@@ -2072,7 +1605,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>55</v>
       </c>
@@ -2080,7 +1613,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="6:7">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>59</v>
       </c>
@@ -2088,7 +1621,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="6:7">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>63</v>
       </c>
@@ -2097,8 +1630,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -2106,26 +1640,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="16.8" customWidth="1"/>
-    <col min="6" max="6" width="17.2" customWidth="1"/>
-    <col min="7" max="7" width="24.8" customWidth="1"/>
-    <col min="8" max="8" width="23.4" customWidth="1"/>
-    <col min="9" max="9" width="20.4" customWidth="1"/>
+    <col min="4" max="4" width="16.796875" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="24.796875" customWidth="1"/>
+    <col min="8" max="8" width="23.3984375" customWidth="1"/>
+    <col min="9" max="9" width="20.3984375" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:11">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>77</v>
       </c>
@@ -2151,7 +1684,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="6:11">
+    <row r="8" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>81</v>
       </c>
@@ -2171,7 +1704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="6:11">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>81</v>
       </c>
@@ -2191,7 +1724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="6:11">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>81</v>
       </c>
@@ -2212,40 +1745,39 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.2" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.2" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.4" style="1" customWidth="1"/>
-    <col min="7" max="8" width="23.8" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.3984375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="23.796875" style="1" customWidth="1"/>
     <col min="9" max="10" width="24" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.4" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" style="1" customWidth="1"/>
     <col min="12" max="12" width="28" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6" style="1" customWidth="1"/>
-    <col min="14" max="15" width="11.6" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.4" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6" style="1" customWidth="1"/>
-    <col min="18" max="18" width="46.4" style="1" customWidth="1"/>
-    <col min="19" max="1025" width="11.6" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.59765625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.59765625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.3984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="46.3984375" style="1" customWidth="1"/>
+    <col min="19" max="1025" width="11.59765625" style="1" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>94</v>
       </c>
@@ -2292,7 +1824,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="5:17">
+    <row r="8" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
@@ -2333,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:17">
+    <row r="9" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E9" s="1" t="s">
         <v>103</v>
       </c>
@@ -2374,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="5:17">
+    <row r="10" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E10" s="1" t="s">
         <v>106</v>
       </c>
@@ -2415,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="5:18">
+    <row r="11" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E11" s="1" t="s">
         <v>108</v>
       </c>
@@ -2460,8 +1992,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -380,7 +380,8 @@
     <t>#ROLE_CODE</t>
   </si>
   <si>
-    <t>role/project/default/administrator</t>
+    <t>role/project/default/project-owner</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -396,6 +397,7 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1487,7 +1489,7 @@
   <dimension ref="D7:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F8" sqref="F8:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="119">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -381,6 +381,18 @@
   </si>
   <si>
     <t>role/project/default/project-owner</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.test.manager</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.test.manager</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.test.manager</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -960,7 +972,7 @@
   <dimension ref="D7:P13"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1052,7 +1064,7 @@
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
@@ -1061,7 +1073,7 @@
         <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s">
         <v>42</v>
@@ -1489,7 +1501,7 @@
   <dimension ref="D7:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F12"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1523,7 +1535,7 @@
         <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.15">
@@ -1566,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H11"/>
+  <dimension ref="D7:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1599,9 +1611,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F8" t="s">
-        <v>51</v>
+    <row r="8" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="G8" t="s">
         <v>76</v>
@@ -1609,7 +1623,7 @@
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
         <v>76</v>
@@ -1617,7 +1631,7 @@
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
         <v>76</v>
@@ -1625,9 +1639,17 @@
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F12" t="s">
         <v>63</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>76</v>
       </c>
     </row>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="20540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="20540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="128">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -394,13 +394,45 @@
   <si>
     <t>choerodon.code.test.manager</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder.query</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder-rel.queryIssuesByParameter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder-rel.insertTestAndRelationship</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.insert</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.update</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.queryByCycle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops-service.app-service.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listDevopsClusters</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-status.query</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -419,6 +451,42 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="DejaVu Sans"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="8"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="6"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
       <name val="Droid Sans Fallback"/>
       <charset val="1"/>
     </font>
@@ -443,13 +511,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -751,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1235,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I27"/>
+  <dimension ref="D7:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.59765625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1308,7 +1382,7 @@
         <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>15</v>
@@ -1316,13 +1390,13 @@
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.15">
@@ -1330,7 +1404,7 @@
         <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>72</v>
@@ -1341,7 +1415,7 @@
         <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>72</v>
@@ -1352,7 +1426,7 @@
         <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>72</v>
@@ -1363,7 +1437,7 @@
         <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>72</v>
@@ -1371,10 +1445,10 @@
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>72</v>
@@ -1385,7 +1459,7 @@
         <v>112</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>72</v>
@@ -1396,7 +1470,7 @@
         <v>112</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>72</v>
@@ -1407,7 +1481,7 @@
         <v>112</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>72</v>
@@ -1418,7 +1492,7 @@
         <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>72</v>
@@ -1426,13 +1500,13 @@
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="6:8" x14ac:dyDescent="0.15">
@@ -1440,7 +1514,7 @@
         <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>15</v>
@@ -1451,7 +1525,7 @@
         <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>15</v>
@@ -1462,7 +1536,7 @@
         <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>15</v>
@@ -1473,20 +1547,9 @@
         <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1500,7 +1563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -1578,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H12"/>
+  <dimension ref="D7:H23"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1614,43 +1677,137 @@
     <row r="8" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F9" t="s">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G13" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F10" t="s">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F11" t="s">
+      <c r="G17" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F12" t="s">
+      <c r="G19" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F22" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G12" t="s">
-        <v>76</v>
+      <c r="G22" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/test-manager-service/src/main/resources/script/meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/test-manager-service/src/main/resources/script/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{42A1DD1B-CDD6-BC40-85A1-A783ECFE3670}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="20540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="18920" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="FD_REPORT" sheetId="7" r:id="rId6"/>
     <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -425,14 +426,15 @@
     <t>devops-service.devops-environment.listDevopsClusters</t>
   </si>
   <si>
-    <t>test-manager-service.test-status.query</t>
+    <t>test-manager-service.test-status.insert</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -533,6 +535,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -822,14 +827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -847,7 +852,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
@@ -885,7 +890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:15">
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -914,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -943,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
         <v>21</v>
       </c>
@@ -972,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:15">
       <c r="F11" t="s">
         <v>24</v>
       </c>
@@ -1001,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:15">
       <c r="F12" t="s">
         <v>27</v>
       </c>
@@ -1042,14 +1047,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:P13"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" customWidth="1"/>
@@ -1066,7 +1071,7 @@
     <col min="15" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:16" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
@@ -1107,7 +1112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:16">
       <c r="F8" s="5" t="s">
         <v>39</v>
       </c>
@@ -1136,7 +1141,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:16">
       <c r="F9" t="s">
         <v>117</v>
       </c>
@@ -1168,7 +1173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:16">
       <c r="F10" t="s">
         <v>51</v>
       </c>
@@ -1200,7 +1205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:16">
       <c r="F11" t="s">
         <v>55</v>
       </c>
@@ -1232,7 +1237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:16">
       <c r="F12" t="s">
         <v>59</v>
       </c>
@@ -1264,7 +1269,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:16">
       <c r="F13" t="s">
         <v>63</v>
       </c>
@@ -1308,14 +1313,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.59765625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.59765625" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="22.3984375" customWidth="1"/>
     <col min="6" max="6" width="26.3984375" customWidth="1"/>
@@ -1324,7 +1329,7 @@
     <col min="9" max="9" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:9">
       <c r="D7" s="5" t="s">
         <v>66</v>
       </c>
@@ -1344,7 +1349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:9">
       <c r="F8" t="s">
         <v>70</v>
       </c>
@@ -1355,7 +1360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:9">
       <c r="F9" t="s">
         <v>70</v>
       </c>
@@ -1366,7 +1371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:9">
       <c r="F10" t="s">
         <v>70</v>
       </c>
@@ -1377,7 +1382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:9">
       <c r="F11" t="s">
         <v>70</v>
       </c>
@@ -1388,7 +1393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:9">
       <c r="F12" t="s">
         <v>71</v>
       </c>
@@ -1399,7 +1404,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:9">
       <c r="F13" t="s">
         <v>71</v>
       </c>
@@ -1410,7 +1415,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:9">
       <c r="F14" t="s">
         <v>71</v>
       </c>
@@ -1421,7 +1426,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:9">
       <c r="F15" t="s">
         <v>71</v>
       </c>
@@ -1432,7 +1437,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:9">
       <c r="F16" t="s">
         <v>71</v>
       </c>
@@ -1443,7 +1448,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:8">
       <c r="F17" t="s">
         <v>112</v>
       </c>
@@ -1454,7 +1459,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:8">
       <c r="F18" t="s">
         <v>112</v>
       </c>
@@ -1465,7 +1470,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:8">
       <c r="F19" t="s">
         <v>112</v>
       </c>
@@ -1476,7 +1481,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:8">
       <c r="F20" t="s">
         <v>112</v>
       </c>
@@ -1487,7 +1492,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:8">
       <c r="F21" t="s">
         <v>112</v>
       </c>
@@ -1498,7 +1503,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:8">
       <c r="F22" t="s">
         <v>73</v>
       </c>
@@ -1509,7 +1514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:8">
       <c r="F23" t="s">
         <v>73</v>
       </c>
@@ -1520,7 +1525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:8">
       <c r="F24" t="s">
         <v>73</v>
       </c>
@@ -1531,7 +1536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:8">
       <c r="F25" t="s">
         <v>73</v>
       </c>
@@ -1542,7 +1547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:8">
       <c r="F26" t="s">
         <v>73</v>
       </c>
@@ -1560,14 +1565,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="29.796875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
@@ -1576,7 +1581,7 @@
     <col min="8" max="8" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:8">
       <c r="D7" s="5" t="s">
         <v>113</v>
       </c>
@@ -1593,7 +1598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:8">
       <c r="F8" t="s">
         <v>115</v>
       </c>
@@ -1601,7 +1606,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:8">
       <c r="F9" t="s">
         <v>115</v>
       </c>
@@ -1609,7 +1614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:8">
       <c r="F10" t="s">
         <v>115</v>
       </c>
@@ -1617,7 +1622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:8">
       <c r="F11" t="s">
         <v>115</v>
       </c>
@@ -1625,7 +1630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:8">
       <c r="F12" t="s">
         <v>115</v>
       </c>
@@ -1640,14 +1645,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" customWidth="1"/>
@@ -1657,7 +1662,7 @@
     <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>74</v>
       </c>
@@ -1674,7 +1679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:8" ht="12.75" customHeight="1">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
@@ -1684,7 +1689,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:8" ht="12.75" customHeight="1">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
@@ -1694,7 +1699,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:8" ht="12.75" customHeight="1">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
@@ -1704,7 +1709,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:8" ht="12.75" customHeight="1">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
@@ -1714,7 +1719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:8">
       <c r="F12" s="8" t="s">
         <v>51</v>
       </c>
@@ -1722,7 +1727,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:8">
       <c r="F13" s="8" t="s">
         <v>51</v>
       </c>
@@ -1730,7 +1735,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:8">
       <c r="F14" s="8" t="s">
         <v>51</v>
       </c>
@@ -1738,7 +1743,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:8">
       <c r="F15" s="8" t="s">
         <v>51</v>
       </c>
@@ -1746,7 +1751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:8">
       <c r="F16" s="9" t="s">
         <v>55</v>
       </c>
@@ -1754,7 +1759,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:7">
       <c r="F17" s="9" t="s">
         <v>55</v>
       </c>
@@ -1762,7 +1767,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:7">
       <c r="F18" s="9" t="s">
         <v>55</v>
       </c>
@@ -1770,7 +1775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:7">
       <c r="F19" s="10" t="s">
         <v>59</v>
       </c>
@@ -1778,7 +1783,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:7">
       <c r="F20" s="10" t="s">
         <v>59</v>
       </c>
@@ -1786,7 +1791,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:7">
       <c r="F21" s="10" t="s">
         <v>59</v>
       </c>
@@ -1794,7 +1799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:7">
       <c r="F22" s="11" t="s">
         <v>63</v>
       </c>
@@ -1802,7 +1807,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:7">
       <c r="F23" s="11" t="s">
         <v>63</v>
       </c>
@@ -1822,14 +1827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="16.796875" customWidth="1"/>
     <col min="6" max="6" width="17.19921875" customWidth="1"/>
@@ -1839,7 +1844,7 @@
     <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:11">
       <c r="D7" t="s">
         <v>77</v>
       </c>
@@ -1865,7 +1870,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:11">
       <c r="F8" t="s">
         <v>81</v>
       </c>
@@ -1885,7 +1890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:11">
       <c r="F9" t="s">
         <v>81</v>
       </c>
@@ -1905,7 +1910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:11">
       <c r="F10" t="s">
         <v>81</v>
       </c>
@@ -1932,14 +1937,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D7:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
@@ -1958,7 +1963,7 @@
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:18">
       <c r="D7" s="1" t="s">
         <v>94</v>
       </c>
@@ -2005,7 +2010,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:18" ht="14">
       <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
@@ -2046,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:18" ht="14">
       <c r="E9" s="1" t="s">
         <v>103</v>
       </c>
@@ -2087,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:18" ht="14">
       <c r="E10" s="1" t="s">
         <v>106</v>
       </c>
@@ -2128,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:18" ht="14">
       <c r="E11" s="1" t="s">
         <v>108</v>
       </c>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/test-manager-service/src/main/resources/script/meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/test-manager-service/src/main/resources/script/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{42A1DD1B-CDD6-BC40-85A1-A783ECFE3670}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="18920" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="20540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="FD_REPORT" sheetId="7" r:id="rId6"/>
     <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="129">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -426,15 +425,18 @@
     <t>devops-service.devops-environment.listDevopsClusters</t>
   </si>
   <si>
-    <t>test-manager-service.test-status.insert</t>
+    <t>test-manager-service.test-status.query</t>
+  </si>
+  <si>
+    <t>role/project/default/project-member</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -535,9 +537,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -827,14 +826,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -852,7 +851,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
@@ -890,7 +889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:15">
+    <row r="8" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -919,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -948,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>21</v>
       </c>
@@ -977,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>24</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>27</v>
       </c>
@@ -1047,14 +1046,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P13"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" customWidth="1"/>
@@ -1071,7 +1070,7 @@
     <col min="15" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:16" ht="12.75" customHeight="1">
+    <row r="7" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
@@ -1112,7 +1111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:16">
+    <row r="8" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F8" s="5" t="s">
         <v>39</v>
       </c>
@@ -1141,7 +1140,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="4:16">
+    <row r="9" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>117</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:16">
+    <row r="10" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>51</v>
       </c>
@@ -1205,7 +1204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="4:16">
+    <row r="11" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>55</v>
       </c>
@@ -1237,7 +1236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="4:16">
+    <row r="12" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>59</v>
       </c>
@@ -1269,7 +1268,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="4:16">
+    <row r="13" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>63</v>
       </c>
@@ -1313,14 +1312,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.59765625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.59765625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="22.3984375" customWidth="1"/>
     <col min="6" max="6" width="26.3984375" customWidth="1"/>
@@ -1329,7 +1328,7 @@
     <col min="9" max="9" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
         <v>66</v>
       </c>
@@ -1349,7 +1348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:9">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>70</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:9">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>70</v>
       </c>
@@ -1371,7 +1370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="4:9">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>70</v>
       </c>
@@ -1382,7 +1381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="4:9">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>70</v>
       </c>
@@ -1393,7 +1392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:9">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>71</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="4:9">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>71</v>
       </c>
@@ -1415,7 +1414,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="4:9">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>71</v>
       </c>
@@ -1426,7 +1425,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="4:9">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
         <v>71</v>
       </c>
@@ -1437,7 +1436,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="4:9">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>71</v>
       </c>
@@ -1448,7 +1447,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="6:8">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>112</v>
       </c>
@@ -1459,7 +1458,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="6:8">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
         <v>112</v>
       </c>
@@ -1470,7 +1469,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="6:8">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>112</v>
       </c>
@@ -1481,7 +1480,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="6:8">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
         <v>112</v>
       </c>
@@ -1492,7 +1491,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="6:8">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
         <v>112</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="6:8">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
         <v>73</v>
       </c>
@@ -1514,7 +1513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="6:8">
+    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
         <v>73</v>
       </c>
@@ -1525,7 +1524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="6:8">
+    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
         <v>73</v>
       </c>
@@ -1536,7 +1535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="6:8">
+    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
         <v>73</v>
       </c>
@@ -1547,7 +1546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="6:8">
+    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F26" t="s">
         <v>73</v>
       </c>
@@ -1565,14 +1564,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="D7:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="29.796875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
@@ -1581,7 +1580,7 @@
     <col min="8" max="8" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
         <v>113</v>
       </c>
@@ -1598,7 +1597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:8">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>115</v>
       </c>
@@ -1606,7 +1605,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>115</v>
       </c>
@@ -1614,7 +1613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>115</v>
       </c>
@@ -1622,7 +1621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>115</v>
       </c>
@@ -1630,12 +1629,44 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>115</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1645,14 +1676,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" customWidth="1"/>
@@ -1662,7 +1693,7 @@
     <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
         <v>74</v>
       </c>
@@ -1679,7 +1710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:8" ht="12.75" customHeight="1">
+    <row r="8" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
@@ -1689,7 +1720,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="12.75" customHeight="1">
+    <row r="9" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
@@ -1699,7 +1730,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="4:8" ht="12.75" customHeight="1">
+    <row r="10" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
@@ -1709,7 +1740,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="4:8" ht="12.75" customHeight="1">
+    <row r="11" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
@@ -1719,7 +1750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F12" s="8" t="s">
         <v>51</v>
       </c>
@@ -1727,7 +1758,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F13" s="8" t="s">
         <v>51</v>
       </c>
@@ -1735,7 +1766,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F14" s="8" t="s">
         <v>51</v>
       </c>
@@ -1743,7 +1774,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F15" s="8" t="s">
         <v>51</v>
       </c>
@@ -1751,7 +1782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
+    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F16" s="9" t="s">
         <v>55</v>
       </c>
@@ -1759,7 +1790,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="6:7">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F17" s="9" t="s">
         <v>55</v>
       </c>
@@ -1767,7 +1798,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="6:7">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F18" s="9" t="s">
         <v>55</v>
       </c>
@@ -1775,7 +1806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="6:7">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F19" s="10" t="s">
         <v>59</v>
       </c>
@@ -1783,7 +1814,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="6:7">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F20" s="10" t="s">
         <v>59</v>
       </c>
@@ -1791,7 +1822,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="6:7">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F21" s="10" t="s">
         <v>59</v>
       </c>
@@ -1799,7 +1830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="6:7">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F22" s="11" t="s">
         <v>63</v>
       </c>
@@ -1807,7 +1838,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="6:7">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F23" s="11" t="s">
         <v>63</v>
       </c>
@@ -1827,14 +1858,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="16.796875" customWidth="1"/>
     <col min="6" max="6" width="17.19921875" customWidth="1"/>
@@ -1844,7 +1875,7 @@
     <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:11">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>77</v>
       </c>
@@ -1870,7 +1901,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="4:11">
+    <row r="8" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>81</v>
       </c>
@@ -1890,7 +1921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:11">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>81</v>
       </c>
@@ -1910,7 +1941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="4:11">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>81</v>
       </c>
@@ -1937,14 +1968,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
@@ -1963,7 +1994,7 @@
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>94</v>
       </c>
@@ -2010,7 +2041,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="4:18" ht="14">
+    <row r="8" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
@@ -2051,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:18" ht="14">
+    <row r="9" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E9" s="1" t="s">
         <v>103</v>
       </c>
@@ -2092,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:18" ht="14">
+    <row r="10" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E10" s="1" t="s">
         <v>106</v>
       </c>
@@ -2133,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18" ht="14">
+    <row r="11" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E11" s="1" t="s">
         <v>108</v>
       </c>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="20540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="20540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,11 @@
     <t>devops-service.devops-environment.listDevopsClusters</t>
   </si>
   <si>
-    <t>test-manager-service.test-status.query</t>
-  </si>
-  <si>
     <t>role/project/default/project-member</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test-manager-service.test-status.insert</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1567,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1639,7 +1640,7 @@
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
         <v>116</v>
@@ -1647,7 +1648,7 @@
     </row>
     <row r="14" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1655,7 +1656,7 @@
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
         <v>21</v>
@@ -1663,7 +1664,7 @@
     </row>
     <row r="16" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G16" t="s">
         <v>24</v>
@@ -1679,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1835,7 +1836,7 @@
         <v>63</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.15">

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="20540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1680,7 +1680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/test-manager-service/src/main/resources/script/meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\test-manager-service-1118\test-manager-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A033E35-5D1E-4641-BF65-F11AD4C2985C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -436,8 +437,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -457,43 +458,43 @@
     <font>
       <sz val="9"/>
       <name val="Droid Sans Fallback"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="9"/>
       <name val="DejaVu Sans"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="9"/>
       <name val="Droid Sans Fallback"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="8"/>
       <name val="Droid Sans Fallback"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="7"/>
       <name val="Droid Sans Fallback"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="6"/>
       <name val="Droid Sans Fallback"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="5"/>
       <name val="Droid Sans Fallback"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -538,6 +539,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -827,32 +831,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="44.59765625" customWidth="1"/>
-    <col min="7" max="7" width="36.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.19921875" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.59765625" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="16" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
@@ -890,7 +894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:15">
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -919,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -948,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
         <v>21</v>
       </c>
@@ -976,8 +980,11 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15">
       <c r="F11" t="s">
         <v>24</v>
       </c>
@@ -1006,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:15">
       <c r="F12" t="s">
         <v>27</v>
       </c>
@@ -1047,31 +1054,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:P13"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="J1" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="66.59765625" customWidth="1"/>
-    <col min="7" max="7" width="16.796875" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="66.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="48.59765625" customWidth="1"/>
-    <col min="10" max="10" width="18.59765625" customWidth="1"/>
-    <col min="11" max="11" width="44.19921875" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" customWidth="1"/>
-    <col min="13" max="13" width="11.59765625" customWidth="1"/>
+    <col min="9" max="9" width="48.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="44.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="15" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:16" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
@@ -1112,7 +1119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:16">
       <c r="F8" s="5" t="s">
         <v>39</v>
       </c>
@@ -1141,7 +1148,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:16">
       <c r="F9" t="s">
         <v>117</v>
       </c>
@@ -1173,7 +1180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:16">
       <c r="F10" t="s">
         <v>51</v>
       </c>
@@ -1205,7 +1212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:16">
       <c r="F11" t="s">
         <v>55</v>
       </c>
@@ -1236,8 +1243,11 @@
       <c r="O11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16">
       <c r="F12" t="s">
         <v>59</v>
       </c>
@@ -1269,7 +1279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:16">
       <c r="F13" t="s">
         <v>63</v>
       </c>
@@ -1313,23 +1323,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.59765625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="22.3984375" customWidth="1"/>
-    <col min="6" max="6" width="26.3984375" customWidth="1"/>
-    <col min="7" max="7" width="41.3984375" customWidth="1"/>
-    <col min="8" max="8" width="26.19921875" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="41.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:9">
       <c r="D7" s="5" t="s">
         <v>66</v>
       </c>
@@ -1349,7 +1359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:9">
       <c r="F8" t="s">
         <v>70</v>
       </c>
@@ -1360,7 +1370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:9">
       <c r="F9" t="s">
         <v>70</v>
       </c>
@@ -1371,7 +1381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:9">
       <c r="F10" t="s">
         <v>70</v>
       </c>
@@ -1382,7 +1392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:9">
       <c r="F11" t="s">
         <v>70</v>
       </c>
@@ -1393,7 +1403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:9">
       <c r="F12" t="s">
         <v>71</v>
       </c>
@@ -1404,7 +1414,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:9">
       <c r="F13" t="s">
         <v>71</v>
       </c>
@@ -1415,7 +1425,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:9">
       <c r="F14" t="s">
         <v>71</v>
       </c>
@@ -1425,8 +1435,11 @@
       <c r="H14" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9">
       <c r="F15" t="s">
         <v>71</v>
       </c>
@@ -1437,7 +1450,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:9">
       <c r="F16" t="s">
         <v>71</v>
       </c>
@@ -1448,7 +1461,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:8">
       <c r="F17" t="s">
         <v>112</v>
       </c>
@@ -1459,7 +1472,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:8">
       <c r="F18" t="s">
         <v>112</v>
       </c>
@@ -1470,7 +1483,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:8">
       <c r="F19" t="s">
         <v>112</v>
       </c>
@@ -1481,7 +1494,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:8">
       <c r="F20" t="s">
         <v>112</v>
       </c>
@@ -1492,7 +1505,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:8">
       <c r="F21" t="s">
         <v>112</v>
       </c>
@@ -1503,7 +1516,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:8">
       <c r="F22" t="s">
         <v>73</v>
       </c>
@@ -1514,7 +1527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:8">
       <c r="F23" t="s">
         <v>73</v>
       </c>
@@ -1525,7 +1538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:8">
       <c r="F24" t="s">
         <v>73</v>
       </c>
@@ -1536,7 +1549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:8">
       <c r="F25" t="s">
         <v>73</v>
       </c>
@@ -1547,7 +1560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:8">
       <c r="F26" t="s">
         <v>73</v>
       </c>
@@ -1565,23 +1578,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="29.796875" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="44.3984375" customWidth="1"/>
-    <col min="7" max="7" width="44.59765625" customWidth="1"/>
-    <col min="8" max="8" width="14.796875" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:8">
       <c r="D7" s="5" t="s">
         <v>113</v>
       </c>
@@ -1598,7 +1611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:8">
       <c r="F8" t="s">
         <v>115</v>
       </c>
@@ -1606,7 +1619,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:8">
       <c r="F9" t="s">
         <v>115</v>
       </c>
@@ -1614,15 +1627,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:8">
       <c r="F10" t="s">
         <v>115</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
       <c r="F11" t="s">
         <v>115</v>
       </c>
@@ -1630,7 +1646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:8">
       <c r="F12" t="s">
         <v>115</v>
       </c>
@@ -1638,7 +1654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:8">
       <c r="F13" t="s">
         <v>127</v>
       </c>
@@ -1646,7 +1662,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:8">
       <c r="F14" t="s">
         <v>127</v>
       </c>
@@ -1654,7 +1670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:8">
       <c r="F15" t="s">
         <v>127</v>
       </c>
@@ -1662,7 +1678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:8">
       <c r="F16" t="s">
         <v>127</v>
       </c>
@@ -1677,24 +1693,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:H23"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="7" width="59.19921875" customWidth="1"/>
-    <col min="8" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="59.140625" customWidth="1"/>
+    <col min="8" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>74</v>
       </c>
@@ -1711,7 +1727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:8" ht="12.75" customHeight="1">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
@@ -1721,7 +1737,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:8" ht="12.75" customHeight="1">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
@@ -1731,7 +1747,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:8" ht="12.75" customHeight="1">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
@@ -1741,7 +1757,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:8" ht="12.75" customHeight="1">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
@@ -1751,7 +1767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:8">
       <c r="F12" s="8" t="s">
         <v>51</v>
       </c>
@@ -1759,7 +1775,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:8">
       <c r="F13" s="8" t="s">
         <v>51</v>
       </c>
@@ -1767,7 +1783,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:8">
       <c r="F14" s="8" t="s">
         <v>51</v>
       </c>
@@ -1775,7 +1791,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:8">
       <c r="F15" s="8" t="s">
         <v>51</v>
       </c>
@@ -1783,31 +1799,40 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:8">
       <c r="F16" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
       <c r="F17" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
       <c r="F18" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8">
       <c r="F19" s="10" t="s">
         <v>59</v>
       </c>
@@ -1815,7 +1840,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:8">
       <c r="F20" s="10" t="s">
         <v>59</v>
       </c>
@@ -1823,7 +1848,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:8">
       <c r="F21" s="10" t="s">
         <v>59</v>
       </c>
@@ -1831,7 +1856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:8">
       <c r="F22" s="11" t="s">
         <v>63</v>
       </c>
@@ -1839,7 +1864,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:8">
       <c r="F23" s="11" t="s">
         <v>63</v>
       </c>
@@ -1859,24 +1884,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="16.796875" customWidth="1"/>
-    <col min="6" max="6" width="17.19921875" customWidth="1"/>
-    <col min="7" max="7" width="24.796875" customWidth="1"/>
-    <col min="8" max="8" width="23.3984375" customWidth="1"/>
-    <col min="9" max="9" width="20.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:11">
       <c r="D7" t="s">
         <v>77</v>
       </c>
@@ -1902,7 +1927,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:11">
       <c r="F8" t="s">
         <v>81</v>
       </c>
@@ -1922,7 +1947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:11">
       <c r="F9" t="s">
         <v>81</v>
       </c>
@@ -1942,7 +1967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:11">
       <c r="F10" t="s">
         <v>81</v>
       </c>
@@ -1969,33 +1994,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D7:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.3984375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="23.796875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="23.85546875" style="1" customWidth="1"/>
     <col min="9" max="10" width="24" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="28" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.59765625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="11.59765625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.3984375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.59765625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="46.3984375" style="1" customWidth="1"/>
-    <col min="19" max="1025" width="11.59765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="46.42578125" style="1" customWidth="1"/>
+    <col min="19" max="1025" width="11.5703125" style="1" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:18">
       <c r="D7" s="1" t="s">
         <v>94</v>
       </c>
@@ -2042,7 +2067,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:18">
       <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
@@ -2083,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:18">
       <c r="E9" s="1" t="s">
         <v>103</v>
       </c>
@@ -2124,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:18">
       <c r="E10" s="1" t="s">
         <v>106</v>
       </c>
@@ -2165,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:18">
       <c r="E11" s="1" t="s">
         <v>108</v>
       </c>
@@ -2212,6 +2237,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\test-manager-service-1118\test-manager-service\src\main\resources\script\meta\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A033E35-5D1E-4641-BF65-F11AD4C2985C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -22,19 +16,11 @@
     <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="199">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -255,16 +241,277 @@
     <t>organization_project</t>
   </si>
   <si>
+    <t>OFFICIAL</t>
+  </si>
+  <si>
     <t>GENERAL</t>
   </si>
   <si>
+    <t>IAM_ROLE_PERMISSION</t>
+  </si>
+  <si>
+    <t>#ROLE_CODE</t>
+  </si>
+  <si>
+    <t>#PERMISSION_CODE</t>
+  </si>
+  <si>
+    <t>role/project/default/project-owner</t>
+  </si>
+  <si>
+    <t>role/project/default/project-member</t>
+  </si>
+  <si>
     <t>IAM_MENU_PERMISSION</t>
   </si>
   <si>
-    <t>#PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle.getTestCycle</t>
+    <t>test-manager-service.test-issue-folder.query</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder-rel.queryIssuesByParameter</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder-rel.insertTestAndRelationship</t>
+  </si>
+  <si>
+    <t>test-service.test-issue-folder.query</t>
+  </si>
+  <si>
+    <t>test-service.test-case.listCaseByFolderId</t>
+  </si>
+  <si>
+    <t>test-service.test-file-load-history.queryLatestLoadHistory</t>
+  </si>
+  <si>
+    <t>test-service.test-case.downloadImportTemplate</t>
+  </si>
+  <si>
+    <t>test-service.test-file-load-history.cancelUpLoad</t>
+  </si>
+  <si>
+    <t>test-service.test-case.importIssues</t>
+  </si>
+  <si>
+    <t>test-service.test-file-load-history.queryIssues</t>
+  </si>
+  <si>
+    <t>test-service.test-case.downLoadByFolder</t>
+  </si>
+  <si>
+    <t>test-service.test-case.downExcelFail</t>
+  </si>
+  <si>
+    <t>test-service.test-issue-folder.create</t>
+  </si>
+  <si>
+    <t>test-service.test-issue-folder.moveFolder</t>
+  </si>
+  <si>
+    <t>test-service.test-issue-folder.update</t>
+  </si>
+  <si>
+    <t>test-service.test-issue-folder.delete</t>
+  </si>
+  <si>
+    <t>test-service.test-case.createTestCase</t>
+  </si>
+  <si>
+    <t>test-service.test-attachment.uploadFile</t>
+  </si>
+  <si>
+    <t>agile-service.issue-attachment.uploadForAddress</t>
+  </si>
+  <si>
+    <t>test-service.test-case-link.queryLinkIssues</t>
+  </si>
+  <si>
+    <t>test-service.test-case.queryCaseInfo</t>
+  </si>
+  <si>
+    <t>test-service.test-case-step.query</t>
+  </si>
+  <si>
+    <t>test-service.test-case-data-log.queryByCaseId</t>
+  </si>
+  <si>
+    <t>test-service.test-case.updateCase</t>
+  </si>
+  <si>
+    <t>test-service.test-case-attachment.uploadAttachment</t>
+  </si>
+  <si>
+    <t>test-service.test-case.batchCloneCase</t>
+  </si>
+  <si>
+    <t>test-service.test-case.batchMoveCase</t>
+  </si>
+  <si>
+    <t>test-service.test-case.deleteCase</t>
+  </si>
+  <si>
+    <t>test-service.test-case-step.changeOneStep</t>
+  </si>
+  <si>
+    <t>test-service.test-case-step.clone</t>
+  </si>
+  <si>
+    <t>test-service.test-case-step.removeStep</t>
+  </si>
+  <si>
+    <t>test-service.test-status.query</t>
+  </si>
+  <si>
+    <t>test-service.test-plan.queryTree</t>
+  </si>
+  <si>
+    <t>test-service.test-plan.queryInfo</t>
+  </si>
+  <si>
+    <t>test-service.test-plan.create</t>
+  </si>
+  <si>
+    <t>test-service.test-plan.query</t>
+  </si>
+  <si>
+    <t>test-service.test-plan.deletePlan</t>
+  </si>
+  <si>
+    <t>test-service.test-plan.clonePlan</t>
+  </si>
+  <si>
+    <t>test-service.test-plan.updateStatus</t>
+  </si>
+  <si>
+    <t>test-service.test-plan.allPlan</t>
+  </si>
+  <si>
+    <t>test-service.test-plan.formStatus</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle-case.update</t>
+  </si>
+  <si>
+    <t>base-service.project-user.listProjectUsersByProjectIdAndRoleLable</t>
+  </si>
+  <si>
+    <t>base-service.project.list</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle.insert</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle.update</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle.batchChangeAssignedInOneCycle</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle.queryLatestLoadHistory</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle-case.importCase</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle.moveFolder</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle-case.delete</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle-case.listCaseByCycleId</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle-case.ignoreUpdate</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle-case.updateCompare</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle-case.selectUpdateCompare</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle-case.queryExecutionStatus</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle-case-history.query</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle-case.queryCaseInfo</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle-case-step.querySubStep</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle-case.updateCaseAndStep</t>
+  </si>
+  <si>
+    <t>test-service.test-attachment.removeAttachment</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle-case.queryCaseAndStep</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle-case-step.update</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle-case-defect-rel.removeAttachment</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle-case-defect-rel.insert</t>
+  </si>
+  <si>
+    <t>agile-service.scheme.queryIssueTypesWithStateMachineIdByProjectId</t>
+  </si>
+  <si>
+    <t>test-service.test-cycle-case-defect-rel.createIssueAndLinkDefect</t>
+  </si>
+  <si>
+    <t>agile-service.issue.listEpicSelectData</t>
+  </si>
+  <si>
+    <t>agile-service.sprint.queryNameByOptions</t>
+  </si>
+  <si>
+    <t>agile-service.issue.queryIssueByOptionForAgile</t>
+  </si>
+  <si>
+    <t>agile-service.issue-link-type.listIssueLinkType</t>
+  </si>
+  <si>
+    <t>agile-service.field-value.queryPageFieldViewList</t>
+  </si>
+  <si>
+    <t>agile-service.scheme.queryByOrganizationIdList</t>
+  </si>
+  <si>
+    <t>agile-service.issue-attachment.uploadAttachment</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listDevopsClusters</t>
+  </si>
+  <si>
+    <t>test-service.test-automation-history.queryWithInstance</t>
+  </si>
+  <si>
+    <t>test-service.test-app-instance.queryValues</t>
+  </si>
+  <si>
+    <t>test-service.test-app-instance.deploy</t>
+  </si>
+  <si>
+    <t>test-service.test-automation-history.queryLog</t>
+  </si>
+  <si>
+    <t>test-service.test-status.insert</t>
+  </si>
+  <si>
+    <t>test-service.test-status.delete</t>
+  </si>
+  <si>
+    <t>test-service.test-status.update</t>
   </si>
   <si>
     <t>FD_REPORT</t>
@@ -370,75 +617,19 @@
   </si>
   <si>
     <t>{"width": 4, "positionX": 4, "positionY": 2, "height": 4}</t>
-  </si>
-  <si>
-    <t>OFFICIAL</t>
-  </si>
-  <si>
-    <t>IAM_ROLE_PERMISSION</t>
-  </si>
-  <si>
-    <t>#ROLE_CODE</t>
-  </si>
-  <si>
-    <t>role/project/default/project-owner</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.test.manager</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.test.manager</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.test.manager</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test-manager-service.test-issue-folder.query</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test-manager-service.test-issue-folder-rel.queryIssuesByParameter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test-manager-service.test-issue-folder-rel.insertTestAndRelationship</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle.insert</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle.update</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.queryByCycle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops-service.app-service.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listDevopsClusters</t>
-  </si>
-  <si>
-    <t>role/project/default/project-member</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test-manager-service.test-status.insert</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -447,18 +638,12 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Droid Sans Fallback"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -496,16 +681,353 @@
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -513,9 +1035,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -524,24 +1288,69 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -826,37 +1635,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:O12"/>
   <sheetViews>
     <sheetView topLeftCell="F4" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="3" width="11.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="44.5703125" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="44.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="36.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.1428571428571" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="18.5714285714286" customWidth="1"/>
+    <col min="14" max="14" width="19.4285714285714" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="16" max="1025" width="11.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:15">
       <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
@@ -894,7 +1703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:15">
+    <row r="8" spans="6:14">
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -923,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="6:14">
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -952,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="6:15">
       <c r="F10" t="s">
         <v>21</v>
       </c>
@@ -984,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="6:14">
       <c r="F11" t="s">
         <v>24</v>
       </c>
@@ -1013,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="6:14">
       <c r="F12" t="s">
         <v>27</v>
       </c>
@@ -1043,9 +1852,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -1054,31 +1862,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:P13"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="66.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="1" max="3" width="11.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="15.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="11.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="66.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="16.8571428571429" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="48.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="44.140625" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="48.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="18.5714285714286" customWidth="1"/>
+    <col min="11" max="11" width="44.1428571428571" customWidth="1"/>
+    <col min="12" max="12" width="19.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="11.5714285714286" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="15" max="1025" width="11.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:16" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:16">
       <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
@@ -1119,7 +1928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:16">
+    <row r="8" spans="6:15">
       <c r="F8" s="5" t="s">
         <v>39</v>
       </c>
@@ -1148,9 +1957,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="4:16">
+    <row r="9" spans="6:15">
       <c r="F9" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
@@ -1159,7 +1968,7 @@
         <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
         <v>42</v>
@@ -1180,7 +1989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:16">
+    <row r="10" spans="6:15">
       <c r="F10" t="s">
         <v>51</v>
       </c>
@@ -1212,7 +2021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="4:16">
+    <row r="11" spans="6:16">
       <c r="F11" t="s">
         <v>55</v>
       </c>
@@ -1247,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:16">
+    <row r="12" spans="6:15">
       <c r="F12" t="s">
         <v>59</v>
       </c>
@@ -1279,7 +2088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="4:16">
+    <row r="13" spans="6:15">
       <c r="F13" t="s">
         <v>63</v>
       </c>
@@ -1312,9 +2121,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -1323,20 +2131,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="41.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="26.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="41.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="26.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="10.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
@@ -1359,7 +2168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:9">
+    <row r="8" spans="6:8">
       <c r="F8" t="s">
         <v>70</v>
       </c>
@@ -1370,7 +2179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:9">
+    <row r="9" spans="6:8">
       <c r="F9" t="s">
         <v>70</v>
       </c>
@@ -1381,7 +2190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="4:9">
+    <row r="10" spans="6:8">
       <c r="F10" t="s">
         <v>70</v>
       </c>
@@ -1392,7 +2201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="4:9">
+    <row r="11" spans="6:8">
       <c r="F11" t="s">
         <v>70</v>
       </c>
@@ -1403,7 +2212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:9">
+    <row r="12" spans="6:8">
       <c r="F12" t="s">
         <v>71</v>
       </c>
@@ -1414,7 +2223,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="4:9">
+    <row r="13" spans="6:8">
       <c r="F13" t="s">
         <v>71</v>
       </c>
@@ -1425,7 +2234,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="4:9">
+    <row r="14" spans="6:9">
       <c r="F14" t="s">
         <v>71</v>
       </c>
@@ -1439,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:9">
+    <row r="15" spans="6:8">
       <c r="F15" t="s">
         <v>71</v>
       </c>
@@ -1450,7 +2259,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="4:9">
+    <row r="16" spans="6:8">
       <c r="F16" t="s">
         <v>71</v>
       </c>
@@ -1463,7 +2272,7 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -1474,7 +2283,7 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
         <v>51</v>
@@ -1485,7 +2294,7 @@
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
         <v>55</v>
@@ -1496,7 +2305,7 @@
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s">
         <v>59</v>
@@ -1507,7 +2316,7 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
         <v>63</v>
@@ -1518,7 +2327,7 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -1529,7 +2338,7 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s">
         <v>51</v>
@@ -1540,7 +2349,7 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s">
         <v>55</v>
@@ -1551,7 +2360,7 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s">
         <v>59</v>
@@ -1562,7 +2371,7 @@
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
         <v>63</v>
@@ -1572,64 +2381,65 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="44.42578125" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="44.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="44.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="14.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" s="5" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:8">
+    <row r="8" spans="6:7">
       <c r="F8" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
       <c r="F9" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
@@ -1638,81 +2448,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
+    <row r="11" spans="6:7">
       <c r="F11" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="6:7">
       <c r="F12" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
+    <row r="13" spans="6:7">
       <c r="F13" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7">
       <c r="F14" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
+    <row r="15" spans="6:7">
       <c r="F15" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
+    <row r="16" spans="6:7">
       <c r="F16" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="D7:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="1" max="3" width="11.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="23.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="11.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="7" width="59.140625" customWidth="1"/>
-    <col min="8" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="59.1428571428571" customWidth="1"/>
+    <col min="8" max="1025" width="11.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:8">
       <c r="D7" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
@@ -1721,161 +2532,877 @@
         <v>68</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:8" ht="12.75" customHeight="1">
+    <row r="8" customHeight="1" spans="4:7">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" ht="12.75" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="4:7">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" ht="12.75" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="4:7">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" ht="12.75" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="4:7">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="4:7">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="4:7">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="4:7">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="4:7">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="4:7">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="4:7">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="4:7">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="4:7">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="4:7">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="4:7">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="4:7">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="4:7">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="4:7">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="4:7">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="4:7">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="4:7">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="4:7">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="4:7">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="4:7">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="4:7">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="4:7">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="4:7">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="4:7">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="4:7">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="4:7">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="4:7">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="4:7">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="4:7">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="4:7">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="4:7">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="4:7">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="4:7">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="4:7">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="4:7">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="4:7">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8">
-      <c r="F12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8">
-      <c r="F13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="8" t="s">
+    </row>
+    <row r="47" customHeight="1" spans="4:7">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="4:7">
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="4:7">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="4:7">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="4:7">
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="4:7">
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
-      <c r="F14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="8" t="s">
+    <row r="53" customHeight="1" spans="4:7">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G53" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
-      <c r="F15" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8">
-      <c r="F16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8">
-      <c r="F17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="9" t="s">
+    <row r="54" customHeight="1" spans="4:7">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8">
-      <c r="F18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="6:8">
-      <c r="F19" s="10" t="s">
+    </row>
+    <row r="55" customHeight="1" spans="4:7">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="4:7">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="4:7">
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="4:7">
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="4:7">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="4:7">
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="4:7">
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="4:7">
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7">
+      <c r="F63" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7">
+      <c r="F64" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7">
+      <c r="F65" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7">
+      <c r="F66" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7">
+      <c r="F67" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7">
+      <c r="F68" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7">
+      <c r="F69" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="6:7">
+      <c r="F70" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="6:7">
+      <c r="F71" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7">
+      <c r="F72" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="6:7">
+      <c r="F73" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7">
+      <c r="F74" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="6:7">
+      <c r="F75" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="6:7">
+      <c r="F76" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="6:7">
+      <c r="F77" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="6:7">
+      <c r="F78" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="6:7">
+      <c r="F79" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7">
+      <c r="F80" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7">
+      <c r="F81" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7">
+      <c r="F82" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7">
+      <c r="F83" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7">
+      <c r="F84" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7">
+      <c r="F85" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7">
+      <c r="F86" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7">
+      <c r="F87" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7">
+      <c r="F88" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7">
+      <c r="F89" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7">
+      <c r="F90" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="6:8">
-      <c r="F20" s="10" t="s">
+      <c r="G90" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7">
+      <c r="F91" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="6:8">
-      <c r="F21" s="10" t="s">
+      <c r="G91" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7">
+      <c r="F92" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G92" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7">
+      <c r="F93" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7">
+      <c r="F94" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7">
+      <c r="F95" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7">
+      <c r="F96" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G96" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="6:8">
-      <c r="F22" s="11" t="s">
+    <row r="97" spans="6:7">
+      <c r="F97" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="6:8">
-      <c r="F23" s="11" t="s">
+      <c r="G97" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7">
+      <c r="F98" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G98" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7">
+      <c r="F99" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7">
+      <c r="F100" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7">
+      <c r="F101" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G101" s="11" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -1884,145 +3411,147 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:K10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="17.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="24.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="23.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="20.4285714285714" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="4:11">
+    <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="K8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:11">
+    <row r="9" spans="6:11">
       <c r="F9" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="K9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="4:11">
+    <row r="10" spans="6:11">
       <c r="F10" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="K10">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="23.85546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="8" width="23.8571428571429" style="1" customWidth="1"/>
     <col min="9" max="10" width="24" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.4285714285714" style="1" customWidth="1"/>
     <col min="12" max="12" width="28" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="11.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="46.42578125" style="1" customWidth="1"/>
-    <col min="19" max="1025" width="11.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5714285714286" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5714285714286" style="1" customWidth="1"/>
+    <col min="18" max="18" width="46.4285714285714" style="1" customWidth="1"/>
+    <col min="19" max="1025" width="11.5714285714286" style="1" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="1" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -2031,7 +3560,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>31</v>
@@ -2040,13 +3569,13 @@
         <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>6</v>
@@ -2058,16 +3587,16 @@
         <v>38</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="4:18">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="5:17">
       <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
@@ -2075,16 +3604,16 @@
         <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>14</v>
@@ -2093,7 +3622,7 @@
         <v>15</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>45</v>
@@ -2108,24 +3637,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="5:17">
       <c r="E9" s="1" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>14</v>
@@ -2134,10 +3663,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="O9" s="1">
         <v>2</v>
@@ -2149,24 +3678,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="5:17">
       <c r="E10" s="1" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>14</v>
@@ -2175,10 +3704,10 @@
         <v>15</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="O10" s="1">
         <v>3</v>
@@ -2190,24 +3719,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="5:18">
       <c r="E11" s="1" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>14</v>
@@ -2216,10 +3745,10 @@
         <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="O11" s="1">
         <v>4</v>
@@ -2231,12 +3760,12 @@
         <v>1</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\test-manager-service\src\main\resources\script\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7860" tabRatio="500" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="198">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -268,368 +273,360 @@
     <t>test-manager-service.test-issue-folder.query</t>
   </si>
   <si>
+    <t>test-manager-service.test-issue-folder-rel.insertTestAndRelationship</t>
+  </si>
+  <si>
+    <t>agile-service.issue-attachment.uploadForAddress</t>
+  </si>
+  <si>
+    <t>base-service.project-user.listProjectUsersByProjectIdAndRoleLable</t>
+  </si>
+  <si>
+    <t>base-service.project.list</t>
+  </si>
+  <si>
+    <t>agile-service.scheme.queryIssueTypesWithStateMachineIdByProjectId</t>
+  </si>
+  <si>
+    <t>agile-service.issue.listEpicSelectData</t>
+  </si>
+  <si>
+    <t>agile-service.sprint.queryNameByOptions</t>
+  </si>
+  <si>
+    <t>agile-service.issue.queryIssueByOptionForAgile</t>
+  </si>
+  <si>
+    <t>agile-service.issue-link-type.listIssueLinkType</t>
+  </si>
+  <si>
+    <t>agile-service.field-value.queryPageFieldViewList</t>
+  </si>
+  <si>
+    <t>agile-service.scheme.queryByOrganizationIdList</t>
+  </si>
+  <si>
+    <t>agile-service.issue-attachment.uploadAttachment</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listDevopsClusters</t>
+  </si>
+  <si>
+    <t>FD_REPORT</t>
+  </si>
+  <si>
+    <t>REPORT_TYPE</t>
+  </si>
+  <si>
+    <t>#TITLE</t>
+  </si>
+  <si>
+    <t>#PATH</t>
+  </si>
+  <si>
+    <t>测试报表</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+DQo8c3ZnIHdpZHRoPSIxODRweCIgaGVpZ2h0PSIxMDZweCIgdmlld0JveD0iMCAwIDE4NCAxMDYiIHZlcnNpb249IjEuMSIgeG1sbnM9Imh0dHA6Ly93d3cudzMub3JnLzIwMDAvc3ZnIiB4bWxuczp4bGluaz0iaHR0cDovL3d3dy53My5vcmcvMTk5OS94bGluayI+DQogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA0OSAoNTEwMDIpIC0gaHR0cDovL3d3dy5ib2hlbWlhbmNvZGluZy5jb20vc2tldGNoIC0tPg0KICAgIDx0aXRsZT5Hcm91cCA3PC90aXRsZT4NCiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4NCiAgICA8ZGVmcz48L2RlZnM+DQogICAgPGcgaWQ9IlN5bWJvbHMiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPg0KICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgtNDguMDAwMDAwLCAtNDIuMDAwMDAwKSI+DQogICAgICAgICAgICA8ZyBpZD0iR3JvdXAiPg0KICAgICAgICAgICAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDMwLjAwMDAwMCwgMTguMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC03IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDI0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAzNC4wMDAwMDApIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI4MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDE2LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjgwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMzIuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjkwIiB5PSIwIiB3aWR0aD0iNDAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE0MCIgeT0iMCIgd2lkdGg9IjQ0IiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA0OC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI4MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDY0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjgwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTQiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zOS42NjY2NjY3LDEyIEw0NS42NjY2NjY3LDEyIiBpZD0iTGluZS00IiBzdHJva2Utb3BhY2l0eT0iMC4zNiIgc3Ryb2tlPSIjMDAwMDAwIiBzdHJva2Utd2lkdGg9IjIiIHN0cm9rZS1saW5lY2FwPSJyb3VuZCIgc3Ryb2tlLWxpbmVqb2luPSJyb3VuZCI+PC9wYXRoPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik04OSwxMiBMOTUsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzOC4zMzMzMzMsMTIgTDE0NC4zMzMzMzMsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE0OC4wMDAwMDAsIDAuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbC1vcGFjaXR5PSIwLjgiIGZpbGw9IiNGNDQzMzYiIHg9IjAiIHk9IjAiIHdpZHRoPSIzNiIgaGVpZ2h0PSIyNCIgcng9IjIiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImljX2J1Z19yZXBvcnRfYmxhY2tfMjRweCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTAuMDAwMDAwLCA0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBvbHlnb24gaWQ9IlNoYXBlIiBwb2ludHM9IjAgMCAxNiAwIDE2IDE2IDAgMTYiPjwvcG9seWdvbj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMi41NzE0Mjg2LDUuNzc3Nzc3NzggTDEwLjc2NSw1Ljc3Nzc3Nzc4IEMxMC40NzU3MTQzLDUuMjMzMDE1ODcgMTAuMDc3MTQyOSw0Ljc2NTA3OTM3IDkuNTk1LDQuNDA4ODg4ODkgTDEwLjY0Mjg1NzEsMy4yNzA0NzYxOSBMOS43MzY0Mjg1NywyLjI4NTcxNDI5IEw4LjM0MTQyODU3LDMuODAxMjY5ODQgQzguMDQ1NzE0MjksMy43MjQ0NDQ0NCA3Ljc0MzU3MTQzLDMuNjgyNTM5NjggNy40Mjg1NzE0MywzLjY4MjUzOTY4IEM3LjExMzU3MTQzLDMuNjgyNTM5NjggNi44MTE0Mjg1NywzLjcyNDQ0NDQ0IDYuNTIyMTQyODYsMy44MDEyNjk4NCBMNS4xMjA3MTQyOSwyLjI4NTcxNDI5IEw0LjIxNDI4NTcxLDMuMjcwNDc2MTkgTDUuMjU1NzE0MjksNC40MDg4ODg4OSBDNC43OCw0Ljc2NTA3OTM3IDQuMzgxNDI4NTcsNS4yMzMwMTU4NyA0LjA5MjE0Mjg2LDUuNzc3Nzc3NzggTDIuMjg1NzE0MjksNS43Nzc3Nzc3OCBMMi4yODU3MTQyOSw3LjE3NDYwMzE3IEwzLjYyOTI4NTcxLDcuMTc0NjAzMTcgQzMuNTk3MTQyODYsNy40MDUwNzkzNyAzLjU3MTQyODU3LDcuNjM1NTU1NTYgMy41NzE0Mjg1Nyw3Ljg3MzAxNTg3IEwzLjU3MTQyODU3LDguNTcxNDI4NTcgTDIuMjg1NzE0MjksOC41NzE0Mjg1NyBMMi4yODU3MTQyOSw5Ljk2ODI1Mzk3IEwzLjU3MTQyODU3LDkuOTY4MjUzOTcgTDMuNTcxNDI4NTcsMTAuNjY2NjY2NyBDMy41NzE0Mjg1NywxMC45MDQxMjcgMy41OTcxNDI4NiwxMS4xMzQ2MDMyIDMuNjI5Mjg1NzEsMTEuMzY1MDc5NCBMMi4yODU3MTQyOSwxMS4zNjUwNzk0IEwyLjI4NTcxNDI5LDEyLjc2MTkwNDggTDQuMDkyMTQyODYsMTIuNzYxOTA0OCBDNC43NjA3MTQyOSwxNC4wMTIwNjM1IDYuMDAxNDI4NTcsMTQuODU3MTQyOSA3LjQyODU3MTQzLDE0Ljg1NzE0MjkgQzguODU1NzE0MjksMTQuODU3MTQyOSAxMC4wOTY0Mjg2LDE0LjAxMjA2MzUgMTAuNzY1LDEyLjc2MTkwNDggTDEyLjU3MTQyODYsMTIuNzYxOTA0OCBMMTIuNTcxNDI4NiwxMS4zNjUwNzk0IEwxMS4yMjc4NTcxLDExLjM2NTA3OTQgQzExLjI2LDExLjEzNDYwMzIgMTEuMjg1NzE0MywxMC45MDQxMjcgMTEuMjg1NzE0MywxMC42NjY2NjY3IEwxMS4yODU3MTQzLDkuOTY4MjUzOTcgTDEyLjU3MTQyODYsOS45NjgyNTM5NyBMMTIuNTcxNDI4Niw4LjU3MTQyODU3IEwxMS4yODU3MTQzLDguNTcxNDI4NTcgTDExLjI4NTcxNDMsNy44NzMwMTU4NyBDMTEuMjg1NzE0Myw3LjYzNTU1NTU2IDExLjI2LDcuNDA1MDc5MzcgMTEuMjI3ODU3MSw3LjE3NDYwMzE3IEwxMi41NzE0Mjg2LDcuMTc0NjAzMTcgTDEyLjU3MTQyODYsNS43Nzc3Nzc3OCBaIE04LjcxNDI4NTcxLDExLjM2NTA3OTQgTDYuMTQyODU3MTQsMTEuMzY1MDc5NCBMNi4xNDI4NTcxNCw5Ljk2ODI1Mzk3IEw4LjcxNDI4NTcxLDkuOTY4MjUzOTcgTDguNzE0Mjg1NzEsMTEuMzY1MDc5NCBaIE04LjcxNDI4NTcxLDguNTcxNDI4NTcgTDYuMTQyODU3MTQsOC41NzE0Mjg1NyBMNi4xNDI4NTcxNCw3LjE3NDYwMzE3IEw4LjcxNDI4NTcxLDcuMTc0NjAzMTcgTDguNzE0Mjg1NzEsOC41NzE0Mjg1NyBaIiBpZD0iU2hhcGUiIGZpbGw9IiNGRkZGRkYiIGZpbGwtcnVsZT0ibm9uemVybyI+PC9wYXRoPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0zIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg5OC42NjY2NjcsIDAuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbC1vcGFjaXR5PSIwLjgiIGZpbGw9IiM0RDkwRkUiIHg9IjAiIHk9IjAiIHdpZHRoPSIzNiIgaGVpZ2h0PSIyNCIgcng9IjIiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImJhc2VsaW5lLWV4cGxpY2l0LTI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIwIDAgMTYgMCAxNiAxNiAwIDE2Ij48L3BvbHlnb24+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTIuNjY2NjY2NywyIEwzLjMzMzMzMzMzLDIgQzIuNiwyIDIsMi42IDIsMy4zMzMzMzMzMyBMMiwxMi42NjY2NjY3IEMyLDEzLjQgMi42LDE0IDMuMzMzMzMzMzMsMTQgTDEyLjY2NjY2NjcsMTQgQzEzLjQsMTQgMTQsMTMuNCAxNCwxMi42NjY2NjY3IEwxNCwzLjMzMzMzMzMzIEMxNCwyLjYgMTMuNCwyIDEyLjY2NjY2NjcsMiBaIE0xMCw2IEw3LjMzMzMzMzMzLDYgTDcuMzMzMzMzMzMsNy4zMzMzMzMzMyBMMTAsNy4zMzMzMzMzMyBMMTAsOC42NjY2NjY2NyBMNy4zMzMzMzMzMyw4LjY2NjY2NjY3IEw3LjMzMzMzMzMzLDEwIEwxMCwxMCBMMTAsMTEuMzMzMzMzMyBMNiwxMS4zMzMzMzMzIEw2LDQuNjY2NjY2NjcgTDEwLDQuNjY2NjY2NjcgTDEwLDYgWiIgaWQ9IlNoYXBlIiBmaWxsPSIjRkZGRkZGIiBmaWxsLXJ1bGU9Im5vbnplcm8iPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDkuMzMzMzMzLCAwLjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTQiIGZpbGwtb3BhY2l0eT0iMC44IiBmaWxsPSIjMDBCRkE1IiB4PSIwIiB5PSIwIiB3aWR0aD0iMzYiIGhlaWdodD0iMjQiIHJ4PSIyIj48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJpY19idWdfcmVwb3J0X2JsYWNrXzI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIwIDAgMTYgMCAxNiAxNiAwIDE2Ij48L3BvbHlnb24+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iYmFzZWxpbmUtZXhwbG9yZS0yNHB4IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxLjAwMDAwMCwgMS4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNywwIEMxMC44NjU5OTMyLC03LjEwMTcxNDM5ZS0xNiAxNCwzLjEzNDAwNjc1IDE0LDcgQzE0LDEwLjg2NTk5MzIgMTAuODY1OTkzMiwxNCA3LDE0IEMzLjEzNDAwNjc1LDE0IDQuNzM0NDc2MjZlLTE2LDEwLjg2NTk5MzIgMCw3IEMtNC43MzQ0NzYyNmUtMTYsMy4xMzQwMDY3NSAzLjEzNDAwNjc1LDcuMTAxNzE0MzllLTE2IDcsMCBaIE03LDYuMzU4MzMzMzMgQzcuMzU1ODMzMzMsNi4zNTgzMzMzMyA3LjY0MTY2NjY3LDYuNjQ0MTY2NjcgNy42NDE2NjY2Nyw3IEM3LjY0MTY2NjY3LDcuMzU1ODMzMzMgNy4zNTU4MzMzMyw3LjY0MTY2NjY3IDcsNy42NDE2NjY2NyBDNi42NDQxNjY2Nyw3LjY0MTY2NjY3IDYuMzU4MzMzMzMsNy4zNTU4MzMzMyA2LjM1ODMzMzMzLDcgQzYuMzU4MzMzMzMsNi42NDQxNjY2NyA2LjY0NDE2NjY3LDYuMzU4MzMzMzMgNyw2LjM1ODMzMzMzIFogTTguMjc3NSw4LjI3NzUgTDEwLjUsMy41IEw1LjcyMjUsNS43MjI1IEwzLjUsMTAuNSBMOC4yNzc1LDguMjc3NSBaIiBpZD0iQ29tYmluZWQtU2hhcGUiIGZpbGw9IiNGRkZGRkYiPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMi4xIDIuMSAxMS45IDIuMSAxMS45IDExLjkgMi4xIDExLjkiPjwvcG9seWdvbj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbD0iI0ZGQjEwMCIgeD0iMCIgeT0iMCIgd2lkdGg9IjM2IiBoZWlnaHQ9IjI0IiByeD0iMiI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iYmFzZWxpbmUtYm9va21hcmstMjRweC0oMSkiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMS4zMzMzMzMzLDIgTDQuNjY2NjY2NjcsMiBDMy45MzMzMzMzMywyIDMuMzQsMi42IDMuMzQsMy4zMzMzMzMzMyBMMy4zMzMzMzMzMywxNCBMOCwxMiBMMTIuNjY2NjY2NywxNCBMMTIuNjY2NjY2NywzLjMzMzMzMzMzIEMxMi42NjY2NjY3LDIuNiAxMi4wNjY2NjY3LDIgMTEuMzMzMzMzMywyIFoiIGlkPSJTaGFwZSIgZmlsbD0iI0ZGRkZGRiIgZmlsbC1ydWxlPSJub256ZXJvIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMCAwIDE2IDAgMTYgMTYgMCAxNiI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgPC9nPg0KICAgICAgICA8L2c+DQogICAgPC9nPg0KPC9zdmc+</t>
+  </si>
+  <si>
+    <t>要求 -&gt; 测试 -&gt; 执行 -&gt; 缺陷</t>
+  </si>
+  <si>
+    <t>从类型字段搜索要求或缺陷，然后选择合适版本以缩小范围，最后单击“生成” 创建可跟踪性报告。</t>
+  </si>
+  <si>
+    <t>/testManager/report/story</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+DQo8c3ZnIHdpZHRoPSIxODRweCIgaGVpZ2h0PSIxMDZweCIgdmlld0JveD0iMCAwIDE4NCAxMDYiIHZlcnNpb249IjEuMSIgeG1sbnM9Imh0dHA6Ly93d3cudzMub3JnLzIwMDAvc3ZnIiB4bWxuczp4bGluaz0iaHR0cDovL3d3dy53My5vcmcvMTk5OS94bGluayI+DQogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA0OSAoNTEwMDIpIC0gaHR0cDovL3d3dy5ib2hlbWlhbmNvZGluZy5jb20vc2tldGNoIC0tPg0KICAgIDx0aXRsZT5Hcm91cCA3PC90aXRsZT4NCiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4NCiAgICA8ZGVmcz48L2RlZnM+DQogICAgPGcgaWQ9IlBhZ2UtMSIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+DQogICAgICAgIDxnIGlkPSLmiqXooajvvIjmgLvop4jvvIkiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC02MjYuMDAwMDAwLCAtMjc2LjAwMDAwMCkiPg0KICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDI3NC4wMDAwMDAsIDEzMi4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgzMDQuMDAwMDAwLCAxMDIuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMzAuMDAwMDAwLCAxOC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC03IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDI0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC04IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMzQuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDE2LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDMyLjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDQ4LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDY0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNCI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik00MCwxMiBMNDYsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik04OSwxMiBMOTUsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMzgsMTIgTDE0NCwxMiIgaWQ9IkxpbmUtNCIgc3Ryb2tlLW9wYWNpdHk9IjAuMzYiIHN0cm9rZT0iIzAwMDAwMCIgc3Ryb2tlLXdpZHRoPSIyIiBzdHJva2UtbGluZWNhcD0icm91bmQiIHN0cm9rZS1saW5lam9pbj0icm91bmQiPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS00IiBmaWxsLW9wYWNpdHk9IjAuOCIgZmlsbD0iI0Y0NDMzNiIgeD0iMCIgeT0iMCIgd2lkdGg9IjM2IiBoZWlnaHQ9IjI0IiByeD0iMiI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iaWNfYnVnX3JlcG9ydF9ibGFja18yNHB4IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMC4wMDAwMDAsIDQuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMCAwIDE2IDAgMTYgMTYgMCAxNiI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEyLjU3MTQyODYsNS43Nzc3Nzc3OCBMMTAuNzY1LDUuNzc3Nzc3NzggQzEwLjQ3NTcxNDMsNS4yMzMwMTU4NyAxMC4wNzcxNDI5LDQuNzY1MDc5MzcgOS41OTUsNC40MDg4ODg4OSBMMTAuNjQyODU3MSwzLjI3MDQ3NjE5IEw5LjczNjQyODU3LDIuMjg1NzE0MjkgTDguMzQxNDI4NTcsMy44MDEyNjk4NCBDOC4wNDU3MTQyOSwzLjcyNDQ0NDQ0IDcuNzQzNTcxNDMsMy42ODI1Mzk2OCA3LjQyODU3MTQzLDMuNjgyNTM5NjggQzcuMTEzNTcxNDMsMy42ODI1Mzk2OCA2LjgxMTQyODU3LDMuNzI0NDQ0NDQgNi41MjIxNDI4NiwzLjgwMTI2OTg0IEw1LjEyMDcxNDI5LDIuMjg1NzE0MjkgTDQuMjE0Mjg1NzEsMy4yNzA0NzYxOSBMNS4yNTU3MTQyOSw0LjQwODg4ODg5IEM0Ljc4LDQuNzY1MDc5MzcgNC4zODE0Mjg1Nyw1LjIzMzAxNTg3IDQuMDkyMTQyODYsNS43Nzc3Nzc3OCBMMi4yODU3MTQyOSw1Ljc3Nzc3Nzc4IEwyLjI4NTcxNDI5LDcuMTc0NjAzMTcgTDMuNjI5Mjg1NzEsNy4xNzQ2MDMxNyBDMy41OTcxNDI4Niw3LjQwNTA3OTM3IDMuNTcxNDI4NTcsNy42MzU1NTU1NiAzLjU3MTQyODU3LDcuODczMDE1ODcgTDMuNTcxNDI4NTcsOC41NzE0Mjg1NyBMMi4yODU3MTQyOSw4LjU3MTQyODU3IEwyLjI4NTcxNDI5LDkuOTY4MjUzOTcgTDMuNTcxNDI4NTcsOS45NjgyNTM5NyBMMy41NzE0Mjg1NywxMC42NjY2NjY3IEMzLjU3MTQyODU3LDEwLjkwNDEyNyAzLjU5NzE0Mjg2LDExLjEzNDYwMzIgMy42MjkyODU3MSwxMS4zNjUwNzk0IEwyLjI4NTcxNDI5LDExLjM2NTA3OTQgTDIuMjg1NzE0MjksMTIuNzYxOTA0OCBMNC4wOTIxNDI4NiwxMi43NjE5MDQ4IEM0Ljc2MDcxNDI5LDE0LjAxMjA2MzUgNi4wMDE0Mjg1NywxNC44NTcxNDI5IDcuNDI4NTcxNDMsMTQuODU3MTQyOSBDOC44NTU3MTQyOSwxNC44NTcxNDI5IDEwLjA5NjQyODYsMTQuMDEyMDYzNSAxMC43NjUsMTIuNzYxOTA0OCBMMTIuNTcxNDI4NiwxMi43NjE5MDQ4IEwxMi41NzE0Mjg2LDExLjM2NTA3OTQgTDExLjIyNzg1NzEsMTEuMzY1MDc5NCBDMTEuMjYsMTEuMTM0NjAzMiAxMS4yODU3MTQzLDEwLjkwNDEyNyAxMS4yODU3MTQzLDEwLjY2NjY2NjcgTDExLjI4NTcxNDMsOS45NjgyNTM5NyBMMTIuNTcxNDI4Niw5Ljk2ODI1Mzk3IEwxMi41NzE0Mjg2LDguNTcxNDI4NTcgTDExLjI4NTcxNDMsOC41NzE0Mjg1NyBMMTEuMjg1NzE0Myw3Ljg3MzAxNTg3IEMxMS4yODU3MTQzLDcuNjM1NTU1NTYgMTEuMjYsNy40MDUwNzkzNyAxMS4yMjc4NTcxLDcuMTc0NjAzMTcgTDEyLjU3MTQyODYsNy4xNzQ2MDMxNyBMMTIuNTcxNDI4Niw1Ljc3Nzc3Nzc4IFogTTguNzE0Mjg1NzEsMTEuMzY1MDc5NCBMNi4xNDI4NTcxNCwxMS4zNjUwNzk0IEw2LjE0Mjg1NzE0LDkuOTY4MjUzOTcgTDguNzE0Mjg1NzEsOS45NjgyNTM5NyBMOC43MTQyODU3MSwxMS4zNjUwNzk0IFogTTguNzE0Mjg1NzEsOC41NzE0Mjg1NyBMNi4xNDI4NTcxNCw4LjU3MTQyODU3IEw2LjE0Mjg1NzE0LDcuMTc0NjAzMTcgTDguNzE0Mjg1NzEsNy4xNzQ2MDMxNyBMOC43MTQyODU3MSw4LjU3MTQyODU3IFoiIGlkPSJTaGFwZSIgZmlsbD0iI0ZGRkZGRiIgZmlsbC1ydWxlPSJub256ZXJvIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS00IiBmaWxsLW9wYWNpdHk9IjAuOCIgZmlsbD0iIzREOTBGRSIgeD0iNDkiIHk9IjAiIHdpZHRoPSIzNiIgaGVpZ2h0PSIyNCIgcng9IjIiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImJhc2VsaW5lLWV4cGxpY2l0LTI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDU5LjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIwIDAgMTYgMCAxNiAxNiAwIDE2Ij48L3BvbHlnb24+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTIuNjY2NjY2NywyIEwzLjMzMzMzMzMzLDIgQzIuNiwyIDIsMi42IDIsMy4zMzMzMzMzMyBMMiwxMi42NjY2NjY3IEMyLDEzLjQgMi42LDE0IDMuMzMzMzMzMzMsMTQgTDEyLjY2NjY2NjcsMTQgQzEzLjQsMTQgMTQsMTMuNCAxNCwxMi42NjY2NjY3IEwxNCwzLjMzMzMzMzMzIEMxNCwyLjYgMTMuNCwyIDEyLjY2NjY2NjcsMiBaIE0xMCw2IEw3LjMzMzMzMzMzLDYgTDcuMzMzMzMzMzMsNy4zMzMzMzMzMyBMMTAsNy4zMzMzMzMzMyBMMTAsOC42NjY2NjY2NyBMNy4zMzMzMzMzMyw4LjY2NjY2NjY3IEw3LjMzMzMzMzMzLDEwIEwxMCwxMCBMMTAsMTEuMzMzMzMzMyBMNiwxMS4zMzMzMzMzIEw2LDQuNjY2NjY2NjcgTDEwLDQuNjY2NjY2NjcgTDEwLDYgWiIgaWQ9IlNoYXBlIiBmaWxsPSIjRkZGRkZGIiBmaWxsLXJ1bGU9Im5vbnplcm8iPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTQiIGZpbGwtb3BhY2l0eT0iMC44IiBmaWxsPSIjMDBCRkE1IiB4PSI5OSIgeT0iMCIgd2lkdGg9IjM2IiBoZWlnaHQ9IjI0IiByeD0iMiI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iaWNfYnVnX3JlcG9ydF9ibGFja18yNHB4IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMDkuMDAwMDAwLCA0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBvbHlnb24gaWQ9IlNoYXBlIiBwb2ludHM9IjAgMCAxNiAwIDE2IDE2IDAgMTYiPjwvcG9seWdvbj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJiYXNlbGluZS1leHBsb3JlLTI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEuMDAwMDAwLCAxLjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik03LDAgQzEwLjg2NTk5MzIsLTcuMTAxNzE0MzllLTE2IDE0LDMuMTM0MDA2NzUgMTQsNyBDMTQsMTAuODY1OTkzMiAxMC44NjU5OTMyLDE0IDcsMTQgQzMuMTM0MDA2NzUsMTQgNC43MzQ0NzYyNmUtMTYsMTAuODY1OTkzMiAwLDcgQy00LjczNDQ3NjI2ZS0xNiwzLjEzNDAwNjc1IDMuMTM0MDA2NzUsNy4xMDE3MTQzOWUtMTYgNywwIFogTTcsNi4zNTgzMzMzMyBDNy4zNTU4MzMzMyw2LjM1ODMzMzMzIDcuNjQxNjY2NjcsNi42NDQxNjY2NyA3LjY0MTY2NjY3LDcgQzcuNjQxNjY2NjcsNy4zNTU4MzMzMyA3LjM1NTgzMzMzLDcuNjQxNjY2NjcgNyw3LjY0MTY2NjY3IEM2LjY0NDE2NjY3LDcuNjQxNjY2NjcgNi4zNTgzMzMzMyw3LjM1NTgzMzMzIDYuMzU4MzMzMzMsNyBDNi4zNTgzMzMzMyw2LjY0NDE2NjY3IDYuNjQ0MTY2NjcsNi4zNTgzMzMzMyA3LDYuMzU4MzMzMzMgWiBNOC4yNzc1LDguMjc3NSBMMTAuNSwzLjUgTDUuNzIyNSw1LjcyMjUgTDMuNSwxMC41IEw4LjI3NzUsOC4yNzc1IFoiIGlkPSJDb21iaW5lZC1TaGFwZSIgZmlsbD0iI0ZGRkZGRiI+PC9wYXRoPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIyLjEgMi4xIDExLjkgMi4xIDExLjkgMTEuOSAyLjEgMTEuOSI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbD0iI0ZGQjEwMCIgeD0iMTQ4IiB5PSIwIiB3aWR0aD0iMzYiIGhlaWdodD0iMjQiIHJ4PSIyIj48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJiYXNlbGluZS1ib29rbWFyay0yNHB4LSgxKSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTU4LjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMS4zMzMzMzMzLDIgTDQuNjY2NjY2NjcsMiBDMy45MzMzMzMzMywyIDMuMzQsMi42IDMuMzQsMy4zMzMzMzMzMyBMMy4zMzMzMzMzMywxNCBMOCwxMiBMMTIuNjY2NjY2NywxNCBMMTIuNjY2NjY2NywzLjMzMzMzMzMzIEMxMi42NjY2NjY3LDIuNiAxMi4wNjY2NjY3LDIgMTEuMzMzMzMzMywyIFoiIGlkPSJTaGFwZSIgZmlsbD0iI0ZGRkZGRiIgZmlsbC1ydWxlPSJub256ZXJvIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMCAwIDE2IDAgMTYgMTYgMCAxNiI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgPC9nPg0KICAgICAgICA8L2c+DQogICAgPC9nPg0KPC9zdmc+</t>
+  </si>
+  <si>
+    <t>缺陷 -&gt; 执行 -&gt; 测试 -&gt; 要求</t>
+  </si>
+  <si>
+    <t xml:space="preserve">从类型字段搜索要求或缺陷，然后选择合适版本以缩小范围，最后单击“生成” 创建可跟踪性报告。 </t>
+  </si>
+  <si>
+    <t>/testManager/report/test</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTg0cHgiIGhlaWdodD0iMTA2cHgiIHZpZXdCb3g9IjAgMCAxODQgMTA2IiB2ZXJzaW9uPSIxLjEiIHhtbG5zPSJodHRwOi8vd3d3LnczLm9yZy8yMDAwL3N2ZyIgeG1sbnM6eGxpbms9Imh0dHA6Ly93d3cudzMub3JnLzE5OTkveGxpbmsiPgogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA1Mi41ICg2NzQ2OSkgLSBodHRwOi8vd3d3LmJvaGVtaWFuY29kaW5nLmNvbS9za2V0Y2ggLS0+CiAgICA8dGl0bGU+dGVzdC1pbGx1c3RyYXRpb24tMTwvdGl0bGU+CiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4KICAgIDxnIGlkPSLmtYvor5XmlrDpobXpnaIiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSLmiqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC05MzAuMDAwMDAwLCAtMjc2LjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjc0LjAwMDAwMCwgMTMxLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeeHg+WwveWbvi1jb3B5IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCAxMDMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9InRlc3QtaWxsdXN0cmF0aW9uLTEiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDQ4LjAwMDAwMCwgNDIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGwtb3BhY2l0eT0iMC4zIiBmaWxsPSIjMDBDMEE1IiB4PSIwIiB5PSIwIiB3aWR0aD0iOTIiIGhlaWdodD0iMTA2Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGwtb3BhY2l0eT0iMC41IiBmaWxsPSIjRkZGRkZGIiB4PSIyNyIgeT0iNDgiIHdpZHRoPSIzOSIgaGVpZ2h0PSIxMCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktMiIgZmlsbC1vcGFjaXR5PSIwLjEiIGZpbGw9IiM0QTRBNEEiIHg9IjkyIiB5PSIwIiB3aWR0aD0iOTIiIGhlaWdodD0iNDAiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5IiBmaWxsLW9wYWNpdHk9IjAuNSIgZmlsbD0iI0ZGRkZGRiIgeD0iMTE5IiB5PSIxNSIgd2lkdGg9IjM5IiBoZWlnaHQ9IjEwIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaItY29weS0zIiBmaWxsLW9wYWNpdHk9IjAuMiIgZmlsbD0iI0Y3NDEyRCIgeD0iOTIiIHk9IjQwIiB3aWR0aD0iNDYiIGhlaWdodD0iNjYiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5IiBmaWxsLW9wYWNpdHk9IjAuNSIgZmlsbD0iI0ZGRkZGRiIgeD0iMTAxIiB5PSI2OSIgd2lkdGg9IjI4IiBoZWlnaHQ9IjgiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5LTQiIGZpbGwtb3BhY2l0eT0iMC4yIiBmaWxsPSIjRkZCMjAwIiB4PSIxMzgiIHk9IjQwIiB3aWR0aD0iNDYiIGhlaWdodD0iMzMiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5LTYiIGZpbGwtb3BhY2l0eT0iMC41IiBmaWxsPSIjRkZGRkZGIiB4PSIxNDciIHk9IjUzIiB3aWR0aD0iMjgiIGhlaWdodD0iOCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktNSIgZmlsbC1vcGFjaXR5PSIwLjIiIGZpbGw9IiM0OThERkYiIHg9IjEzOCIgeT0iNzMiIHdpZHRoPSI0NiIgaGVpZ2h0PSIzMyI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktNiIgZmlsbC1vcGFjaXR5PSIwLjUiIGZpbGw9IiNGRkZGRkYiIHg9IjE0NyIgeT0iODYiIHdpZHRoPSIyOCIgaGVpZ2h0PSI4Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
+  </si>
+  <si>
+    <t>执行进度</t>
+  </si>
+  <si>
+    <t>统计测试用例执行情况，可以筛选得到各个迭代的不同测试循环中的用例执行状态记录。</t>
+  </si>
+  <si>
+    <t>/testManager/report/progress</t>
+  </si>
+  <si>
+    <t>IAM_DASHBOARD</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>NAMESPACE</t>
+  </si>
+  <si>
+    <t>FD_LEVEL</t>
+  </si>
+  <si>
+    <t>NEED_ROLES</t>
+  </si>
+  <si>
+    <t>IS_ENABLED</t>
+  </si>
+  <si>
+    <t>@POSITION</t>
+  </si>
+  <si>
+    <t>测试管理</t>
+  </si>
+  <si>
+    <t>TestSurvey</t>
+  </si>
+  <si>
+    <t>测试进度</t>
+  </si>
+  <si>
+    <t>test_progress</t>
+  </si>
+  <si>
+    <t>TestProgress</t>
+  </si>
+  <si>
+    <t>execution_schedule</t>
+  </si>
+  <si>
+    <t>IssueAndExecute</t>
+  </si>
+  <si>
+    <t>测试记录</t>
+  </si>
+  <si>
+    <t>test_record</t>
+  </si>
+  <si>
+    <t>{"width": 4, "positionX": 4, "positionY": 2, "height": 4}</t>
+  </si>
+  <si>
     <t>test-manager-service.test-issue-folder-rel.queryIssuesByParameter</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-issue-folder-rel.insertTestAndRelationship</t>
-  </si>
-  <si>
-    <t>test-service.test-issue-folder.query</t>
-  </si>
-  <si>
-    <t>test-service.test-case.listCaseByFolderId</t>
-  </si>
-  <si>
-    <t>test-service.test-file-load-history.queryLatestLoadHistory</t>
-  </si>
-  <si>
-    <t>test-service.test-case.downloadImportTemplate</t>
-  </si>
-  <si>
-    <t>test-service.test-file-load-history.cancelUpLoad</t>
-  </si>
-  <si>
-    <t>test-service.test-case.importIssues</t>
-  </si>
-  <si>
-    <t>test-service.test-file-load-history.queryIssues</t>
-  </si>
-  <si>
-    <t>test-service.test-case.downLoadByFolder</t>
-  </si>
-  <si>
-    <t>test-service.test-case.downExcelFail</t>
-  </si>
-  <si>
-    <t>test-service.test-issue-folder.create</t>
-  </si>
-  <si>
-    <t>test-service.test-issue-folder.moveFolder</t>
-  </si>
-  <si>
-    <t>test-service.test-issue-folder.update</t>
-  </si>
-  <si>
-    <t>test-service.test-issue-folder.delete</t>
-  </si>
-  <si>
-    <t>test-service.test-case.createTestCase</t>
-  </si>
-  <si>
-    <t>test-service.test-attachment.uploadFile</t>
-  </si>
-  <si>
-    <t>agile-service.issue-attachment.uploadForAddress</t>
-  </si>
-  <si>
-    <t>test-service.test-case-link.queryLinkIssues</t>
-  </si>
-  <si>
-    <t>test-service.test-case.queryCaseInfo</t>
-  </si>
-  <si>
-    <t>test-service.test-case-step.query</t>
-  </si>
-  <si>
-    <t>test-service.test-case-data-log.queryByCaseId</t>
-  </si>
-  <si>
-    <t>test-service.test-case.updateCase</t>
-  </si>
-  <si>
-    <t>test-service.test-case-attachment.uploadAttachment</t>
-  </si>
-  <si>
-    <t>test-service.test-case.batchCloneCase</t>
-  </si>
-  <si>
-    <t>test-service.test-case.batchMoveCase</t>
-  </si>
-  <si>
-    <t>test-service.test-case.deleteCase</t>
-  </si>
-  <si>
-    <t>test-service.test-case-step.changeOneStep</t>
-  </si>
-  <si>
-    <t>test-service.test-case-step.clone</t>
-  </si>
-  <si>
-    <t>test-service.test-case-step.removeStep</t>
-  </si>
-  <si>
-    <t>test-service.test-status.query</t>
-  </si>
-  <si>
-    <t>test-service.test-plan.queryTree</t>
-  </si>
-  <si>
-    <t>test-service.test-plan.queryInfo</t>
-  </si>
-  <si>
-    <t>test-service.test-plan.create</t>
-  </si>
-  <si>
-    <t>test-service.test-plan.query</t>
-  </si>
-  <si>
-    <t>test-service.test-plan.deletePlan</t>
-  </si>
-  <si>
-    <t>test-service.test-plan.clonePlan</t>
-  </si>
-  <si>
-    <t>test-service.test-plan.updateStatus</t>
-  </si>
-  <si>
-    <t>test-service.test-plan.allPlan</t>
-  </si>
-  <si>
-    <t>test-service.test-plan.formStatus</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle-case.update</t>
-  </si>
-  <si>
-    <t>base-service.project-user.listProjectUsersByProjectIdAndRoleLable</t>
-  </si>
-  <si>
-    <t>base-service.project.list</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle.insert</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle.update</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle.batchChangeAssignedInOneCycle</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle.queryLatestLoadHistory</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle-case.importCase</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle.moveFolder</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle-case.delete</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle-case.listCaseByCycleId</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle-case.ignoreUpdate</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle-case.updateCompare</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle-case.selectUpdateCompare</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle-case.queryExecutionStatus</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle-case-history.query</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle-case.queryCaseInfo</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle-case-step.querySubStep</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle-case.updateCaseAndStep</t>
-  </si>
-  <si>
-    <t>test-service.test-attachment.removeAttachment</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle-case.queryCaseAndStep</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle-case-step.update</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle-case-defect-rel.removeAttachment</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle-case-defect-rel.insert</t>
-  </si>
-  <si>
-    <t>agile-service.scheme.queryIssueTypesWithStateMachineIdByProjectId</t>
-  </si>
-  <si>
-    <t>test-service.test-cycle-case-defect-rel.createIssueAndLinkDefect</t>
-  </si>
-  <si>
-    <t>agile-service.issue.listEpicSelectData</t>
-  </si>
-  <si>
-    <t>agile-service.sprint.queryNameByOptions</t>
-  </si>
-  <si>
-    <t>agile-service.issue.queryIssueByOptionForAgile</t>
-  </si>
-  <si>
-    <t>agile-service.issue-link-type.listIssueLinkType</t>
-  </si>
-  <si>
-    <t>agile-service.field-value.queryPageFieldViewList</t>
-  </si>
-  <si>
-    <t>agile-service.scheme.queryByOrganizationIdList</t>
-  </si>
-  <si>
-    <t>agile-service.issue-attachment.uploadAttachment</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listDevopsClusters</t>
-  </si>
-  <si>
-    <t>test-service.test-automation-history.queryWithInstance</t>
-  </si>
-  <si>
-    <t>test-service.test-app-instance.queryValues</t>
-  </si>
-  <si>
-    <t>test-service.test-app-instance.deploy</t>
-  </si>
-  <si>
-    <t>test-service.test-automation-history.queryLog</t>
-  </si>
-  <si>
-    <t>test-service.test-status.insert</t>
-  </si>
-  <si>
-    <t>test-service.test-status.delete</t>
-  </si>
-  <si>
-    <t>test-service.test-status.update</t>
-  </si>
-  <si>
-    <t>FD_REPORT</t>
-  </si>
-  <si>
-    <t>REPORT_TYPE</t>
-  </si>
-  <si>
-    <t>#TITLE</t>
-  </si>
-  <si>
-    <t>#PATH</t>
-  </si>
-  <si>
-    <t>测试报表</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+DQo8c3ZnIHdpZHRoPSIxODRweCIgaGVpZ2h0PSIxMDZweCIgdmlld0JveD0iMCAwIDE4NCAxMDYiIHZlcnNpb249IjEuMSIgeG1sbnM9Imh0dHA6Ly93d3cudzMub3JnLzIwMDAvc3ZnIiB4bWxuczp4bGluaz0iaHR0cDovL3d3dy53My5vcmcvMTk5OS94bGluayI+DQogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA0OSAoNTEwMDIpIC0gaHR0cDovL3d3dy5ib2hlbWlhbmNvZGluZy5jb20vc2tldGNoIC0tPg0KICAgIDx0aXRsZT5Hcm91cCA3PC90aXRsZT4NCiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4NCiAgICA8ZGVmcz48L2RlZnM+DQogICAgPGcgaWQ9IlN5bWJvbHMiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPg0KICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgtNDguMDAwMDAwLCAtNDIuMDAwMDAwKSI+DQogICAgICAgICAgICA8ZyBpZD0iR3JvdXAiPg0KICAgICAgICAgICAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDMwLjAwMDAwMCwgMTguMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC03IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDI0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAzNC4wMDAwMDApIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI4MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDE2LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjgwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMzIuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjkwIiB5PSIwIiB3aWR0aD0iNDAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE0MCIgeT0iMCIgd2lkdGg9IjQ0IiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA0OC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI4MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDY0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjgwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTQiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zOS42NjY2NjY3LDEyIEw0NS42NjY2NjY3LDEyIiBpZD0iTGluZS00IiBzdHJva2Utb3BhY2l0eT0iMC4zNiIgc3Ryb2tlPSIjMDAwMDAwIiBzdHJva2Utd2lkdGg9IjIiIHN0cm9rZS1saW5lY2FwPSJyb3VuZCIgc3Ryb2tlLWxpbmVqb2luPSJyb3VuZCI+PC9wYXRoPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik04OSwxMiBMOTUsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzOC4zMzMzMzMsMTIgTDE0NC4zMzMzMzMsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE0OC4wMDAwMDAsIDAuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbC1vcGFjaXR5PSIwLjgiIGZpbGw9IiNGNDQzMzYiIHg9IjAiIHk9IjAiIHdpZHRoPSIzNiIgaGVpZ2h0PSIyNCIgcng9IjIiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImljX2J1Z19yZXBvcnRfYmxhY2tfMjRweCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTAuMDAwMDAwLCA0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBvbHlnb24gaWQ9IlNoYXBlIiBwb2ludHM9IjAgMCAxNiAwIDE2IDE2IDAgMTYiPjwvcG9seWdvbj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMi41NzE0Mjg2LDUuNzc3Nzc3NzggTDEwLjc2NSw1Ljc3Nzc3Nzc4IEMxMC40NzU3MTQzLDUuMjMzMDE1ODcgMTAuMDc3MTQyOSw0Ljc2NTA3OTM3IDkuNTk1LDQuNDA4ODg4ODkgTDEwLjY0Mjg1NzEsMy4yNzA0NzYxOSBMOS43MzY0Mjg1NywyLjI4NTcxNDI5IEw4LjM0MTQyODU3LDMuODAxMjY5ODQgQzguMDQ1NzE0MjksMy43MjQ0NDQ0NCA3Ljc0MzU3MTQzLDMuNjgyNTM5NjggNy40Mjg1NzE0MywzLjY4MjUzOTY4IEM3LjExMzU3MTQzLDMuNjgyNTM5NjggNi44MTE0Mjg1NywzLjcyNDQ0NDQ0IDYuNTIyMTQyODYsMy44MDEyNjk4NCBMNS4xMjA3MTQyOSwyLjI4NTcxNDI5IEw0LjIxNDI4NTcxLDMuMjcwNDc2MTkgTDUuMjU1NzE0MjksNC40MDg4ODg4OSBDNC43OCw0Ljc2NTA3OTM3IDQuMzgxNDI4NTcsNS4yMzMwMTU4NyA0LjA5MjE0Mjg2LDUuNzc3Nzc3NzggTDIuMjg1NzE0MjksNS43Nzc3Nzc3OCBMMi4yODU3MTQyOSw3LjE3NDYwMzE3IEwzLjYyOTI4NTcxLDcuMTc0NjAzMTcgQzMuNTk3MTQyODYsNy40MDUwNzkzNyAzLjU3MTQyODU3LDcuNjM1NTU1NTYgMy41NzE0Mjg1Nyw3Ljg3MzAxNTg3IEwzLjU3MTQyODU3LDguNTcxNDI4NTcgTDIuMjg1NzE0MjksOC41NzE0Mjg1NyBMMi4yODU3MTQyOSw5Ljk2ODI1Mzk3IEwzLjU3MTQyODU3LDkuOTY4MjUzOTcgTDMuNTcxNDI4NTcsMTAuNjY2NjY2NyBDMy41NzE0Mjg1NywxMC45MDQxMjcgMy41OTcxNDI4NiwxMS4xMzQ2MDMyIDMuNjI5Mjg1NzEsMTEuMzY1MDc5NCBMMi4yODU3MTQyOSwxMS4zNjUwNzk0IEwyLjI4NTcxNDI5LDEyLjc2MTkwNDggTDQuMDkyMTQyODYsMTIuNzYxOTA0OCBDNC43NjA3MTQyOSwxNC4wMTIwNjM1IDYuMDAxNDI4NTcsMTQuODU3MTQyOSA3LjQyODU3MTQzLDE0Ljg1NzE0MjkgQzguODU1NzE0MjksMTQuODU3MTQyOSAxMC4wOTY0Mjg2LDE0LjAxMjA2MzUgMTAuNzY1LDEyLjc2MTkwNDggTDEyLjU3MTQyODYsMTIuNzYxOTA0OCBMMTIuNTcxNDI4NiwxMS4zNjUwNzk0IEwxMS4yMjc4NTcxLDExLjM2NTA3OTQgQzExLjI2LDExLjEzNDYwMzIgMTEuMjg1NzE0MywxMC45MDQxMjcgMTEuMjg1NzE0MywxMC42NjY2NjY3IEwxMS4yODU3MTQzLDkuOTY4MjUzOTcgTDEyLjU3MTQyODYsOS45NjgyNTM5NyBMMTIuNTcxNDI4Niw4LjU3MTQyODU3IEwxMS4yODU3MTQzLDguNTcxNDI4NTcgTDExLjI4NTcxNDMsNy44NzMwMTU4NyBDMTEuMjg1NzE0Myw3LjYzNTU1NTU2IDExLjI2LDcuNDA1MDc5MzcgMTEuMjI3ODU3MSw3LjE3NDYwMzE3IEwxMi41NzE0Mjg2LDcuMTc0NjAzMTcgTDEyLjU3MTQyODYsNS43Nzc3Nzc3OCBaIE04LjcxNDI4NTcxLDExLjM2NTA3OTQgTDYuMTQyODU3MTQsMTEuMzY1MDc5NCBMNi4xNDI4NTcxNCw5Ljk2ODI1Mzk3IEw4LjcxNDI4NTcxLDkuOTY4MjUzOTcgTDguNzE0Mjg1NzEsMTEuMzY1MDc5NCBaIE04LjcxNDI4NTcxLDguNTcxNDI4NTcgTDYuMTQyODU3MTQsOC41NzE0Mjg1NyBMNi4xNDI4NTcxNCw3LjE3NDYwMzE3IEw4LjcxNDI4NTcxLDcuMTc0NjAzMTcgTDguNzE0Mjg1NzEsOC41NzE0Mjg1NyBaIiBpZD0iU2hhcGUiIGZpbGw9IiNGRkZGRkYiIGZpbGwtcnVsZT0ibm9uemVybyI+PC9wYXRoPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0zIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg5OC42NjY2NjcsIDAuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbC1vcGFjaXR5PSIwLjgiIGZpbGw9IiM0RDkwRkUiIHg9IjAiIHk9IjAiIHdpZHRoPSIzNiIgaGVpZ2h0PSIyNCIgcng9IjIiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImJhc2VsaW5lLWV4cGxpY2l0LTI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIwIDAgMTYgMCAxNiAxNiAwIDE2Ij48L3BvbHlnb24+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTIuNjY2NjY2NywyIEwzLjMzMzMzMzMzLDIgQzIuNiwyIDIsMi42IDIsMy4zMzMzMzMzMyBMMiwxMi42NjY2NjY3IEMyLDEzLjQgMi42LDE0IDMuMzMzMzMzMzMsMTQgTDEyLjY2NjY2NjcsMTQgQzEzLjQsMTQgMTQsMTMuNCAxNCwxMi42NjY2NjY3IEwxNCwzLjMzMzMzMzMzIEMxNCwyLjYgMTMuNCwyIDEyLjY2NjY2NjcsMiBaIE0xMCw2IEw3LjMzMzMzMzMzLDYgTDcuMzMzMzMzMzMsNy4zMzMzMzMzMyBMMTAsNy4zMzMzMzMzMyBMMTAsOC42NjY2NjY2NyBMNy4zMzMzMzMzMyw4LjY2NjY2NjY3IEw3LjMzMzMzMzMzLDEwIEwxMCwxMCBMMTAsMTEuMzMzMzMzMyBMNiwxMS4zMzMzMzMzIEw2LDQuNjY2NjY2NjcgTDEwLDQuNjY2NjY2NjcgTDEwLDYgWiIgaWQ9IlNoYXBlIiBmaWxsPSIjRkZGRkZGIiBmaWxsLXJ1bGU9Im5vbnplcm8iPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDkuMzMzMzMzLCAwLjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTQiIGZpbGwtb3BhY2l0eT0iMC44IiBmaWxsPSIjMDBCRkE1IiB4PSIwIiB5PSIwIiB3aWR0aD0iMzYiIGhlaWdodD0iMjQiIHJ4PSIyIj48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJpY19idWdfcmVwb3J0X2JsYWNrXzI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIwIDAgMTYgMCAxNiAxNiAwIDE2Ij48L3BvbHlnb24+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iYmFzZWxpbmUtZXhwbG9yZS0yNHB4IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxLjAwMDAwMCwgMS4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNywwIEMxMC44NjU5OTMyLC03LjEwMTcxNDM5ZS0xNiAxNCwzLjEzNDAwNjc1IDE0LDcgQzE0LDEwLjg2NTk5MzIgMTAuODY1OTkzMiwxNCA3LDE0IEMzLjEzNDAwNjc1LDE0IDQuNzM0NDc2MjZlLTE2LDEwLjg2NTk5MzIgMCw3IEMtNC43MzQ0NzYyNmUtMTYsMy4xMzQwMDY3NSAzLjEzNDAwNjc1LDcuMTAxNzE0MzllLTE2IDcsMCBaIE03LDYuMzU4MzMzMzMgQzcuMzU1ODMzMzMsNi4zNTgzMzMzMyA3LjY0MTY2NjY3LDYuNjQ0MTY2NjcgNy42NDE2NjY2Nyw3IEM3LjY0MTY2NjY3LDcuMzU1ODMzMzMgNy4zNTU4MzMzMyw3LjY0MTY2NjY3IDcsNy42NDE2NjY2NyBDNi42NDQxNjY2Nyw3LjY0MTY2NjY3IDYuMzU4MzMzMzMsNy4zNTU4MzMzMyA2LjM1ODMzMzMzLDcgQzYuMzU4MzMzMzMsNi42NDQxNjY2NyA2LjY0NDE2NjY3LDYuMzU4MzMzMzMgNyw2LjM1ODMzMzMzIFogTTguMjc3NSw4LjI3NzUgTDEwLjUsMy41IEw1LjcyMjUsNS43MjI1IEwzLjUsMTAuNSBMOC4yNzc1LDguMjc3NSBaIiBpZD0iQ29tYmluZWQtU2hhcGUiIGZpbGw9IiNGRkZGRkYiPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMi4xIDIuMSAxMS45IDIuMSAxMS45IDExLjkgMi4xIDExLjkiPjwvcG9seWdvbj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbD0iI0ZGQjEwMCIgeD0iMCIgeT0iMCIgd2lkdGg9IjM2IiBoZWlnaHQ9IjI0IiByeD0iMiI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iYmFzZWxpbmUtYm9va21hcmstMjRweC0oMSkiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMS4zMzMzMzMzLDIgTDQuNjY2NjY2NjcsMiBDMy45MzMzMzMzMywyIDMuMzQsMi42IDMuMzQsMy4zMzMzMzMzMyBMMy4zMzMzMzMzMywxNCBMOCwxMiBMMTIuNjY2NjY2NywxNCBMMTIuNjY2NjY2NywzLjMzMzMzMzMzIEMxMi42NjY2NjY3LDIuNiAxMi4wNjY2NjY3LDIgMTEuMzMzMzMzMywyIFoiIGlkPSJTaGFwZSIgZmlsbD0iI0ZGRkZGRiIgZmlsbC1ydWxlPSJub256ZXJvIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMCAwIDE2IDAgMTYgMTYgMCAxNiI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgPC9nPg0KICAgICAgICA8L2c+DQogICAgPC9nPg0KPC9zdmc+</t>
-  </si>
-  <si>
-    <t>要求 -&gt; 测试 -&gt; 执行 -&gt; 缺陷</t>
-  </si>
-  <si>
-    <t>从类型字段搜索要求或缺陷，然后选择合适版本以缩小范围，最后单击“生成” 创建可跟踪性报告。</t>
-  </si>
-  <si>
-    <t>/testManager/report/story</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+DQo8c3ZnIHdpZHRoPSIxODRweCIgaGVpZ2h0PSIxMDZweCIgdmlld0JveD0iMCAwIDE4NCAxMDYiIHZlcnNpb249IjEuMSIgeG1sbnM9Imh0dHA6Ly93d3cudzMub3JnLzIwMDAvc3ZnIiB4bWxuczp4bGluaz0iaHR0cDovL3d3dy53My5vcmcvMTk5OS94bGluayI+DQogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA0OSAoNTEwMDIpIC0gaHR0cDovL3d3dy5ib2hlbWlhbmNvZGluZy5jb20vc2tldGNoIC0tPg0KICAgIDx0aXRsZT5Hcm91cCA3PC90aXRsZT4NCiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4NCiAgICA8ZGVmcz48L2RlZnM+DQogICAgPGcgaWQ9IlBhZ2UtMSIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+DQogICAgICAgIDxnIGlkPSLmiqXooajvvIjmgLvop4jvvIkiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC02MjYuMDAwMDAwLCAtMjc2LjAwMDAwMCkiPg0KICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDI3NC4wMDAwMDAsIDEzMi4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgzMDQuMDAwMDAwLCAxMDIuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMzAuMDAwMDAwLCAxOC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC03IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDI0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC04IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMzQuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDE2LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDMyLjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDQ4LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDY0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSI5MCIgeT0iMCIgd2lkdGg9IjQwIiBoZWlnaHQ9IjgiIHJ4PSI0Ij48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTQwIiB5PSIwIiB3aWR0aD0iNDQiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNCI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik00MCwxMiBMNDYsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik04OSwxMiBMOTUsMTIiIGlkPSJMaW5lLTQiIHN0cm9rZS1vcGFjaXR5PSIwLjM2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InJvdW5kIiBzdHJva2UtbGluZWpvaW49InJvdW5kIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMzgsMTIgTDE0NCwxMiIgaWQ9IkxpbmUtNCIgc3Ryb2tlLW9wYWNpdHk9IjAuMzYiIHN0cm9rZT0iIzAwMDAwMCIgc3Ryb2tlLXdpZHRoPSIyIiBzdHJva2UtbGluZWNhcD0icm91bmQiIHN0cm9rZS1saW5lam9pbj0icm91bmQiPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS00IiBmaWxsLW9wYWNpdHk9IjAuOCIgZmlsbD0iI0Y0NDMzNiIgeD0iMCIgeT0iMCIgd2lkdGg9IjM2IiBoZWlnaHQ9IjI0IiByeD0iMiI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iaWNfYnVnX3JlcG9ydF9ibGFja18yNHB4IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMC4wMDAwMDAsIDQuMDAwMDAwKSI+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMCAwIDE2IDAgMTYgMTYgMCAxNiI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEyLjU3MTQyODYsNS43Nzc3Nzc3OCBMMTAuNzY1LDUuNzc3Nzc3NzggQzEwLjQ3NTcxNDMsNS4yMzMwMTU4NyAxMC4wNzcxNDI5LDQuNzY1MDc5MzcgOS41OTUsNC40MDg4ODg4OSBMMTAuNjQyODU3MSwzLjI3MDQ3NjE5IEw5LjczNjQyODU3LDIuMjg1NzE0MjkgTDguMzQxNDI4NTcsMy44MDEyNjk4NCBDOC4wNDU3MTQyOSwzLjcyNDQ0NDQ0IDcuNzQzNTcxNDMsMy42ODI1Mzk2OCA3LjQyODU3MTQzLDMuNjgyNTM5NjggQzcuMTEzNTcxNDMsMy42ODI1Mzk2OCA2LjgxMTQyODU3LDMuNzI0NDQ0NDQgNi41MjIxNDI4NiwzLjgwMTI2OTg0IEw1LjEyMDcxNDI5LDIuMjg1NzE0MjkgTDQuMjE0Mjg1NzEsMy4yNzA0NzYxOSBMNS4yNTU3MTQyOSw0LjQwODg4ODg5IEM0Ljc4LDQuNzY1MDc5MzcgNC4zODE0Mjg1Nyw1LjIzMzAxNTg3IDQuMDkyMTQyODYsNS43Nzc3Nzc3OCBMMi4yODU3MTQyOSw1Ljc3Nzc3Nzc4IEwyLjI4NTcxNDI5LDcuMTc0NjAzMTcgTDMuNjI5Mjg1NzEsNy4xNzQ2MDMxNyBDMy41OTcxNDI4Niw3LjQwNTA3OTM3IDMuNTcxNDI4NTcsNy42MzU1NTU1NiAzLjU3MTQyODU3LDcuODczMDE1ODcgTDMuNTcxNDI4NTcsOC41NzE0Mjg1NyBMMi4yODU3MTQyOSw4LjU3MTQyODU3IEwyLjI4NTcxNDI5LDkuOTY4MjUzOTcgTDMuNTcxNDI4NTcsOS45NjgyNTM5NyBMMy41NzE0Mjg1NywxMC42NjY2NjY3IEMzLjU3MTQyODU3LDEwLjkwNDEyNyAzLjU5NzE0Mjg2LDExLjEzNDYwMzIgMy42MjkyODU3MSwxMS4zNjUwNzk0IEwyLjI4NTcxNDI5LDExLjM2NTA3OTQgTDIuMjg1NzE0MjksMTIuNzYxOTA0OCBMNC4wOTIxNDI4NiwxMi43NjE5MDQ4IEM0Ljc2MDcxNDI5LDE0LjAxMjA2MzUgNi4wMDE0Mjg1NywxNC44NTcxNDI5IDcuNDI4NTcxNDMsMTQuODU3MTQyOSBDOC44NTU3MTQyOSwxNC44NTcxNDI5IDEwLjA5NjQyODYsMTQuMDEyMDYzNSAxMC43NjUsMTIuNzYxOTA0OCBMMTIuNTcxNDI4NiwxMi43NjE5MDQ4IEwxMi41NzE0Mjg2LDExLjM2NTA3OTQgTDExLjIyNzg1NzEsMTEuMzY1MDc5NCBDMTEuMjYsMTEuMTM0NjAzMiAxMS4yODU3MTQzLDEwLjkwNDEyNyAxMS4yODU3MTQzLDEwLjY2NjY2NjcgTDExLjI4NTcxNDMsOS45NjgyNTM5NyBMMTIuNTcxNDI4Niw5Ljk2ODI1Mzk3IEwxMi41NzE0Mjg2LDguNTcxNDI4NTcgTDExLjI4NTcxNDMsOC41NzE0Mjg1NyBMMTEuMjg1NzE0Myw3Ljg3MzAxNTg3IEMxMS4yODU3MTQzLDcuNjM1NTU1NTYgMTEuMjYsNy40MDUwNzkzNyAxMS4yMjc4NTcxLDcuMTc0NjAzMTcgTDEyLjU3MTQyODYsNy4xNzQ2MDMxNyBMMTIuNTcxNDI4Niw1Ljc3Nzc3Nzc4IFogTTguNzE0Mjg1NzEsMTEuMzY1MDc5NCBMNi4xNDI4NTcxNCwxMS4zNjUwNzk0IEw2LjE0Mjg1NzE0LDkuOTY4MjUzOTcgTDguNzE0Mjg1NzEsOS45NjgyNTM5NyBMOC43MTQyODU3MSwxMS4zNjUwNzk0IFogTTguNzE0Mjg1NzEsOC41NzE0Mjg1NyBMNi4xNDI4NTcxNCw4LjU3MTQyODU3IEw2LjE0Mjg1NzE0LDcuMTc0NjAzMTcgTDguNzE0Mjg1NzEsNy4xNzQ2MDMxNyBMOC43MTQyODU3MSw4LjU3MTQyODU3IFoiIGlkPSJTaGFwZSIgZmlsbD0iI0ZGRkZGRiIgZmlsbC1ydWxlPSJub256ZXJvIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS00IiBmaWxsLW9wYWNpdHk9IjAuOCIgZmlsbD0iIzREOTBGRSIgeD0iNDkiIHk9IjAiIHdpZHRoPSIzNiIgaGVpZ2h0PSIyNCIgcng9IjIiPjwvcmVjdD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImJhc2VsaW5lLWV4cGxpY2l0LTI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDU5LjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIwIDAgMTYgMCAxNiAxNiAwIDE2Ij48L3BvbHlnb24+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTIuNjY2NjY2NywyIEwzLjMzMzMzMzMzLDIgQzIuNiwyIDIsMi42IDIsMy4zMzMzMzMzMyBMMiwxMi42NjY2NjY3IEMyLDEzLjQgMi42LDE0IDMuMzMzMzMzMzMsMTQgTDEyLjY2NjY2NjcsMTQgQzEzLjQsMTQgMTQsMTMuNCAxNCwxMi42NjY2NjY3IEwxNCwzLjMzMzMzMzMzIEMxNCwyLjYgMTMuNCwyIDEyLjY2NjY2NjcsMiBaIE0xMCw2IEw3LjMzMzMzMzMzLDYgTDcuMzMzMzMzMzMsNy4zMzMzMzMzMyBMMTAsNy4zMzMzMzMzMyBMMTAsOC42NjY2NjY2NyBMNy4zMzMzMzMzMyw4LjY2NjY2NjY3IEw3LjMzMzMzMzMzLDEwIEwxMCwxMCBMMTAsMTEuMzMzMzMzMyBMNiwxMS4zMzMzMzMzIEw2LDQuNjY2NjY2NjcgTDEwLDQuNjY2NjY2NjcgTDEwLDYgWiIgaWQ9IlNoYXBlIiBmaWxsPSIjRkZGRkZGIiBmaWxsLXJ1bGU9Im5vbnplcm8iPjwvcGF0aD4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTQiIGZpbGwtb3BhY2l0eT0iMC44IiBmaWxsPSIjMDBCRkE1IiB4PSI5OSIgeT0iMCIgd2lkdGg9IjM2IiBoZWlnaHQ9IjI0IiByeD0iMiI+PC9yZWN0Pg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iaWNfYnVnX3JlcG9ydF9ibGFja18yNHB4IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMDkuMDAwMDAwLCA0LjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBvbHlnb24gaWQ9IlNoYXBlIiBwb2ludHM9IjAgMCAxNiAwIDE2IDE2IDAgMTYiPjwvcG9seWdvbj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJiYXNlbGluZS1leHBsb3JlLTI0cHgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEuMDAwMDAwLCAxLjAwMDAwMCkiPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik03LDAgQzEwLjg2NTk5MzIsLTcuMTAxNzE0MzllLTE2IDE0LDMuMTM0MDA2NzUgMTQsNyBDMTQsMTAuODY1OTkzMiAxMC44NjU5OTMyLDE0IDcsMTQgQzMuMTM0MDA2NzUsMTQgNC43MzQ0NzYyNmUtMTYsMTAuODY1OTkzMiAwLDcgQy00LjczNDQ3NjI2ZS0xNiwzLjEzNDAwNjc1IDMuMTM0MDA2NzUsNy4xMDE3MTQzOWUtMTYgNywwIFogTTcsNi4zNTgzMzMzMyBDNy4zNTU4MzMzMyw2LjM1ODMzMzMzIDcuNjQxNjY2NjcsNi42NDQxNjY2NyA3LjY0MTY2NjY3LDcgQzcuNjQxNjY2NjcsNy4zNTU4MzMzMyA3LjM1NTgzMzMzLDcuNjQxNjY2NjcgNyw3LjY0MTY2NjY3IEM2LjY0NDE2NjY3LDcuNjQxNjY2NjcgNi4zNTgzMzMzMyw3LjM1NTgzMzMzIDYuMzU4MzMzMzMsNyBDNi4zNTgzMzMzMyw2LjY0NDE2NjY3IDYuNjQ0MTY2NjcsNi4zNTgzMzMzMyA3LDYuMzU4MzMzMzMgWiBNOC4yNzc1LDguMjc3NSBMMTAuNSwzLjUgTDUuNzIyNSw1LjcyMjUgTDMuNSwxMC41IEw4LjI3NzUsOC4yNzc1IFoiIGlkPSJDb21iaW5lZC1TaGFwZSIgZmlsbD0iI0ZGRkZGRiI+PC9wYXRoPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5Z29uIGlkPSJTaGFwZSIgcG9pbnRzPSIyLjEgMi4xIDExLjkgMi4xIDExLjkgMTEuOSAyLjEgMTEuOSI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtNCIgZmlsbD0iI0ZGQjEwMCIgeD0iMTQ4IiB5PSIwIiB3aWR0aD0iMzYiIGhlaWdodD0iMjQiIHJ4PSIyIj48L3JlY3Q+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJiYXNlbGluZS1ib29rbWFyay0yNHB4LSgxKSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTU4LjAwMDAwMCwgNC4wMDAwMDApIj4NCiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMS4zMzMzMzMzLDIgTDQuNjY2NjY2NjcsMiBDMy45MzMzMzMzMywyIDMuMzQsMi42IDMuMzQsMy4zMzMzMzMzMyBMMy4zMzMzMzMzMywxNCBMOCwxMiBMMTIuNjY2NjY2NywxNCBMMTIuNjY2NjY2NywzLjMzMzMzMzMzIEMxMi42NjY2NjY3LDIuNiAxMi4wNjY2NjY3LDIgMTEuMzMzMzMzMywyIFoiIGlkPSJTaGFwZSIgZmlsbD0iI0ZGRkZGRiIgZmlsbC1ydWxlPSJub256ZXJvIj48L3BhdGg+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iU2hhcGUiIHBvaW50cz0iMCAwIDE2IDAgMTYgMTYgMCAxNiI+PC9wb2x5Z29uPg0KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgICAgICAgICA8L2c+DQogICAgICAgICAgICAgICAgPC9nPg0KICAgICAgICAgICAgPC9nPg0KICAgICAgICA8L2c+DQogICAgPC9nPg0KPC9zdmc+</t>
-  </si>
-  <si>
-    <t>缺陷 -&gt; 执行 -&gt; 测试 -&gt; 要求</t>
-  </si>
-  <si>
-    <t xml:space="preserve">从类型字段搜索要求或缺陷，然后选择合适版本以缩小范围，最后单击“生成” 创建可跟踪性报告。 </t>
-  </si>
-  <si>
-    <t>/testManager/report/test</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTg0cHgiIGhlaWdodD0iMTA2cHgiIHZpZXdCb3g9IjAgMCAxODQgMTA2IiB2ZXJzaW9uPSIxLjEiIHhtbG5zPSJodHRwOi8vd3d3LnczLm9yZy8yMDAwL3N2ZyIgeG1sbnM6eGxpbms9Imh0dHA6Ly93d3cudzMub3JnLzE5OTkveGxpbmsiPgogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA1Mi41ICg2NzQ2OSkgLSBodHRwOi8vd3d3LmJvaGVtaWFuY29kaW5nLmNvbS9za2V0Y2ggLS0+CiAgICA8dGl0bGU+dGVzdC1pbGx1c3RyYXRpb24tMTwvdGl0bGU+CiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4KICAgIDxnIGlkPSLmtYvor5XmlrDpobXpnaIiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSLmiqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC05MzAuMDAwMDAwLCAtMjc2LjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjc0LjAwMDAwMCwgMTMxLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeeHg+WwveWbvi1jb3B5IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCAxMDMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9InRlc3QtaWxsdXN0cmF0aW9uLTEiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDQ4LjAwMDAwMCwgNDIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGwtb3BhY2l0eT0iMC4zIiBmaWxsPSIjMDBDMEE1IiB4PSIwIiB5PSIwIiB3aWR0aD0iOTIiIGhlaWdodD0iMTA2Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGwtb3BhY2l0eT0iMC41IiBmaWxsPSIjRkZGRkZGIiB4PSIyNyIgeT0iNDgiIHdpZHRoPSIzOSIgaGVpZ2h0PSIxMCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktMiIgZmlsbC1vcGFjaXR5PSIwLjEiIGZpbGw9IiM0QTRBNEEiIHg9IjkyIiB5PSIwIiB3aWR0aD0iOTIiIGhlaWdodD0iNDAiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5IiBmaWxsLW9wYWNpdHk9IjAuNSIgZmlsbD0iI0ZGRkZGRiIgeD0iMTE5IiB5PSIxNSIgd2lkdGg9IjM5IiBoZWlnaHQ9IjEwIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaItY29weS0zIiBmaWxsLW9wYWNpdHk9IjAuMiIgZmlsbD0iI0Y3NDEyRCIgeD0iOTIiIHk9IjQwIiB3aWR0aD0iNDYiIGhlaWdodD0iNjYiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5IiBmaWxsLW9wYWNpdHk9IjAuNSIgZmlsbD0iI0ZGRkZGRiIgeD0iMTAxIiB5PSI2OSIgd2lkdGg9IjI4IiBoZWlnaHQ9IjgiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5LTQiIGZpbGwtb3BhY2l0eT0iMC4yIiBmaWxsPSIjRkZCMjAwIiB4PSIxMzgiIHk9IjQwIiB3aWR0aD0iNDYiIGhlaWdodD0iMzMiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oi1jb3B5LTYiIGZpbGwtb3BhY2l0eT0iMC41IiBmaWxsPSIjRkZGRkZGIiB4PSIxNDciIHk9IjUzIiB3aWR0aD0iMjgiIGhlaWdodD0iOCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktNSIgZmlsbC1vcGFjaXR5PSIwLjIiIGZpbGw9IiM0OThERkYiIHg9IjEzOCIgeT0iNzMiIHdpZHRoPSI0NiIgaGVpZ2h0PSIzMyI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iLWNvcHktNiIgZmlsbC1vcGFjaXR5PSIwLjUiIGZpbGw9IiNGRkZGRkYiIHg9IjE0NyIgeT0iODYiIHdpZHRoPSIyOCIgaGVpZ2h0PSI4Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
-  </si>
-  <si>
-    <t>执行进度</t>
-  </si>
-  <si>
-    <t>统计测试用例执行情况，可以筛选得到各个迭代的不同测试循环中的用例执行状态记录。</t>
-  </si>
-  <si>
-    <t>/testManager/report/progress</t>
-  </si>
-  <si>
-    <t>IAM_DASHBOARD</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>TITLE</t>
-  </si>
-  <si>
-    <t>NAMESPACE</t>
-  </si>
-  <si>
-    <t>FD_LEVEL</t>
-  </si>
-  <si>
-    <t>NEED_ROLES</t>
-  </si>
-  <si>
-    <t>IS_ENABLED</t>
-  </si>
-  <si>
-    <t>@POSITION</t>
-  </si>
-  <si>
-    <t>测试管理</t>
-  </si>
-  <si>
-    <t>TestSurvey</t>
-  </si>
-  <si>
-    <t>测试进度</t>
-  </si>
-  <si>
-    <t>test_progress</t>
-  </si>
-  <si>
-    <t>TestProgress</t>
-  </si>
-  <si>
-    <t>execution_schedule</t>
-  </si>
-  <si>
-    <t>IssueAndExecute</t>
-  </si>
-  <si>
-    <t>测试记录</t>
-  </si>
-  <si>
-    <t>test_record</t>
-  </si>
-  <si>
-    <t>{"width": 4, "positionX": 4, "positionY": 2, "height": 4}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.listCaseByFolderId</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-file-load-history.queryLatestLoadHistory</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.downloadImportTemplate</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-file-load-history.cancelUpLoad</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.importIssues</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-file-load-history.queryIssues</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.downLoadByFolder</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.downExcelFail</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder.create</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder.moveFolder</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder.update</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder.delete</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.createTestCase</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-attachment.uploadFile</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-link.queryLinkIssues</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.queryCaseInfo</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-step.query</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-data-log.queryByCaseId</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.updateCase</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-attachment.uploadAttachment</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.batchCloneCase</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.batchMoveCase</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.deleteCase</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-step.changeOneStep</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-step.clone</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-step.removeStep</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-status.query</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.queryTree</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.queryInfo</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.create</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.query</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.deletePlan</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.clonePlan</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.updateStatus</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.allPlan</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.formStatus</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.update</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.insert</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.update</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.batchChangeAssignedInOneCycle</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.queryLatestLoadHistory</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.importCase</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.moveFolder</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.delete</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.listCaseByCycleId</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.ignoreUpdate</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.updateCompare</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.selectUpdateCompare</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.queryExecutionStatus</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-history.query</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.queryCaseInfo</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-step.querySubStep</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.updateCaseAndStep</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-attachment.removeAttachment</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.queryCaseAndStep</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-step.update</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-defect-rel.removeAttachment</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-defect-rel.insert</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-defect-rel.createIssueAndLinkDefect</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-automation-history.queryWithInstance</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-app-instance.queryValues</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-app-instance.deploy</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-automation-history.queryLog</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-status.insert</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-status.delete</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-status.update</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -638,6 +635,7 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -649,7 +647,7 @@
       <sz val="10"/>
       <color theme="9"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
@@ -682,352 +680,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1035,253 +702,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1294,63 +719,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1635,37 +1016,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O12"/>
   <sheetViews>
     <sheetView topLeftCell="F4" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5714285714286" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="44.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="36.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="44.5546875" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.1428571428571" customWidth="1"/>
-    <col min="13" max="13" width="18.5714285714286" customWidth="1"/>
-    <col min="14" max="14" width="19.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.5714285714286" customWidth="1"/>
+    <col min="16" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:14">
+    <row r="8" spans="4:15">
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -1732,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -1761,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:15">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
         <v>21</v>
       </c>
@@ -1793,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:15">
       <c r="F11" t="s">
         <v>24</v>
       </c>
@@ -1822,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:15">
       <c r="F12" t="s">
         <v>27</v>
       </c>
@@ -1852,8 +1233,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -1862,32 +1244,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P13"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="15.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="11.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="66.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="16.8571428571429" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="66.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="48.5714285714286" customWidth="1"/>
-    <col min="10" max="10" width="18.5714285714286" customWidth="1"/>
-    <col min="11" max="11" width="44.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="19.1428571428571" customWidth="1"/>
-    <col min="13" max="13" width="11.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="48.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="11" max="11" width="44.109375" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="1025" width="11.5714285714286" customWidth="1"/>
+    <col min="15" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:16">
+    <row r="7" spans="4:16" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
@@ -1928,7 +1309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:15">
+    <row r="8" spans="4:16" ht="13.8">
       <c r="F8" s="5" t="s">
         <v>39</v>
       </c>
@@ -1957,7 +1338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="6:15">
+    <row r="9" spans="4:16" ht="13.8">
       <c r="F9" t="s">
         <v>46</v>
       </c>
@@ -1989,7 +1370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="6:15">
+    <row r="10" spans="4:16" ht="13.8">
       <c r="F10" t="s">
         <v>51</v>
       </c>
@@ -2021,7 +1402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="6:16">
+    <row r="11" spans="4:16" ht="13.8">
       <c r="F11" t="s">
         <v>55</v>
       </c>
@@ -2056,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="6:15">
+    <row r="12" spans="4:16" ht="13.8">
       <c r="F12" t="s">
         <v>59</v>
       </c>
@@ -2088,7 +1469,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="6:15">
+    <row r="13" spans="4:16">
       <c r="F13" t="s">
         <v>63</v>
       </c>
@@ -2121,8 +1502,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -2131,24 +1513,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="22.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="26.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="41.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="26.1428571428571" customWidth="1"/>
-    <col min="9" max="9" width="10.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" ht="13.8">
       <c r="D7" s="5" t="s">
         <v>66</v>
       </c>
@@ -2168,7 +1549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:8">
+    <row r="8" spans="4:9" ht="13.8">
       <c r="F8" t="s">
         <v>70</v>
       </c>
@@ -2179,7 +1560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="6:8">
+    <row r="9" spans="4:9" ht="13.8">
       <c r="F9" t="s">
         <v>70</v>
       </c>
@@ -2190,7 +1571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="6:8">
+    <row r="10" spans="4:9" ht="13.8">
       <c r="F10" t="s">
         <v>70</v>
       </c>
@@ -2201,7 +1582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="6:8">
+    <row r="11" spans="4:9" ht="13.8">
       <c r="F11" t="s">
         <v>70</v>
       </c>
@@ -2212,7 +1593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="6:8">
+    <row r="12" spans="4:9" ht="13.8">
       <c r="F12" t="s">
         <v>71</v>
       </c>
@@ -2223,7 +1604,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="6:8">
+    <row r="13" spans="4:9" ht="13.8">
       <c r="F13" t="s">
         <v>71</v>
       </c>
@@ -2234,7 +1615,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="6:9">
+    <row r="14" spans="4:9" ht="13.8">
       <c r="F14" t="s">
         <v>71</v>
       </c>
@@ -2248,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="6:8">
+    <row r="15" spans="4:9" ht="13.8">
       <c r="F15" t="s">
         <v>71</v>
       </c>
@@ -2259,7 +1640,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="6:8">
+    <row r="16" spans="4:9" ht="13.8">
       <c r="F16" t="s">
         <v>71</v>
       </c>
@@ -2270,7 +1651,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="6:8">
+    <row r="17" spans="6:8" ht="13.8">
       <c r="F17" t="s">
         <v>73</v>
       </c>
@@ -2281,7 +1662,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="6:8">
+    <row r="18" spans="6:8" ht="13.8">
       <c r="F18" t="s">
         <v>73</v>
       </c>
@@ -2292,7 +1673,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="6:8">
+    <row r="19" spans="6:8" ht="13.8">
       <c r="F19" t="s">
         <v>73</v>
       </c>
@@ -2303,7 +1684,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="6:8">
+    <row r="20" spans="6:8" ht="13.8">
       <c r="F20" t="s">
         <v>73</v>
       </c>
@@ -2314,7 +1695,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="6:8">
+    <row r="21" spans="6:8" ht="13.8">
       <c r="F21" t="s">
         <v>73</v>
       </c>
@@ -2325,7 +1706,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="6:8">
+    <row r="22" spans="6:8" ht="13.8">
       <c r="F22" t="s">
         <v>74</v>
       </c>
@@ -2336,7 +1717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="6:8">
+    <row r="23" spans="6:8" ht="13.8">
       <c r="F23" t="s">
         <v>74</v>
       </c>
@@ -2347,7 +1728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="6:8">
+    <row r="24" spans="6:8" ht="13.8">
       <c r="F24" t="s">
         <v>74</v>
       </c>
@@ -2358,7 +1739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="6:8">
+    <row r="25" spans="6:8" ht="13.8">
       <c r="F25" t="s">
         <v>74</v>
       </c>
@@ -2369,7 +1750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="6:8">
+    <row r="26" spans="6:8" ht="13.8">
       <c r="F26" t="s">
         <v>74</v>
       </c>
@@ -2381,30 +1762,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="29.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="44.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="44.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="14.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="44.44140625" customWidth="1"/>
+    <col min="7" max="7" width="44.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8">
+    <row r="7" spans="4:8" ht="13.8">
       <c r="D7" s="5" t="s">
         <v>75</v>
       </c>
@@ -2421,7 +1801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:7">
+    <row r="8" spans="4:8">
       <c r="F8" t="s">
         <v>78</v>
       </c>
@@ -2429,7 +1809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
+    <row r="9" spans="4:8">
       <c r="F9" t="s">
         <v>78</v>
       </c>
@@ -2437,7 +1817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="6:8">
+    <row r="10" spans="4:8">
       <c r="F10" t="s">
         <v>78</v>
       </c>
@@ -2448,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="6:7">
+    <row r="11" spans="4:8">
       <c r="F11" t="s">
         <v>78</v>
       </c>
@@ -2456,7 +1836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="6:7">
+    <row r="12" spans="4:8">
       <c r="F12" t="s">
         <v>78</v>
       </c>
@@ -2464,7 +1844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="6:7">
+    <row r="13" spans="4:8">
       <c r="F13" t="s">
         <v>79</v>
       </c>
@@ -2472,7 +1852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="6:7">
+    <row r="14" spans="4:8">
       <c r="F14" t="s">
         <v>79</v>
       </c>
@@ -2480,7 +1860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="6:7">
+    <row r="15" spans="4:8">
       <c r="F15" t="s">
         <v>79</v>
       </c>
@@ -2488,7 +1868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="6:7">
+    <row r="16" spans="4:8">
       <c r="F16" t="s">
         <v>79</v>
       </c>
@@ -2497,31 +1877,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="23.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="11.5714285714286" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="7" width="59.1428571428571" customWidth="1"/>
-    <col min="8" max="1025" width="11.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="59.109375" customWidth="1"/>
+    <col min="8" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:8">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>80</v>
       </c>
@@ -2538,7 +1917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="4:7">
+    <row r="8" spans="4:8" ht="12.75" customHeight="1">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
@@ -2548,307 +1927,307 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="4:7">
+    <row r="9" spans="4:8" ht="12.75" customHeight="1">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="4:7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" ht="12.75" customHeight="1">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="4:7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="12.75" customHeight="1">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="4:7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="12.75" customHeight="1">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="4:7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" ht="12.75" customHeight="1">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="4:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" ht="12.75" customHeight="1">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="4:7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" ht="12.75" customHeight="1">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="4:7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" ht="12.75" customHeight="1">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="4:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" ht="12.75" customHeight="1">
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="4:7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" ht="12.75" customHeight="1">
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="4:7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" ht="12.75" customHeight="1">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="4:7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" ht="12.75" customHeight="1">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="4:7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" ht="12.75" customHeight="1">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="4:7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" ht="12.75" customHeight="1">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="4:7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" ht="12.75" customHeight="1">
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="4:7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" ht="12.75" customHeight="1">
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="4:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" ht="12.75" customHeight="1">
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="4:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" ht="12.75" customHeight="1">
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="4:7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" ht="12.75" customHeight="1">
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="4:7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" ht="12.75" customHeight="1">
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="4:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" ht="12.75" customHeight="1">
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="4:7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" ht="12.75" customHeight="1">
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="4:7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" ht="12.75" customHeight="1">
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="4:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" ht="12.75" customHeight="1">
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="4:7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" ht="12.75" customHeight="1">
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="4:7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" ht="12.75" customHeight="1">
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="4:7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" ht="12.75" customHeight="1">
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="4:7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" ht="12.75" customHeight="1">
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="4:7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" ht="12.75" customHeight="1">
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="4:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" ht="12.75" customHeight="1">
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="4:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" ht="12.75" customHeight="1">
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
@@ -2858,250 +2237,250 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="4:7">
+    <row r="40" spans="4:7" ht="12.75" customHeight="1">
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="4:7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" ht="12.75" customHeight="1">
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="4:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" ht="12.75" customHeight="1">
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="4:7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" ht="12.75" customHeight="1">
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="4:7">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" ht="12.75" customHeight="1">
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="4:7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" ht="12.75" customHeight="1">
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="4:7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" ht="12.75" customHeight="1">
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="4:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" ht="12.75" customHeight="1">
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="4:7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" ht="12.75" customHeight="1">
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="4:7">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" ht="12.75" customHeight="1">
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="4:7">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" ht="12.75" customHeight="1">
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="4:7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" ht="12.75" customHeight="1">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="4:7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" ht="12.75" customHeight="1">
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="4:7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" ht="12.75" customHeight="1">
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="4:7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" ht="12.75" customHeight="1">
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="4:7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" ht="12.75" customHeight="1">
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="4:7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" ht="12.75" customHeight="1">
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="4:7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" ht="12.75" customHeight="1">
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="4:7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" ht="12.75" customHeight="1">
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="4:7">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" ht="12.75" customHeight="1">
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="4:7">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" ht="12.75" customHeight="1">
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="4:7">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" ht="12.75" customHeight="1">
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="4:7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7" ht="12.75" customHeight="1">
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="6:7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7">
       <c r="F63" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="6:7">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7">
       <c r="F64" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="6:7">
@@ -3109,7 +2488,7 @@
         <v>51</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="6:7">
@@ -3117,7 +2496,7 @@
         <v>51</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="6:7">
@@ -3125,7 +2504,7 @@
         <v>51</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="6:7">
@@ -3133,7 +2512,7 @@
         <v>51</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="6:7">
@@ -3141,7 +2520,7 @@
         <v>51</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="6:7">
@@ -3149,7 +2528,7 @@
         <v>51</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="6:7">
@@ -3157,7 +2536,7 @@
         <v>51</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="6:7">
@@ -3165,7 +2544,7 @@
         <v>51</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="6:7">
@@ -3173,7 +2552,7 @@
         <v>51</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="6:7">
@@ -3181,7 +2560,7 @@
         <v>51</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="6:7">
@@ -3189,7 +2568,7 @@
         <v>51</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="6:7">
@@ -3197,7 +2576,7 @@
         <v>51</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="6:7">
@@ -3205,7 +2584,7 @@
         <v>51</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="6:7">
@@ -3213,7 +2592,7 @@
         <v>51</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="6:7">
@@ -3221,7 +2600,7 @@
         <v>51</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="6:7">
@@ -3229,7 +2608,7 @@
         <v>51</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="6:7">
@@ -3237,7 +2616,7 @@
         <v>51</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="6:7">
@@ -3245,7 +2624,7 @@
         <v>51</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="6:7">
@@ -3253,7 +2632,7 @@
         <v>51</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="6:7">
@@ -3261,7 +2640,7 @@
         <v>51</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="6:7">
@@ -3269,7 +2648,7 @@
         <v>51</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="6:7">
@@ -3277,7 +2656,7 @@
         <v>51</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="6:7">
@@ -3285,7 +2664,7 @@
         <v>51</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="6:7">
@@ -3293,7 +2672,7 @@
         <v>51</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="6:7">
@@ -3301,7 +2680,7 @@
         <v>51</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="6:7">
@@ -3309,7 +2688,7 @@
         <v>59</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="6:7">
@@ -3317,7 +2696,7 @@
         <v>59</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="6:7">
@@ -3325,7 +2704,7 @@
         <v>59</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="6:7">
@@ -3333,7 +2712,7 @@
         <v>59</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="6:7">
@@ -3341,7 +2720,7 @@
         <v>59</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="6:7">
@@ -3349,7 +2728,7 @@
         <v>59</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="6:7">
@@ -3365,7 +2744,7 @@
         <v>63</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="6:7">
@@ -3373,7 +2752,7 @@
         <v>63</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="6:7">
@@ -3381,7 +2760,7 @@
         <v>63</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="6:7">
@@ -3389,7 +2768,7 @@
         <v>63</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="6:7">
@@ -3401,8 +2780,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -3411,147 +2791,145 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:K10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="16.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="17.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="24.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="23.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="20.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:11">
+    <row r="7" spans="4:11" ht="13.8">
       <c r="D7" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="6:11">
+    <row r="8" spans="4:11">
       <c r="F8" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="H8" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="I8" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="K8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="6:11">
+    <row r="9" spans="4:11">
       <c r="F9" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="K9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="6:11">
+    <row r="10" spans="4:11">
       <c r="F10" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="H10" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="I10" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="K10">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="8" width="23.8571428571429" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="23.88671875" style="1" customWidth="1"/>
     <col min="9" max="10" width="24" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="28" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.5714285714286" style="1" customWidth="1"/>
-    <col min="14" max="15" width="11.5714285714286" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5714285714286" style="1" customWidth="1"/>
-    <col min="18" max="18" width="46.4285714285714" style="1" customWidth="1"/>
-    <col min="19" max="1025" width="11.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5546875" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="46.44140625" style="1" customWidth="1"/>
+    <col min="19" max="1025" width="11.5546875" style="1" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="1" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -3560,7 +2938,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>31</v>
@@ -3569,13 +2947,13 @@
         <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>6</v>
@@ -3587,16 +2965,16 @@
         <v>38</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="5:17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18">
       <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
@@ -3604,16 +2982,16 @@
         <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>14</v>
@@ -3622,7 +3000,7 @@
         <v>15</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>45</v>
@@ -3637,24 +3015,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:17">
+    <row r="9" spans="4:18">
       <c r="E9" s="1" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>14</v>
@@ -3663,10 +3041,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="O9" s="1">
         <v>2</v>
@@ -3678,24 +3056,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="5:17">
+    <row r="10" spans="4:18">
       <c r="E10" s="1" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>14</v>
@@ -3704,10 +3082,10 @@
         <v>15</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="O10" s="1">
         <v>3</v>
@@ -3719,24 +3097,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="5:18">
+    <row r="11" spans="4:18">
       <c r="E11" s="1" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>14</v>
@@ -3745,10 +3123,10 @@
         <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="O11" s="1">
         <v>4</v>
@@ -3760,12 +3138,12 @@
         <v>1</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\test-manager-service\src\main\resources\script\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\HAND\test-manager-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F7C235-2A3E-475B-9504-B8FDE0F6F23E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7860" tabRatio="500" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="199">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -620,12 +621,15 @@
   </si>
   <si>
     <t>test-manager-service.test-status.update</t>
+  </si>
+  <si>
+    <t>REQUIRED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="10"/>
@@ -1021,7 +1025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O12"/>
   <sheetViews>
     <sheetView topLeftCell="F4" workbookViewId="0">
@@ -1030,20 +1034,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="44.5546875" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="16" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:15" ht="12.75" customHeight="1">
@@ -1244,7 +1248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:P13"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
@@ -1253,19 +1257,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="66.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="66.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="48.5546875" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" customWidth="1"/>
-    <col min="11" max="11" width="44.109375" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="48.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="44.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="15" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:16" ht="12.75" customHeight="1">
@@ -1309,7 +1313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:16" ht="13.8">
+    <row r="8" spans="4:16">
       <c r="F8" s="5" t="s">
         <v>39</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="4:16" ht="13.8">
+    <row r="9" spans="4:16">
       <c r="F9" t="s">
         <v>46</v>
       </c>
@@ -1370,7 +1374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:16" ht="13.8">
+    <row r="10" spans="4:16">
       <c r="F10" t="s">
         <v>51</v>
       </c>
@@ -1402,7 +1406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="4:16" ht="13.8">
+    <row r="11" spans="4:16">
       <c r="F11" t="s">
         <v>55</v>
       </c>
@@ -1437,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:16" ht="13.8">
+    <row r="12" spans="4:16">
       <c r="F12" t="s">
         <v>59</v>
       </c>
@@ -1513,23 +1517,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
-    <col min="8" max="8" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="41.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="13.8">
+    <row r="7" spans="4:9">
       <c r="D7" s="5" t="s">
         <v>66</v>
       </c>
@@ -1549,7 +1553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:9" ht="13.8">
+    <row r="8" spans="4:9">
       <c r="F8" t="s">
         <v>70</v>
       </c>
@@ -1560,7 +1564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="13.8">
+    <row r="9" spans="4:9">
       <c r="F9" t="s">
         <v>70</v>
       </c>
@@ -1571,7 +1575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="13.8">
+    <row r="10" spans="4:9">
       <c r="F10" t="s">
         <v>70</v>
       </c>
@@ -1582,7 +1586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="4:9" ht="13.8">
+    <row r="11" spans="4:9">
       <c r="F11" t="s">
         <v>70</v>
       </c>
@@ -1593,7 +1597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:9" ht="13.8">
+    <row r="12" spans="4:9">
       <c r="F12" t="s">
         <v>71</v>
       </c>
@@ -1604,7 +1608,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="4:9" ht="13.8">
+    <row r="13" spans="4:9">
       <c r="F13" t="s">
         <v>71</v>
       </c>
@@ -1615,7 +1619,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="4:9" ht="13.8">
+    <row r="14" spans="4:9">
       <c r="F14" t="s">
         <v>71</v>
       </c>
@@ -1629,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:9" ht="13.8">
+    <row r="15" spans="4:9">
       <c r="F15" t="s">
         <v>71</v>
       </c>
@@ -1640,7 +1644,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="4:9" ht="13.8">
+    <row r="16" spans="4:9">
       <c r="F16" t="s">
         <v>71</v>
       </c>
@@ -1651,7 +1655,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="6:8" ht="13.8">
+    <row r="17" spans="6:8">
       <c r="F17" t="s">
         <v>73</v>
       </c>
@@ -1662,7 +1666,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="6:8" ht="13.8">
+    <row r="18" spans="6:8">
       <c r="F18" t="s">
         <v>73</v>
       </c>
@@ -1673,7 +1677,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="6:8" ht="13.8">
+    <row r="19" spans="6:8">
       <c r="F19" t="s">
         <v>73</v>
       </c>
@@ -1684,7 +1688,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="6:8" ht="13.8">
+    <row r="20" spans="6:8">
       <c r="F20" t="s">
         <v>73</v>
       </c>
@@ -1695,7 +1699,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="6:8" ht="13.8">
+    <row r="21" spans="6:8">
       <c r="F21" t="s">
         <v>73</v>
       </c>
@@ -1706,7 +1710,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="6:8" ht="13.8">
+    <row r="22" spans="6:8">
       <c r="F22" t="s">
         <v>74</v>
       </c>
@@ -1717,7 +1721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="6:8" ht="13.8">
+    <row r="23" spans="6:8">
       <c r="F23" t="s">
         <v>74</v>
       </c>
@@ -1728,7 +1732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="6:8" ht="13.8">
+    <row r="24" spans="6:8">
       <c r="F24" t="s">
         <v>74</v>
       </c>
@@ -1739,7 +1743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="6:8" ht="13.8">
+    <row r="25" spans="6:8">
       <c r="F25" t="s">
         <v>74</v>
       </c>
@@ -1750,7 +1754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="6:8" ht="13.8">
+    <row r="26" spans="6:8">
       <c r="F26" t="s">
         <v>74</v>
       </c>
@@ -1768,23 +1772,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="44.44140625" customWidth="1"/>
-    <col min="7" max="7" width="44.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="13.8">
+    <row r="7" spans="4:8">
       <c r="D7" s="5" t="s">
         <v>75</v>
       </c>
@@ -1883,24 +1887,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="D7:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="7" width="59.109375" customWidth="1"/>
-    <col min="8" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="59.140625" customWidth="1"/>
+    <col min="8" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1">
+    <row r="7" spans="4:9" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>80</v>
       </c>
@@ -1916,8 +1920,11 @@
       <c r="H7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="4:8" ht="12.75" customHeight="1">
+      <c r="I7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" ht="12.75" customHeight="1">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
@@ -1926,8 +1933,11 @@
       <c r="G8" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="4:8" ht="12.75" customHeight="1">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" ht="12.75" customHeight="1">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
@@ -1936,8 +1946,11 @@
       <c r="G9" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="4:8" ht="12.75" customHeight="1">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" ht="12.75" customHeight="1">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
@@ -1946,8 +1959,11 @@
       <c r="G10" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="4:8" ht="12.75" customHeight="1">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" ht="12.75" customHeight="1">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
@@ -1956,8 +1972,11 @@
       <c r="G11" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="4:8" ht="12.75" customHeight="1">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" ht="12.75" customHeight="1">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
@@ -1966,8 +1985,11 @@
       <c r="G12" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="13" spans="4:8" ht="12.75" customHeight="1">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" ht="12.75" customHeight="1">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
@@ -1976,8 +1998,11 @@
       <c r="G13" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="14" spans="4:8" ht="12.75" customHeight="1">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" ht="12.75" customHeight="1">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
@@ -1986,8 +2011,11 @@
       <c r="G14" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="4:8" ht="12.75" customHeight="1">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" ht="12.75" customHeight="1">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
@@ -1996,8 +2024,11 @@
       <c r="G15" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="16" spans="4:8" ht="12.75" customHeight="1">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" ht="12.75" customHeight="1">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
@@ -2006,8 +2037,11 @@
       <c r="G16" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="17" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="12.75" customHeight="1">
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
@@ -2016,8 +2050,11 @@
       <c r="G17" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="18" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="12.75" customHeight="1">
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
@@ -2026,8 +2063,11 @@
       <c r="G18" s="7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="19" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" ht="12.75" customHeight="1">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
@@ -2036,8 +2076,11 @@
       <c r="G19" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="20" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" ht="12.75" customHeight="1">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
@@ -2046,8 +2089,11 @@
       <c r="G20" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="21" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" ht="12.75" customHeight="1">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
@@ -2056,8 +2102,11 @@
       <c r="G21" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="22" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" ht="12.75" customHeight="1">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
@@ -2066,8 +2115,11 @@
       <c r="G22" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="23" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" ht="12.75" customHeight="1">
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
@@ -2076,8 +2128,11 @@
       <c r="G23" s="7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="24" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" ht="12.75" customHeight="1">
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
@@ -2086,8 +2141,11 @@
       <c r="G24" s="7" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="25" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" ht="12.75" customHeight="1">
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
@@ -2096,8 +2154,11 @@
       <c r="G25" s="7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="26" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" ht="12.75" customHeight="1">
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
@@ -2106,8 +2167,11 @@
       <c r="G26" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" ht="12.75" customHeight="1">
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
@@ -2116,8 +2180,11 @@
       <c r="G27" s="7" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="28" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" ht="12.75" customHeight="1">
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
@@ -2126,8 +2193,11 @@
       <c r="G28" s="7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="29" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" ht="12.75" customHeight="1">
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
@@ -2136,8 +2206,11 @@
       <c r="G29" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="30" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" ht="12.75" customHeight="1">
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
@@ -2146,8 +2219,11 @@
       <c r="G30" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="31" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" ht="12.75" customHeight="1">
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
@@ -2156,8 +2232,11 @@
       <c r="G31" s="7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="32" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" ht="12.75" customHeight="1">
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
@@ -2166,8 +2245,11 @@
       <c r="G32" s="7" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="33" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" ht="12.75" customHeight="1">
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
@@ -2176,8 +2258,11 @@
       <c r="G33" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="34" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" ht="12.75" customHeight="1">
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
@@ -2186,8 +2271,11 @@
       <c r="G34" s="7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="35" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" ht="12.75" customHeight="1">
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
@@ -2196,8 +2284,11 @@
       <c r="G35" s="7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="36" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" ht="12.75" customHeight="1">
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
@@ -2206,8 +2297,11 @@
       <c r="G36" s="7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="37" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" ht="12.75" customHeight="1">
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
@@ -2216,8 +2310,11 @@
       <c r="G37" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="38" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" ht="12.75" customHeight="1">
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
@@ -2226,8 +2323,11 @@
       <c r="G38" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="39" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" ht="12.75" customHeight="1">
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
@@ -2236,8 +2336,11 @@
       <c r="G39" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" ht="12.75" customHeight="1">
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="8" t="s">
@@ -2246,8 +2349,11 @@
       <c r="G40" s="8" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="41" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" ht="12.75" customHeight="1">
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="8" t="s">
@@ -2256,8 +2362,11 @@
       <c r="G41" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="42" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" ht="12.75" customHeight="1">
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="8" t="s">
@@ -2266,8 +2375,11 @@
       <c r="G42" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="43" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" ht="12.75" customHeight="1">
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="8" t="s">
@@ -2276,8 +2388,11 @@
       <c r="G43" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="44" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" ht="12.75" customHeight="1">
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="8" t="s">
@@ -2286,8 +2401,11 @@
       <c r="G44" s="8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="45" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" ht="12.75" customHeight="1">
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="8" t="s">
@@ -2296,8 +2414,11 @@
       <c r="G45" s="8" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="46" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" ht="12.75" customHeight="1">
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="8" t="s">
@@ -2306,8 +2427,11 @@
       <c r="G46" s="8" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="47" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" ht="12.75" customHeight="1">
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="8" t="s">
@@ -2316,8 +2440,11 @@
       <c r="G47" s="8" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="48" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" ht="12.75" customHeight="1">
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="8" t="s">
@@ -2326,8 +2453,11 @@
       <c r="G48" s="8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="49" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" ht="12.75" customHeight="1">
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="8" t="s">
@@ -2336,8 +2466,11 @@
       <c r="G49" s="8" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="50" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" ht="12.75" customHeight="1">
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="8" t="s">
@@ -2346,8 +2479,11 @@
       <c r="G50" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="51" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" ht="12.75" customHeight="1">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="8" t="s">
@@ -2356,8 +2492,11 @@
       <c r="G51" s="8" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="52" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" ht="12.75" customHeight="1">
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="8" t="s">
@@ -2366,8 +2505,11 @@
       <c r="G52" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="53" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" ht="12.75" customHeight="1">
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="8" t="s">
@@ -2376,8 +2518,11 @@
       <c r="G53" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="54" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" ht="12.75" customHeight="1">
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="8" t="s">
@@ -2386,8 +2531,11 @@
       <c r="G54" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="55" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" ht="12.75" customHeight="1">
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="8" t="s">
@@ -2396,8 +2544,11 @@
       <c r="G55" s="8" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="56" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="4:9" ht="12.75" customHeight="1">
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="8" t="s">
@@ -2406,8 +2557,11 @@
       <c r="G56" s="8" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="57" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9" ht="12.75" customHeight="1">
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="8" t="s">
@@ -2416,8 +2570,11 @@
       <c r="G57" s="8" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="58" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="4:9" ht="12.75" customHeight="1">
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="8" t="s">
@@ -2426,8 +2583,11 @@
       <c r="G58" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="59" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="4:9" ht="12.75" customHeight="1">
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="8" t="s">
@@ -2436,8 +2596,11 @@
       <c r="G59" s="8" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="60" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="4:9" ht="12.75" customHeight="1">
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="8" t="s">
@@ -2446,8 +2609,11 @@
       <c r="G60" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="61" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="4:9" ht="12.75" customHeight="1">
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="8" t="s">
@@ -2456,8 +2622,11 @@
       <c r="G61" s="8" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="62" spans="4:7" ht="12.75" customHeight="1">
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="4:9" ht="12.75" customHeight="1">
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="8" t="s">
@@ -2466,317 +2635,442 @@
       <c r="G62" s="8" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="63" spans="4:7">
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="4:9">
       <c r="F63" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="64" spans="4:7">
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="4:9">
       <c r="F64" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="65" spans="6:7">
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="6:9">
       <c r="F65" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="66" spans="6:7">
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="6:9">
       <c r="F66" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="67" spans="6:7">
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="6:9">
       <c r="F67" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G67" s="12" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="68" spans="6:7">
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="6:9">
       <c r="F68" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="69" spans="6:7">
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="6:9">
       <c r="F69" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="70" spans="6:7">
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="6:9">
       <c r="F70" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="71" spans="6:7">
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="6:9">
       <c r="F71" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="72" spans="6:7">
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="6:9">
       <c r="F72" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G72" s="9" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="73" spans="6:7">
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="6:9">
       <c r="F73" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G73" s="9" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="74" spans="6:7">
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="6:9">
       <c r="F74" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="75" spans="6:7">
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="6:9">
       <c r="F75" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="76" spans="6:7">
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="6:9">
       <c r="F76" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="77" spans="6:7">
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="6:9">
       <c r="F77" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="78" spans="6:7">
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="6:9">
       <c r="F78" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="79" spans="6:7">
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="6:9">
       <c r="F79" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G79" s="9" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="80" spans="6:7">
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="6:9">
       <c r="F80" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G80" s="9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="81" spans="6:7">
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="6:9">
       <c r="F81" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G81" s="9" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="82" spans="6:7">
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="6:9">
       <c r="F82" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="6:7">
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="6:9">
       <c r="F83" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G83" s="9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="84" spans="6:7">
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="6:9">
       <c r="F84" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G84" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="85" spans="6:7">
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="6:9">
       <c r="F85" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="86" spans="6:7">
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="6:9">
       <c r="F86" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="87" spans="6:7">
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="6:9">
       <c r="F87" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="88" spans="6:7">
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="6:9">
       <c r="F88" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G88" s="9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="89" spans="6:7">
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="6:9">
       <c r="F89" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G89" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="90" spans="6:7">
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="6:9">
       <c r="F90" s="10" t="s">
         <v>59</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="91" spans="6:7">
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="6:9">
       <c r="F91" s="10" t="s">
         <v>59</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="92" spans="6:7">
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="6:9">
       <c r="F92" s="10" t="s">
         <v>59</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="93" spans="6:7">
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="6:9">
       <c r="F93" s="10" t="s">
         <v>59</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="94" spans="6:7">
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="6:9">
       <c r="F94" s="10" t="s">
         <v>59</v>
       </c>
       <c r="G94" s="10" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="95" spans="6:7">
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="6:9">
       <c r="F95" s="10" t="s">
         <v>59</v>
       </c>
       <c r="G95" s="10" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="96" spans="6:7">
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="6:9">
       <c r="F96" s="10" t="s">
         <v>59</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="97" spans="6:7">
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="6:9">
       <c r="F97" s="11" t="s">
         <v>63</v>
       </c>
       <c r="G97" s="11" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="98" spans="6:7">
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="6:9">
       <c r="F98" s="11" t="s">
         <v>63</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="99" spans="6:7">
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="6:9">
       <c r="F99" s="11" t="s">
         <v>63</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="100" spans="6:7">
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="6:9">
       <c r="F100" s="11" t="s">
         <v>63</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="101" spans="6:7">
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="6:9">
       <c r="F101" s="11" t="s">
         <v>63</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>27</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="6:9">
+      <c r="I102">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2791,7 +3085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:K10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2800,15 +3094,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:11" ht="13.8">
+    <row r="7" spans="4:11">
       <c r="D7" t="s">
         <v>96</v>
       </c>
@@ -2901,7 +3195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D7:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2910,20 +3204,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="23.85546875" style="1" customWidth="1"/>
     <col min="9" max="10" width="24" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="28" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.5546875" style="1" customWidth="1"/>
-    <col min="14" max="15" width="11.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="46.44140625" style="1" customWidth="1"/>
-    <col min="19" max="1025" width="11.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="46.42578125" style="1" customWidth="1"/>
+    <col min="19" max="1025" width="11.5703125" style="1" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\HAND\test-manager-service\src\main\resources\script\meta\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F7C235-2A3E-475B-9504-B8FDE0F6F23E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -214,7 +208,7 @@
     <t>Auto Test</t>
   </si>
   <si>
-    <t>format_shapes</t>
+    <t>test-automation</t>
   </si>
   <si>
     <t>choerodon.code.setting.test</t>
@@ -271,24 +265,207 @@
     <t>IAM_MENU_PERMISSION</t>
   </si>
   <si>
+    <t>REQUIRED</t>
+  </si>
+  <si>
     <t>test-manager-service.test-issue-folder.query</t>
   </si>
   <si>
+    <t>test-manager-service.test-issue-folder-rel.queryIssuesByParameter</t>
+  </si>
+  <si>
     <t>test-manager-service.test-issue-folder-rel.insertTestAndRelationship</t>
   </si>
   <si>
+    <t>test-manager-service.test-case.listCaseByFolderId</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-file-load-history.queryLatestLoadHistory</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.downloadImportTemplate</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-file-load-history.cancelUpLoad</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.importIssues</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-file-load-history.queryIssues</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.downLoadByFolder</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.downExcelFail</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder.create</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder.moveFolder</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder.update</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder.delete</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.createTestCase</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-attachment.uploadFile</t>
+  </si>
+  <si>
     <t>agile-service.issue-attachment.uploadForAddress</t>
   </si>
   <si>
+    <t>test-manager-service.test-case-link.queryLinkIssues</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.queryCaseInfo</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-step.query</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-data-log.queryByCaseId</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.updateCase</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-attachment.uploadAttachment</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.batchCloneCase</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.batchMoveCase</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.deleteCase</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-step.changeOneStep</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-step.clone</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-step.removeStep</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-status.query</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.queryTree</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.queryInfo</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.create</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.query</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.deletePlan</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.clonePlan</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.updateStatus</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.allPlan</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.formStatus</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.update</t>
+  </si>
+  <si>
     <t>base-service.project-user.listProjectUsersByProjectIdAndRoleLable</t>
   </si>
   <si>
     <t>base-service.project.list</t>
   </si>
   <si>
+    <t>test-manager-service.test-cycle.insert</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.update</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.batchChangeAssignedInOneCycle</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.queryLatestLoadHistory</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.importCase</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.moveFolder</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.delete</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.listCaseByCycleId</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.ignoreUpdate</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.updateCompare</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.selectUpdateCompare</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.queryExecutionStatus</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-history.query</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.queryCaseInfo</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-step.querySubStep</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.updateCaseAndStep</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-attachment.removeAttachment</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.queryCaseAndStep</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-step.update</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-defect-rel.removeAttachment</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-defect-rel.insert</t>
+  </si>
+  <si>
     <t>agile-service.scheme.queryIssueTypesWithStateMachineIdByProjectId</t>
   </si>
   <si>
+    <t>test-manager-service.test-cycle-case-defect-rel.createIssueAndLinkDefect</t>
+  </si>
+  <si>
     <t>agile-service.issue.listEpicSelectData</t>
   </si>
   <si>
@@ -316,6 +493,27 @@
     <t>devops-service.devops-environment.listDevopsClusters</t>
   </si>
   <si>
+    <t>test-manager-service.test-automation-history.queryWithInstance</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-app-instance.queryValues</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-app-instance.deploy</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-automation-history.queryLog</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-status.insert</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-status.delete</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-status.update</t>
+  </si>
+  <si>
     <t>FD_REPORT</t>
   </si>
   <si>
@@ -419,218 +617,19 @@
   </si>
   <si>
     <t>{"width": 4, "positionX": 4, "positionY": 2, "height": 4}</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-issue-folder-rel.queryIssuesByParameter</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.listCaseByFolderId</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-file-load-history.queryLatestLoadHistory</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.downloadImportTemplate</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-file-load-history.cancelUpLoad</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.importIssues</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-file-load-history.queryIssues</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.downLoadByFolder</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.downExcelFail</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-issue-folder.create</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-issue-folder.moveFolder</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-issue-folder.update</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-issue-folder.delete</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.createTestCase</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-attachment.uploadFile</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case-link.queryLinkIssues</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.queryCaseInfo</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case-step.query</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case-data-log.queryByCaseId</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.updateCase</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case-attachment.uploadAttachment</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.batchCloneCase</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.batchMoveCase</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.deleteCase</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case-step.changeOneStep</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case-step.clone</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case-step.removeStep</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-status.query</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-plan.queryTree</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-plan.queryInfo</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-plan.create</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-plan.query</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-plan.deletePlan</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-plan.clonePlan</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-plan.updateStatus</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-plan.allPlan</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-plan.formStatus</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.update</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle.insert</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle.update</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle.batchChangeAssignedInOneCycle</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle.queryLatestLoadHistory</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.importCase</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle.moveFolder</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.delete</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.listCaseByCycleId</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.ignoreUpdate</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.updateCompare</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.selectUpdateCompare</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.queryExecutionStatus</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case-history.query</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.queryCaseInfo</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case-step.querySubStep</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.updateCaseAndStep</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-attachment.removeAttachment</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.queryCaseAndStep</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case-step.update</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case-defect-rel.removeAttachment</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case-defect-rel.insert</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case-defect-rel.createIssueAndLinkDefect</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-automation-history.queryWithInstance</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-app-instance.queryValues</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-app-instance.deploy</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-automation-history.queryLog</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-status.insert</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-status.delete</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-status.update</t>
-  </si>
-  <si>
-    <t>REQUIRED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -639,7 +638,6 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -651,7 +649,7 @@
       <sz val="10"/>
       <color theme="9"/>
       <name val="DejaVu Sans"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -684,21 +682,352 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -706,11 +1035,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -723,19 +1294,63 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1020,37 +1635,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:O12"/>
   <sheetViews>
     <sheetView topLeftCell="F4" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="3" width="11.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="44.5703125" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="44.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="36.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.1428571428571" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="18.5714285714286" customWidth="1"/>
+    <col min="14" max="14" width="19.4285714285714" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="16" max="1025" width="11.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:15">
       <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:15">
+    <row r="8" spans="6:14">
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -1117,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="6:14">
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -1146,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="6:15">
       <c r="F10" t="s">
         <v>21</v>
       </c>
@@ -1178,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="6:14">
       <c r="F11" t="s">
         <v>24</v>
       </c>
@@ -1207,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="6:14">
       <c r="F12" t="s">
         <v>27</v>
       </c>
@@ -1237,9 +1852,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -1248,31 +1862,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:P13"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="66.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="1" max="3" width="11.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="15.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="11.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="66.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="16.8571428571429" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="48.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="44.140625" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="48.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="18.5714285714286" customWidth="1"/>
+    <col min="11" max="11" width="44.1428571428571" customWidth="1"/>
+    <col min="12" max="12" width="19.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="11.5714285714286" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="15" max="1025" width="11.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:16" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:16">
       <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
@@ -1313,7 +1928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:16">
+    <row r="8" spans="6:15">
       <c r="F8" s="5" t="s">
         <v>39</v>
       </c>
@@ -1342,7 +1957,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="4:16">
+    <row r="9" spans="6:15">
       <c r="F9" t="s">
         <v>46</v>
       </c>
@@ -1374,7 +1989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:16">
+    <row r="10" spans="6:15">
       <c r="F10" t="s">
         <v>51</v>
       </c>
@@ -1406,7 +2021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="4:16">
+    <row r="11" spans="6:16">
       <c r="F11" t="s">
         <v>55</v>
       </c>
@@ -1441,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:16">
+    <row r="12" spans="6:15">
       <c r="F12" t="s">
         <v>59</v>
       </c>
@@ -1473,7 +2088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="4:16">
+    <row r="13" spans="6:15">
       <c r="F13" t="s">
         <v>63</v>
       </c>
@@ -1506,9 +2121,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -1517,20 +2131,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="41.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="26.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="41.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="26.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="10.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
@@ -1553,7 +2168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:9">
+    <row r="8" spans="6:8">
       <c r="F8" t="s">
         <v>70</v>
       </c>
@@ -1564,7 +2179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:9">
+    <row r="9" spans="6:8">
       <c r="F9" t="s">
         <v>70</v>
       </c>
@@ -1575,7 +2190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="4:9">
+    <row r="10" spans="6:8">
       <c r="F10" t="s">
         <v>70</v>
       </c>
@@ -1586,7 +2201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="4:9">
+    <row r="11" spans="6:8">
       <c r="F11" t="s">
         <v>70</v>
       </c>
@@ -1597,7 +2212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:9">
+    <row r="12" spans="6:8">
       <c r="F12" t="s">
         <v>71</v>
       </c>
@@ -1608,7 +2223,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="4:9">
+    <row r="13" spans="6:8">
       <c r="F13" t="s">
         <v>71</v>
       </c>
@@ -1619,7 +2234,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="4:9">
+    <row r="14" spans="6:9">
       <c r="F14" t="s">
         <v>71</v>
       </c>
@@ -1633,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:9">
+    <row r="15" spans="6:8">
       <c r="F15" t="s">
         <v>71</v>
       </c>
@@ -1644,7 +2259,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="4:9">
+    <row r="16" spans="6:8">
       <c r="F16" t="s">
         <v>71</v>
       </c>
@@ -1766,26 +2381,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="44.42578125" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="44.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="44.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="14.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
@@ -1805,7 +2421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:8">
+    <row r="8" spans="6:7">
       <c r="F8" t="s">
         <v>78</v>
       </c>
@@ -1813,7 +2429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="6:7">
       <c r="F9" t="s">
         <v>78</v>
       </c>
@@ -1821,7 +2437,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="6:8">
       <c r="F10" t="s">
         <v>78</v>
       </c>
@@ -1832,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
+    <row r="11" spans="6:7">
       <c r="F11" t="s">
         <v>78</v>
       </c>
@@ -1840,7 +2456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="6:7">
       <c r="F12" t="s">
         <v>78</v>
       </c>
@@ -1848,7 +2464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
+    <row r="13" spans="6:7">
       <c r="F13" t="s">
         <v>79</v>
       </c>
@@ -1856,7 +2472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
+    <row r="14" spans="6:7">
       <c r="F14" t="s">
         <v>79</v>
       </c>
@@ -1864,7 +2480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
+    <row r="15" spans="6:7">
       <c r="F15" t="s">
         <v>79</v>
       </c>
@@ -1872,7 +2488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
+    <row r="16" spans="6:7">
       <c r="F16" t="s">
         <v>79</v>
       </c>
@@ -1881,30 +2497,31 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="1" max="3" width="11.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="23.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="11.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="7" width="59.140625" customWidth="1"/>
-    <col min="8" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="59.1428571428571" customWidth="1"/>
+    <col min="8" max="1025" width="11.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:9">
       <c r="D7" s="5" t="s">
         <v>80</v>
       </c>
@@ -1921,413 +2538,413 @@
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" ht="12.75" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="4:9">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="12.75" customHeight="1">
+    <row r="9" customHeight="1" spans="4:9">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="12.75" customHeight="1">
+    <row r="10" customHeight="1" spans="4:9">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:9" ht="12.75" customHeight="1">
+    <row r="11" customHeight="1" spans="4:9">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:9" ht="12.75" customHeight="1">
+    <row r="12" customHeight="1" spans="4:9">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:9" ht="12.75" customHeight="1">
+    <row r="13" customHeight="1" spans="4:9">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:9" ht="12.75" customHeight="1">
+    <row r="14" customHeight="1" spans="4:9">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:9" ht="12.75" customHeight="1">
+    <row r="15" customHeight="1" spans="4:9">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:9" ht="12.75" customHeight="1">
+    <row r="16" customHeight="1" spans="4:9">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:9" ht="12.75" customHeight="1">
+    <row r="17" customHeight="1" spans="4:9">
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="12.75" customHeight="1">
+    <row r="18" customHeight="1" spans="4:9">
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:9" ht="12.75" customHeight="1">
+    <row r="19" customHeight="1" spans="4:9">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:9" ht="12.75" customHeight="1">
+    <row r="20" customHeight="1" spans="4:9">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="4:9" ht="12.75" customHeight="1">
+    <row r="21" customHeight="1" spans="4:9">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="4:9" ht="12.75" customHeight="1">
+    <row r="22" customHeight="1" spans="4:9">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="4:9" ht="12.75" customHeight="1">
+    <row r="23" customHeight="1" spans="4:9">
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="4:9" ht="12.75" customHeight="1">
+    <row r="24" customHeight="1" spans="4:9">
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:9" ht="12.75" customHeight="1">
+    <row r="25" customHeight="1" spans="4:9">
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:9" ht="12.75" customHeight="1">
+    <row r="26" customHeight="1" spans="4:9">
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="4:9" ht="12.75" customHeight="1">
+    <row r="27" customHeight="1" spans="4:9">
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="4:9" ht="12.75" customHeight="1">
+    <row r="28" customHeight="1" spans="4:9">
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="4:9" ht="12.75" customHeight="1">
+    <row r="29" customHeight="1" spans="4:9">
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="4:9" ht="12.75" customHeight="1">
+    <row r="30" customHeight="1" spans="4:9">
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="4:9" ht="12.75" customHeight="1">
+    <row r="31" customHeight="1" spans="4:9">
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:9" ht="12.75" customHeight="1">
+    <row r="32" customHeight="1" spans="4:9">
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="4:9" ht="12.75" customHeight="1">
+    <row r="33" customHeight="1" spans="4:9">
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="4:9" ht="12.75" customHeight="1">
+    <row r="34" customHeight="1" spans="4:9">
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="4:9" ht="12.75" customHeight="1">
+    <row r="35" customHeight="1" spans="4:9">
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:9" ht="12.75" customHeight="1">
+    <row r="36" customHeight="1" spans="4:9">
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="4:9" ht="12.75" customHeight="1">
+    <row r="37" customHeight="1" spans="4:9">
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:9" ht="12.75" customHeight="1">
+    <row r="38" customHeight="1" spans="4:9">
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="4:9" ht="12.75" customHeight="1">
+    <row r="39" customHeight="1" spans="4:9">
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
@@ -2340,322 +2957,322 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="4:9" ht="12.75" customHeight="1">
+    <row r="40" customHeight="1" spans="4:9">
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="4:9" ht="12.75" customHeight="1">
+    <row r="41" customHeight="1" spans="4:9">
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="4:9" ht="12.75" customHeight="1">
+    <row r="42" customHeight="1" spans="4:9">
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="4:9" ht="12.75" customHeight="1">
+    <row r="43" customHeight="1" spans="4:9">
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="4:9" ht="12.75" customHeight="1">
+    <row r="44" customHeight="1" spans="4:9">
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="4:9" ht="12.75" customHeight="1">
+    <row r="45" customHeight="1" spans="4:9">
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="4:9" ht="12.75" customHeight="1">
+    <row r="46" customHeight="1" spans="4:9">
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="4:9" ht="12.75" customHeight="1">
+    <row r="47" customHeight="1" spans="4:9">
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="4:9" ht="12.75" customHeight="1">
+    <row r="48" customHeight="1" spans="4:9">
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="4:9" ht="12.75" customHeight="1">
+    <row r="49" customHeight="1" spans="4:9">
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="4:9" ht="12.75" customHeight="1">
+    <row r="50" customHeight="1" spans="4:9">
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="4:9" ht="12.75" customHeight="1">
+    <row r="51" customHeight="1" spans="4:9">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="4:9" ht="12.75" customHeight="1">
+    <row r="52" customHeight="1" spans="4:9">
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="4:9" ht="12.75" customHeight="1">
+    <row r="53" customHeight="1" spans="4:9">
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="4:9" ht="12.75" customHeight="1">
+    <row r="54" customHeight="1" spans="4:9">
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="4:9" ht="12.75" customHeight="1">
+    <row r="55" customHeight="1" spans="4:9">
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="4:9" ht="12.75" customHeight="1">
+    <row r="56" customHeight="1" spans="4:9">
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="4:9" ht="12.75" customHeight="1">
+    <row r="57" customHeight="1" spans="4:9">
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="4:9" ht="12.75" customHeight="1">
+    <row r="58" customHeight="1" spans="4:9">
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="4:9" ht="12.75" customHeight="1">
+    <row r="59" customHeight="1" spans="4:9">
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="4:9" ht="12.75" customHeight="1">
+    <row r="60" customHeight="1" spans="4:9">
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="4:9" ht="12.75" customHeight="1">
+    <row r="61" customHeight="1" spans="4:9">
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="4:9" ht="12.75" customHeight="1">
+    <row r="62" customHeight="1" spans="4:9">
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="4:9">
+    <row r="63" spans="6:9">
       <c r="F63" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="4:9">
+    <row r="64" spans="6:9">
       <c r="F64" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -2666,7 +3283,7 @@
         <v>51</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -2677,7 +3294,7 @@
         <v>51</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -2688,7 +3305,7 @@
         <v>51</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -2699,7 +3316,7 @@
         <v>51</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -2710,7 +3327,7 @@
         <v>51</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -2721,7 +3338,7 @@
         <v>51</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -2732,7 +3349,7 @@
         <v>51</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -2743,7 +3360,7 @@
         <v>51</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -2754,7 +3371,7 @@
         <v>51</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -2765,7 +3382,7 @@
         <v>51</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -2776,7 +3393,7 @@
         <v>51</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -2787,7 +3404,7 @@
         <v>51</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -2798,7 +3415,7 @@
         <v>51</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -2809,7 +3426,7 @@
         <v>51</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -2820,7 +3437,7 @@
         <v>51</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -2831,7 +3448,7 @@
         <v>51</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -2842,7 +3459,7 @@
         <v>51</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -2853,7 +3470,7 @@
         <v>51</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -2864,7 +3481,7 @@
         <v>51</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -2875,7 +3492,7 @@
         <v>51</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -2886,7 +3503,7 @@
         <v>51</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -2897,7 +3514,7 @@
         <v>51</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -2908,7 +3525,7 @@
         <v>51</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -2919,7 +3536,7 @@
         <v>51</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -2930,7 +3547,7 @@
         <v>51</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -2941,7 +3558,7 @@
         <v>59</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -2952,7 +3569,7 @@
         <v>59</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -2963,7 +3580,7 @@
         <v>59</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -2974,7 +3591,7 @@
         <v>59</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -2985,7 +3602,7 @@
         <v>59</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -2996,7 +3613,7 @@
         <v>59</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -3018,7 +3635,7 @@
         <v>63</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -3029,7 +3646,7 @@
         <v>63</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -3040,7 +3657,7 @@
         <v>63</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -3051,7 +3668,7 @@
         <v>63</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -3068,15 +3685,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="6:9">
+    <row r="102" spans="9:9">
       <c r="I102">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -3085,145 +3701,147 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:K10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="17.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="24.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="23.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="20.4285714285714" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="4:11">
+    <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="K8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:11">
+    <row r="9" spans="6:11">
       <c r="F9" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="K9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="4:11">
+    <row r="10" spans="6:11">
       <c r="F10" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="K10">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="23.85546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="8" width="23.8571428571429" style="1" customWidth="1"/>
     <col min="9" max="10" width="24" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.4285714285714" style="1" customWidth="1"/>
     <col min="12" max="12" width="28" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="11.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="46.42578125" style="1" customWidth="1"/>
-    <col min="19" max="1025" width="11.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5714285714286" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5714285714286" style="1" customWidth="1"/>
+    <col min="18" max="18" width="46.4285714285714" style="1" customWidth="1"/>
+    <col min="19" max="1025" width="11.5714285714286" style="1" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="1" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -3232,7 +3850,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>31</v>
@@ -3241,13 +3859,13 @@
         <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>6</v>
@@ -3259,16 +3877,16 @@
         <v>38</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="4:18">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="5:17">
       <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
@@ -3276,16 +3894,16 @@
         <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>14</v>
@@ -3294,7 +3912,7 @@
         <v>15</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>45</v>
@@ -3309,24 +3927,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="5:17">
       <c r="E9" s="1" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>14</v>
@@ -3335,10 +3953,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="O9" s="1">
         <v>2</v>
@@ -3350,24 +3968,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="5:17">
       <c r="E10" s="1" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>14</v>
@@ -3376,10 +3994,10 @@
         <v>15</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="O10" s="1">
         <v>3</v>
@@ -3391,24 +4009,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="5:18">
       <c r="E11" s="1" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>14</v>
@@ -3417,10 +4035,10 @@
         <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="O11" s="1">
         <v>4</v>
@@ -3432,12 +4050,12 @@
         <v>1</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\test-manager-service\src\main\resources\script\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB405CCC-79D7-4427-97A8-156155D6EDFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="200">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -617,19 +623,17 @@
   </si>
   <si>
     <t>{"width": 4, "positionX": 4, "positionY": 2, "height": 4}</t>
+  </si>
+  <si>
+    <t>SORT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -638,6 +642,7 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -682,352 +687,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1035,253 +714,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1294,63 +731,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1635,37 +1029,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O12"/>
   <sheetViews>
     <sheetView topLeftCell="F4" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5714285714286" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="44.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="36.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.1428571428571" customWidth="1"/>
-    <col min="13" max="13" width="18.5714285714286" customWidth="1"/>
-    <col min="14" max="14" width="19.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.5714285714286" customWidth="1"/>
+    <col min="16" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:14">
+    <row r="8" spans="4:15">
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -1732,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -1761,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:15">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
         <v>21</v>
       </c>
@@ -1793,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:15">
       <c r="F11" t="s">
         <v>24</v>
       </c>
@@ -1822,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:15">
       <c r="F12" t="s">
         <v>27</v>
       </c>
@@ -1852,8 +1246,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -1862,32 +1257,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="15.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="11.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="66.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="16.8571428571429" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="66.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="48.5714285714286" customWidth="1"/>
-    <col min="10" max="10" width="18.5714285714286" customWidth="1"/>
-    <col min="11" max="11" width="44.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="19.1428571428571" customWidth="1"/>
-    <col min="13" max="13" width="11.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="48.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="44.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="1025" width="11.5714285714286" customWidth="1"/>
+    <col min="15" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:16">
+    <row r="7" spans="4:16" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
@@ -1921,14 +1315,14 @@
       <c r="N7" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>38</v>
+      <c r="O7" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="P7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:15">
+    <row r="8" spans="4:16">
       <c r="F8" s="5" t="s">
         <v>39</v>
       </c>
@@ -1957,7 +1351,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="6:15">
+    <row r="9" spans="4:16">
       <c r="F9" t="s">
         <v>46</v>
       </c>
@@ -1989,7 +1383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="6:15">
+    <row r="10" spans="4:16">
       <c r="F10" t="s">
         <v>51</v>
       </c>
@@ -2021,7 +1415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="6:16">
+    <row r="11" spans="4:16">
       <c r="F11" t="s">
         <v>55</v>
       </c>
@@ -2056,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="6:15">
+    <row r="12" spans="4:16">
       <c r="F12" t="s">
         <v>59</v>
       </c>
@@ -2088,7 +1482,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="6:15">
+    <row r="13" spans="4:16">
       <c r="F13" t="s">
         <v>63</v>
       </c>
@@ -2121,8 +1515,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -2131,21 +1526,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="22.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="26.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="41.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="26.1428571428571" customWidth="1"/>
-    <col min="9" max="9" width="10.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="41.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
@@ -2168,7 +1562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:8">
+    <row r="8" spans="4:9">
       <c r="F8" t="s">
         <v>70</v>
       </c>
@@ -2179,7 +1573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="6:8">
+    <row r="9" spans="4:9">
       <c r="F9" t="s">
         <v>70</v>
       </c>
@@ -2190,7 +1584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="6:8">
+    <row r="10" spans="4:9">
       <c r="F10" t="s">
         <v>70</v>
       </c>
@@ -2201,7 +1595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="6:8">
+    <row r="11" spans="4:9">
       <c r="F11" t="s">
         <v>70</v>
       </c>
@@ -2212,7 +1606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="6:8">
+    <row r="12" spans="4:9">
       <c r="F12" t="s">
         <v>71</v>
       </c>
@@ -2223,7 +1617,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="6:8">
+    <row r="13" spans="4:9">
       <c r="F13" t="s">
         <v>71</v>
       </c>
@@ -2234,7 +1628,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="6:9">
+    <row r="14" spans="4:9">
       <c r="F14" t="s">
         <v>71</v>
       </c>
@@ -2248,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="6:8">
+    <row r="15" spans="4:9">
       <c r="F15" t="s">
         <v>71</v>
       </c>
@@ -2259,7 +1653,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="6:8">
+    <row r="16" spans="4:9">
       <c r="F16" t="s">
         <v>71</v>
       </c>
@@ -2381,27 +1775,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="29.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="44.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="44.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="14.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
@@ -2421,7 +1814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:7">
+    <row r="8" spans="4:8">
       <c r="F8" t="s">
         <v>78</v>
       </c>
@@ -2429,7 +1822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
+    <row r="9" spans="4:8">
       <c r="F9" t="s">
         <v>78</v>
       </c>
@@ -2437,7 +1830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="6:8">
+    <row r="10" spans="4:8">
       <c r="F10" t="s">
         <v>78</v>
       </c>
@@ -2448,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="6:7">
+    <row r="11" spans="4:8">
       <c r="F11" t="s">
         <v>78</v>
       </c>
@@ -2456,7 +1849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="6:7">
+    <row r="12" spans="4:8">
       <c r="F12" t="s">
         <v>78</v>
       </c>
@@ -2464,7 +1857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="6:7">
+    <row r="13" spans="4:8">
       <c r="F13" t="s">
         <v>79</v>
       </c>
@@ -2472,7 +1865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="6:7">
+    <row r="14" spans="4:8">
       <c r="F14" t="s">
         <v>79</v>
       </c>
@@ -2480,7 +1873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="6:7">
+    <row r="15" spans="4:8">
       <c r="F15" t="s">
         <v>79</v>
       </c>
@@ -2488,7 +1881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="6:7">
+    <row r="16" spans="4:8">
       <c r="F16" t="s">
         <v>79</v>
       </c>
@@ -2497,31 +1890,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="23.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="11.5714285714286" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="7" width="59.1428571428571" customWidth="1"/>
-    <col min="8" max="1025" width="11.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="59.140625" customWidth="1"/>
+    <col min="8" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>80</v>
       </c>
@@ -2541,7 +1933,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="4:9">
+    <row r="8" spans="4:9" ht="12.75" customHeight="1">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
@@ -2554,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="4:9">
+    <row r="9" spans="4:9" ht="12.75" customHeight="1">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
@@ -2567,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="4:9">
+    <row r="10" spans="4:9" ht="12.75" customHeight="1">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
@@ -2580,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="4:9">
+    <row r="11" spans="4:9" ht="12.75" customHeight="1">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
@@ -2593,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="4:9">
+    <row r="12" spans="4:9" ht="12.75" customHeight="1">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
@@ -2606,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="4:9">
+    <row r="13" spans="4:9" ht="12.75" customHeight="1">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
@@ -2619,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="4:9">
+    <row r="14" spans="4:9" ht="12.75" customHeight="1">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
@@ -2632,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="4:9">
+    <row r="15" spans="4:9" ht="12.75" customHeight="1">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
@@ -2645,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="4:9">
+    <row r="16" spans="4:9" ht="12.75" customHeight="1">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
@@ -2658,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="4:9">
+    <row r="17" spans="4:9" ht="12.75" customHeight="1">
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
@@ -2671,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="4:9">
+    <row r="18" spans="4:9" ht="12.75" customHeight="1">
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
@@ -2684,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="4:9">
+    <row r="19" spans="4:9" ht="12.75" customHeight="1">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
@@ -2697,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="4:9">
+    <row r="20" spans="4:9" ht="12.75" customHeight="1">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
@@ -2710,7 +2102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="4:9">
+    <row r="21" spans="4:9" ht="12.75" customHeight="1">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
@@ -2723,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="4:9">
+    <row r="22" spans="4:9" ht="12.75" customHeight="1">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
@@ -2736,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="4:9">
+    <row r="23" spans="4:9" ht="12.75" customHeight="1">
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
@@ -2749,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="4:9">
+    <row r="24" spans="4:9" ht="12.75" customHeight="1">
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
@@ -2762,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="4:9">
+    <row r="25" spans="4:9" ht="12.75" customHeight="1">
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
@@ -2775,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="4:9">
+    <row r="26" spans="4:9" ht="12.75" customHeight="1">
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
@@ -2788,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="4:9">
+    <row r="27" spans="4:9" ht="12.75" customHeight="1">
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
@@ -2801,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="4:9">
+    <row r="28" spans="4:9" ht="12.75" customHeight="1">
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
@@ -2814,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="4:9">
+    <row r="29" spans="4:9" ht="12.75" customHeight="1">
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
@@ -2827,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="4:9">
+    <row r="30" spans="4:9" ht="12.75" customHeight="1">
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
@@ -2840,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="4:9">
+    <row r="31" spans="4:9" ht="12.75" customHeight="1">
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
@@ -2853,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="4:9">
+    <row r="32" spans="4:9" ht="12.75" customHeight="1">
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
@@ -2866,7 +2258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="4:9">
+    <row r="33" spans="4:9" ht="12.75" customHeight="1">
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
@@ -2879,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="4:9">
+    <row r="34" spans="4:9" ht="12.75" customHeight="1">
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
@@ -2892,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="4:9">
+    <row r="35" spans="4:9" ht="12.75" customHeight="1">
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
@@ -2905,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="4:9">
+    <row r="36" spans="4:9" ht="12.75" customHeight="1">
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
@@ -2918,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="4:9">
+    <row r="37" spans="4:9" ht="12.75" customHeight="1">
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
@@ -2931,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="4:9">
+    <row r="38" spans="4:9" ht="12.75" customHeight="1">
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
@@ -2944,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="4:9">
+    <row r="39" spans="4:9" ht="12.75" customHeight="1">
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
@@ -2957,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="4:9">
+    <row r="40" spans="4:9" ht="12.75" customHeight="1">
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="8" t="s">
@@ -2970,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="4:9">
+    <row r="41" spans="4:9" ht="12.75" customHeight="1">
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="8" t="s">
@@ -2983,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="4:9">
+    <row r="42" spans="4:9" ht="12.75" customHeight="1">
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="8" t="s">
@@ -2996,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="4:9">
+    <row r="43" spans="4:9" ht="12.75" customHeight="1">
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="8" t="s">
@@ -3009,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="4:9">
+    <row r="44" spans="4:9" ht="12.75" customHeight="1">
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="8" t="s">
@@ -3022,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="4:9">
+    <row r="45" spans="4:9" ht="12.75" customHeight="1">
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="8" t="s">
@@ -3035,7 +2427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="4:9">
+    <row r="46" spans="4:9" ht="12.75" customHeight="1">
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="8" t="s">
@@ -3048,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="4:9">
+    <row r="47" spans="4:9" ht="12.75" customHeight="1">
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="8" t="s">
@@ -3061,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="4:9">
+    <row r="48" spans="4:9" ht="12.75" customHeight="1">
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="8" t="s">
@@ -3074,7 +2466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="4:9">
+    <row r="49" spans="4:9" ht="12.75" customHeight="1">
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="8" t="s">
@@ -3087,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="4:9">
+    <row r="50" spans="4:9" ht="12.75" customHeight="1">
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="8" t="s">
@@ -3100,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="4:9">
+    <row r="51" spans="4:9" ht="12.75" customHeight="1">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="8" t="s">
@@ -3113,7 +2505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="4:9">
+    <row r="52" spans="4:9" ht="12.75" customHeight="1">
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="8" t="s">
@@ -3126,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="4:9">
+    <row r="53" spans="4:9" ht="12.75" customHeight="1">
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="8" t="s">
@@ -3139,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="4:9">
+    <row r="54" spans="4:9" ht="12.75" customHeight="1">
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="8" t="s">
@@ -3152,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="4:9">
+    <row r="55" spans="4:9" ht="12.75" customHeight="1">
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="8" t="s">
@@ -3165,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="4:9">
+    <row r="56" spans="4:9" ht="12.75" customHeight="1">
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="8" t="s">
@@ -3178,7 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="4:9">
+    <row r="57" spans="4:9" ht="12.75" customHeight="1">
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="8" t="s">
@@ -3191,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="4:9">
+    <row r="58" spans="4:9" ht="12.75" customHeight="1">
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="8" t="s">
@@ -3204,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="4:9">
+    <row r="59" spans="4:9" ht="12.75" customHeight="1">
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="8" t="s">
@@ -3217,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="4:9">
+    <row r="60" spans="4:9" ht="12.75" customHeight="1">
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="8" t="s">
@@ -3230,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="4:9">
+    <row r="61" spans="4:9" ht="12.75" customHeight="1">
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="8" t="s">
@@ -3243,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="4:9">
+    <row r="62" spans="4:9" ht="12.75" customHeight="1">
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="8" t="s">
@@ -3256,7 +2648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="6:9">
+    <row r="63" spans="4:9">
       <c r="F63" s="8" t="s">
         <v>51</v>
       </c>
@@ -3267,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="6:9">
+    <row r="64" spans="4:9">
       <c r="F64" s="8" t="s">
         <v>51</v>
       </c>
@@ -3685,14 +3077,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="9:9">
+    <row r="102" spans="6:9">
       <c r="I102">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -3701,21 +3094,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:K10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="16.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="17.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="24.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="23.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="20.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3745,7 +3137,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="6:11">
+    <row r="8" spans="4:11">
       <c r="F8" t="s">
         <v>168</v>
       </c>
@@ -3765,7 +3157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="6:11">
+    <row r="9" spans="4:11">
       <c r="F9" t="s">
         <v>168</v>
       </c>
@@ -3785,7 +3177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="6:11">
+    <row r="10" spans="4:11">
       <c r="F10" t="s">
         <v>168</v>
       </c>
@@ -3806,36 +3198,35 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D7:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="8" width="23.8571428571429" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="23.85546875" style="1" customWidth="1"/>
     <col min="9" max="10" width="24" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="28" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.5714285714286" style="1" customWidth="1"/>
-    <col min="14" max="15" width="11.5714285714286" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5714285714286" style="1" customWidth="1"/>
-    <col min="18" max="18" width="46.4285714285714" style="1" customWidth="1"/>
-    <col min="19" max="1025" width="11.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="46.42578125" style="1" customWidth="1"/>
+    <col min="19" max="1025" width="11.5703125" style="1" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3886,7 +3277,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="5:17">
+    <row r="8" spans="4:18">
       <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
@@ -3927,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:17">
+    <row r="9" spans="4:18">
       <c r="E9" s="1" t="s">
         <v>190</v>
       </c>
@@ -3968,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="5:17">
+    <row r="10" spans="4:18">
       <c r="E10" s="1" t="s">
         <v>193</v>
       </c>
@@ -4009,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="5:18">
+    <row r="11" spans="4:18">
       <c r="E11" s="1" t="s">
         <v>195</v>
       </c>
@@ -4054,8 +3445,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>